--- a/output1.xlsx
+++ b/output1.xlsx
@@ -462,7 +462,7 @@
         <v>-1.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3360881542699725</v>
+        <v>2.975409836065574</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5730027548209367</v>
+        <v>1.745192307692308</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>0.63</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2258953168044077</v>
+        <v>4.426829268292683</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>-0.02</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2782369146005509</v>
+        <v>3.594059405940594</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>1.02</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4325068870523416</v>
+        <v>2.312101910828026</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>-2.49</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8347107438016529</v>
+        <v>1.198019801980198</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>7.6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6473829201101928</v>
+        <v>1.54468085106383</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +598,7 @@
         <v>0.46</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4958677685950413</v>
+        <v>2.016666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -615,7 +615,7 @@
         <v>4.45</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3553719008264463</v>
+        <v>2.813953488372093</v>
       </c>
     </row>
     <row r="12">
@@ -632,7 +632,7 @@
         <v>-0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8622589531680441</v>
+        <v>1.159744408945687</v>
       </c>
     </row>
     <row r="13">
@@ -649,7 +649,7 @@
         <v>1.36</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4931129476584022</v>
+        <v>2.027932960893855</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>-1.04</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7355371900826446</v>
+        <v>1.359550561797753</v>
       </c>
     </row>
     <row r="15">
@@ -683,7 +683,7 @@
         <v>-0.43</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6363636363636364</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +700,7 @@
         <v>14.99</v>
       </c>
       <c r="E16" t="n">
-        <v>0.931129476584022</v>
+        <v>1.07396449704142</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +717,7 @@
         <v>1.03</v>
       </c>
       <c r="E17" t="n">
-        <v>0.440771349862259</v>
+        <v>2.26875</v>
       </c>
     </row>
     <row r="18">
@@ -734,7 +734,7 @@
         <v>-0.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8264462809917356</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +751,7 @@
         <v>0.22</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7162534435261708</v>
+        <v>1.396153846153846</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +768,7 @@
         <v>0.48</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6611570247933884</v>
+        <v>1.5125</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +785,7 @@
         <v>-1.02</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6942148760330579</v>
+        <v>1.44047619047619</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +802,7 @@
         <v>0.09</v>
       </c>
       <c r="E22" t="n">
-        <v>0.512396694214876</v>
+        <v>1.951612903225807</v>
       </c>
     </row>
     <row r="23">
@@ -819,7 +819,7 @@
         <v>8.18</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6391184573002755</v>
+        <v>1.564655172413793</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +836,7 @@
         <v>-2.69</v>
       </c>
       <c r="E24" t="n">
-        <v>0.859504132231405</v>
+        <v>1.163461538461538</v>
       </c>
     </row>
     <row r="25">
@@ -853,7 +853,7 @@
         <v>1.14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3774104683195592</v>
+        <v>2.64963503649635</v>
       </c>
     </row>
     <row r="26">
@@ -870,7 +870,7 @@
         <v>0.99</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3168044077134986</v>
+        <v>3.156521739130435</v>
       </c>
     </row>
     <row r="27">
@@ -887,7 +887,7 @@
         <v>-0.88</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7410468319559229</v>
+        <v>1.349442379182156</v>
       </c>
     </row>
     <row r="28">
@@ -904,7 +904,7 @@
         <v>1.6</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5647382920110193</v>
+        <v>1.770731707317073</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         <v>-0.58</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7327823691460055</v>
+        <v>1.364661654135338</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3085399449035813</v>
+        <v>3.241071428571428</v>
       </c>
     </row>
     <row r="31">
@@ -955,7 +955,7 @@
         <v>0.53</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4848484848484849</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="32">
@@ -972,7 +972,7 @@
         <v>-0.35</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9173553719008265</v>
+        <v>1.09009009009009</v>
       </c>
     </row>
     <row r="33">
@@ -989,7 +989,7 @@
         <v>-1.94</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7630853994490359</v>
+        <v>1.310469314079422</v>
       </c>
     </row>
     <row r="34">
@@ -1006,7 +1006,7 @@
         <v>1.02</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2424242424242424</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="35">
@@ -1023,7 +1023,7 @@
         <v>-7.44</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9338842975206612</v>
+        <v>1.070796460176991</v>
       </c>
     </row>
     <row r="36">
@@ -1040,7 +1040,7 @@
         <v>0.09</v>
       </c>
       <c r="E36" t="n">
-        <v>0.325068870523416</v>
+        <v>3.076271186440678</v>
       </c>
     </row>
     <row r="37">
@@ -1057,7 +1057,7 @@
         <v>0.14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5950413223140496</v>
+        <v>1.680555555555556</v>
       </c>
     </row>
     <row r="38">
@@ -1074,7 +1074,7 @@
         <v>3.77</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4214876033057851</v>
+        <v>2.372549019607843</v>
       </c>
     </row>
     <row r="39">
@@ -1091,7 +1091,7 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2920110192837466</v>
+        <v>3.424528301886792</v>
       </c>
     </row>
     <row r="40">
@@ -1108,7 +1108,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4683195592286502</v>
+        <v>2.135294117647059</v>
       </c>
     </row>
     <row r="41">
@@ -1125,7 +1125,7 @@
         <v>-4.51</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8980716253443526</v>
+        <v>1.113496932515337</v>
       </c>
     </row>
     <row r="42">
@@ -1142,7 +1142,7 @@
         <v>2.21</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3884297520661157</v>
+        <v>2.574468085106383</v>
       </c>
     </row>
     <row r="43">
@@ -1159,7 +1159,7 @@
         <v>2.84</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3856749311294766</v>
+        <v>2.592857142857143</v>
       </c>
     </row>
     <row r="44">
@@ -1176,7 +1176,7 @@
         <v>1.02</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7575757575757576</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="45">
@@ -1193,7 +1193,7 @@
         <v>-0.2</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6253443526170799</v>
+        <v>1.599118942731278</v>
       </c>
     </row>
     <row r="46">
@@ -1210,7 +1210,7 @@
         <v>0.42</v>
       </c>
       <c r="E46" t="n">
-        <v>0.509641873278237</v>
+        <v>1.962162162162162</v>
       </c>
     </row>
     <row r="47">
@@ -1227,7 +1227,7 @@
         <v>-0.21</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6115702479338843</v>
+        <v>1.635135135135135</v>
       </c>
     </row>
     <row r="48">
@@ -1244,7 +1244,7 @@
         <v>-0.34</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6170798898071626</v>
+        <v>1.620535714285714</v>
       </c>
     </row>
     <row r="49">
@@ -1261,7 +1261,7 @@
         <v>1.22</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4600550964187328</v>
+        <v>2.173652694610778</v>
       </c>
     </row>
     <row r="50">
@@ -1278,7 +1278,7 @@
         <v>-0.51</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7520661157024794</v>
+        <v>1.32967032967033</v>
       </c>
     </row>
     <row r="51">
@@ -1295,7 +1295,7 @@
         <v>1.35</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5619834710743802</v>
+        <v>1.779411764705882</v>
       </c>
     </row>
     <row r="52">
@@ -1312,7 +1312,7 @@
         <v>-1.08</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7024793388429752</v>
+        <v>1.423529411764706</v>
       </c>
     </row>
     <row r="53">
@@ -1329,7 +1329,7 @@
         <v>-0.96</v>
       </c>
       <c r="E53" t="n">
-        <v>0.90633608815427</v>
+        <v>1.103343465045593</v>
       </c>
     </row>
     <row r="54">
@@ -1346,7 +1346,7 @@
         <v>6.63</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4380165289256198</v>
+        <v>2.283018867924528</v>
       </c>
     </row>
     <row r="55">
@@ -1363,7 +1363,7 @@
         <v>-0.57</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7079889807162535</v>
+        <v>1.412451361867704</v>
       </c>
     </row>
     <row r="56">
@@ -1380,7 +1380,7 @@
         <v>2.63</v>
       </c>
       <c r="E56" t="n">
-        <v>0.953168044077135</v>
+        <v>1.049132947976879</v>
       </c>
     </row>
     <row r="57">
@@ -1397,7 +1397,7 @@
         <v>2.17</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4049586776859504</v>
+        <v>2.469387755102041</v>
       </c>
     </row>
     <row r="58">
@@ -1414,7 +1414,7 @@
         <v>-0.51</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6776859504132231</v>
+        <v>1.475609756097561</v>
       </c>
     </row>
     <row r="59">
@@ -1431,7 +1431,7 @@
         <v>-2.47</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8044077134986226</v>
+        <v>1.243150684931507</v>
       </c>
     </row>
     <row r="60">
@@ -1448,7 +1448,7 @@
         <v>-1.41</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7548209366391184</v>
+        <v>1.324817518248175</v>
       </c>
     </row>
     <row r="61">
@@ -1465,7 +1465,7 @@
         <v>0.14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6721763085399449</v>
+        <v>1.487704918032787</v>
       </c>
     </row>
     <row r="62">
@@ -1482,7 +1482,7 @@
         <v>-0.01</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5785123966942148</v>
+        <v>1.728571428571429</v>
       </c>
     </row>
     <row r="63">
@@ -1499,7 +1499,7 @@
         <v>0.54</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3443526170798898</v>
+        <v>2.904</v>
       </c>
     </row>
     <row r="64">
@@ -1533,7 +1533,7 @@
         <v>1.41</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4573002754820937</v>
+        <v>2.186746987951807</v>
       </c>
     </row>
     <row r="66">
@@ -1550,7 +1550,7 @@
         <v>1.32</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9504132231404959</v>
+        <v>1.052173913043478</v>
       </c>
     </row>
     <row r="67">
@@ -1567,7 +1567,7 @@
         <v>0.77</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3663911845730027</v>
+        <v>2.729323308270677</v>
       </c>
     </row>
     <row r="68">
@@ -1584,7 +1584,7 @@
         <v>0.3</v>
       </c>
       <c r="E68" t="n">
-        <v>0.559228650137741</v>
+        <v>1.788177339901478</v>
       </c>
     </row>
     <row r="69">
@@ -1601,7 +1601,7 @@
         <v>1.87</v>
       </c>
       <c r="E69" t="n">
-        <v>0.231404958677686</v>
+        <v>4.321428571428571</v>
       </c>
     </row>
     <row r="70">
@@ -1618,7 +1618,7 @@
         <v>1.58</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2341597796143251</v>
+        <v>4.270588235294118</v>
       </c>
     </row>
     <row r="71">
@@ -1635,7 +1635,7 @@
         <v>1.46</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4269972451790633</v>
+        <v>2.341935483870968</v>
       </c>
     </row>
     <row r="72">
@@ -1652,7 +1652,7 @@
         <v>-2.95</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8484848484848485</v>
+        <v>1.178571428571429</v>
       </c>
     </row>
     <row r="73">
@@ -1669,7 +1669,7 @@
         <v>-0.35</v>
       </c>
       <c r="E73" t="n">
-        <v>0.768595041322314</v>
+        <v>1.301075268817204</v>
       </c>
     </row>
     <row r="74">
@@ -1686,7 +1686,7 @@
         <v>1.46</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2865013774104683</v>
+        <v>3.490384615384615</v>
       </c>
     </row>
     <row r="75">
@@ -1703,7 +1703,7 @@
         <v>1.16</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2396694214876033</v>
+        <v>4.172413793103448</v>
       </c>
     </row>
     <row r="76">
@@ -1720,7 +1720,7 @@
         <v>1.76</v>
       </c>
       <c r="E76" t="n">
-        <v>0.371900826446281</v>
+        <v>2.688888888888889</v>
       </c>
     </row>
     <row r="77">
@@ -1737,7 +1737,7 @@
         <v>1.33</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5068870523415978</v>
+        <v>1.972826086956522</v>
       </c>
     </row>
     <row r="78">
@@ -1754,7 +1754,7 @@
         <v>-0.54</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6831955922865014</v>
+        <v>1.463709677419355</v>
       </c>
     </row>
     <row r="79">
@@ -1771,7 +1771,7 @@
         <v>-3.61</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8567493112947658</v>
+        <v>1.167202572347267</v>
       </c>
     </row>
     <row r="80">
@@ -1788,7 +1788,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4104683195592286</v>
+        <v>2.436241610738255</v>
       </c>
     </row>
     <row r="81">
@@ -1805,7 +1805,7 @@
         <v>2.27</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4159779614325069</v>
+        <v>2.403973509933775</v>
       </c>
     </row>
     <row r="82">
@@ -1822,7 +1822,7 @@
         <v>0.05</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="83">
@@ -1839,7 +1839,7 @@
         <v>-2.04</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9696969696969697</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="84">
@@ -1856,7 +1856,7 @@
         <v>0.31</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6418732782369146</v>
+        <v>1.55793991416309</v>
       </c>
     </row>
     <row r="85">
@@ -1873,7 +1873,7 @@
         <v>19.79</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9641873278236914</v>
+        <v>1.037142857142857</v>
       </c>
     </row>
     <row r="86">
@@ -1890,7 +1890,7 @@
         <v>-2.9</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9421487603305785</v>
+        <v>1.06140350877193</v>
       </c>
     </row>
     <row r="87">
@@ -1907,7 +1907,7 @@
         <v>-0.12</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2975206611570248</v>
+        <v>3.361111111111111</v>
       </c>
     </row>
     <row r="88">
@@ -1924,7 +1924,7 @@
         <v>-4.24</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9449035812672176</v>
+        <v>1.058309037900875</v>
       </c>
     </row>
     <row r="89">
@@ -1941,7 +1941,7 @@
         <v>2.94</v>
       </c>
       <c r="E89" t="n">
-        <v>0.928374655647383</v>
+        <v>1.077151335311573</v>
       </c>
     </row>
     <row r="90">
@@ -1958,7 +1958,7 @@
         <v>2.25</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3581267217630854</v>
+        <v>2.792307692307692</v>
       </c>
     </row>
     <row r="91">
@@ -1975,7 +1975,7 @@
         <v>-0.05</v>
       </c>
       <c r="E91" t="n">
-        <v>0.628099173553719</v>
+        <v>1.592105263157895</v>
       </c>
     </row>
     <row r="92">
@@ -1992,7 +1992,7 @@
         <v>0.58</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3140495867768595</v>
+        <v>3.184210526315789</v>
       </c>
     </row>
     <row r="93">
@@ -2009,7 +2009,7 @@
         <v>-0.78</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6914600550964187</v>
+        <v>1.446215139442231</v>
       </c>
     </row>
     <row r="94">
@@ -2026,7 +2026,7 @@
         <v>0.23</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5922865013774105</v>
+        <v>1.688372093023256</v>
       </c>
     </row>
     <row r="95">
@@ -2043,7 +2043,7 @@
         <v>1.19</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2672176308539945</v>
+        <v>3.742268041237114</v>
       </c>
     </row>
     <row r="96">
@@ -2060,7 +2060,7 @@
         <v>0.04</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7382920110192838</v>
+        <v>1.354477611940298</v>
       </c>
     </row>
     <row r="97">
@@ -2077,7 +2077,7 @@
         <v>1.17</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8512396694214877</v>
+        <v>1.174757281553398</v>
       </c>
     </row>
     <row r="98">
@@ -2094,7 +2094,7 @@
         <v>-4.95</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9256198347107438</v>
+        <v>1.080357142857143</v>
       </c>
     </row>
     <row r="99">
@@ -2111,7 +2111,7 @@
         <v>0.6</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5399449035812672</v>
+        <v>1.852040816326531</v>
       </c>
     </row>
     <row r="100">
@@ -2162,7 +2162,7 @@
         <v>0.19</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3691460055096419</v>
+        <v>2.708955223880597</v>
       </c>
     </row>
     <row r="103">
@@ -2179,7 +2179,7 @@
         <v>-1.86</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7988980716253443</v>
+        <v>1.251724137931034</v>
       </c>
     </row>
     <row r="104">
@@ -2196,7 +2196,7 @@
         <v>1.01</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4077134986225895</v>
+        <v>2.452702702702703</v>
       </c>
     </row>
     <row r="105">
@@ -2213,7 +2213,7 @@
         <v>1.35</v>
       </c>
       <c r="E105" t="n">
-        <v>0.418732782369146</v>
+        <v>2.388157894736842</v>
       </c>
     </row>
     <row r="106">
@@ -2230,7 +2230,7 @@
         <v>-0.09</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6446280991735537</v>
+        <v>1.551282051282051</v>
       </c>
     </row>
     <row r="107">
@@ -2247,7 +2247,7 @@
         <v>1.16</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5509641873278237</v>
+        <v>1.815</v>
       </c>
     </row>
     <row r="108">
@@ -2264,7 +2264,7 @@
         <v>0.59</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4628099173553719</v>
+        <v>2.160714285714286</v>
       </c>
     </row>
     <row r="109">
@@ -2281,7 +2281,7 @@
         <v>1.08</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7741046831955923</v>
+        <v>1.291814946619217</v>
       </c>
     </row>
     <row r="110">
@@ -2298,7 +2298,7 @@
         <v>-1.64</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8705234159779615</v>
+        <v>1.14873417721519</v>
       </c>
     </row>
     <row r="111">
@@ -2315,7 +2315,7 @@
         <v>1.22</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7878787878787878</v>
+        <v>1.269230769230769</v>
       </c>
     </row>
     <row r="112">
@@ -2332,7 +2332,7 @@
         <v>0.78</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4710743801652892</v>
+        <v>2.12280701754386</v>
       </c>
     </row>
     <row r="113">
@@ -2349,7 +2349,7 @@
         <v>-0.61</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6584022038567493</v>
+        <v>1.518828451882845</v>
       </c>
     </row>
     <row r="114">
@@ -2366,7 +2366,7 @@
         <v>-4.98</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8925619834710744</v>
+        <v>1.12037037037037</v>
       </c>
     </row>
     <row r="115">
@@ -2383,7 +2383,7 @@
         <v>1.93</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2644628099173554</v>
+        <v>3.78125</v>
       </c>
     </row>
     <row r="116">
@@ -2400,7 +2400,7 @@
         <v>-1.75</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7465564738292011</v>
+        <v>1.339483394833948</v>
       </c>
     </row>
     <row r="117">
@@ -2417,7 +2417,7 @@
         <v>1.25</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3939393939393939</v>
+        <v>2.538461538461539</v>
       </c>
     </row>
     <row r="118">
@@ -2451,7 +2451,7 @@
         <v>0.9</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4352617079889807</v>
+        <v>2.29746835443038</v>
       </c>
     </row>
     <row r="120">
@@ -2468,7 +2468,7 @@
         <v>0.93</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4820936639118457</v>
+        <v>2.074285714285714</v>
       </c>
     </row>
     <row r="121">
@@ -2485,7 +2485,7 @@
         <v>1.88</v>
       </c>
       <c r="E121" t="n">
-        <v>0.256198347107438</v>
+        <v>3.903225806451613</v>
       </c>
     </row>
     <row r="122">
@@ -2502,7 +2502,7 @@
         <v>-0.03</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3002754820936639</v>
+        <v>3.330275229357798</v>
       </c>
     </row>
     <row r="123">
@@ -2519,7 +2519,7 @@
         <v>-0.04</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6088154269972452</v>
+        <v>1.642533936651584</v>
       </c>
     </row>
     <row r="124">
@@ -2536,7 +2536,7 @@
         <v>-1.41</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7493112947658402</v>
+        <v>1.334558823529412</v>
       </c>
     </row>
     <row r="125">
@@ -2553,7 +2553,7 @@
         <v>0.45</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3305785123966942</v>
+        <v>3.025</v>
       </c>
     </row>
     <row r="126">
@@ -2570,7 +2570,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8071625344352618</v>
+        <v>1.238907849829352</v>
       </c>
     </row>
     <row r="127">
@@ -2587,7 +2587,7 @@
         <v>-9.75</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9586776859504132</v>
+        <v>1.043103448275862</v>
       </c>
     </row>
     <row r="128">
@@ -2604,7 +2604,7 @@
         <v>1.35</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8677685950413223</v>
+        <v>1.152380952380952</v>
       </c>
     </row>
     <row r="129">
@@ -2621,7 +2621,7 @@
         <v>0.37</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4738292011019284</v>
+        <v>2.11046511627907</v>
       </c>
     </row>
     <row r="130">
@@ -2638,7 +2638,7 @@
         <v>0.29</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6143250688705234</v>
+        <v>1.62780269058296</v>
       </c>
     </row>
     <row r="131">
@@ -2655,7 +2655,7 @@
         <v>0.39</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4903581267217631</v>
+        <v>2.039325842696629</v>
       </c>
     </row>
     <row r="132">
@@ -2672,7 +2672,7 @@
         <v>-0.23</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6556473829201102</v>
+        <v>1.525210084033614</v>
       </c>
     </row>
     <row r="133">
@@ -2689,7 +2689,7 @@
         <v>0.63</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5537190082644629</v>
+        <v>1.805970149253731</v>
       </c>
     </row>
     <row r="134">
@@ -2706,7 +2706,7 @@
         <v>0.26</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6749311294765841</v>
+        <v>1.481632653061224</v>
       </c>
     </row>
     <row r="135">
@@ -2723,7 +2723,7 @@
         <v>0.97</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2892561983471074</v>
+        <v>3.457142857142857</v>
       </c>
     </row>
     <row r="136">
@@ -2740,7 +2740,7 @@
         <v>0.85</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3112947658402204</v>
+        <v>3.212389380530974</v>
       </c>
     </row>
     <row r="137">
@@ -2757,7 +2757,7 @@
         <v>0.83</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2589531680440771</v>
+        <v>3.861702127659574</v>
       </c>
     </row>
     <row r="138">
@@ -2774,7 +2774,7 @@
         <v>-0.27</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8815426997245179</v>
+        <v>1.134375</v>
       </c>
     </row>
     <row r="139">
@@ -2791,7 +2791,7 @@
         <v>0.22</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5482093663911846</v>
+        <v>1.824120603015075</v>
       </c>
     </row>
     <row r="140">
@@ -2808,7 +2808,7 @@
         <v>-2.36</v>
       </c>
       <c r="E140" t="n">
-        <v>0.790633608815427</v>
+        <v>1.264808362369338</v>
       </c>
     </row>
     <row r="141">
@@ -2825,7 +2825,7 @@
         <v>2.31</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3057851239669421</v>
+        <v>3.270270270270271</v>
       </c>
     </row>
     <row r="142">
@@ -2842,7 +2842,7 @@
         <v>1.53</v>
       </c>
       <c r="E142" t="n">
-        <v>0.650137741046832</v>
+        <v>1.538135593220339</v>
       </c>
     </row>
     <row r="143">
@@ -2859,7 +2859,7 @@
         <v>-1.66</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9201101928374655</v>
+        <v>1.086826347305389</v>
       </c>
     </row>
     <row r="144">
@@ -2876,7 +2876,7 @@
         <v>-1.04</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7245179063360881</v>
+        <v>1.380228136882129</v>
       </c>
     </row>
     <row r="145">
@@ -2893,7 +2893,7 @@
         <v>4.1</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2699724517906336</v>
+        <v>3.704081632653061</v>
       </c>
     </row>
     <row r="146">
@@ -2910,7 +2910,7 @@
         <v>-2.73</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8953168044077136</v>
+        <v>1.116923076923077</v>
       </c>
     </row>
     <row r="147">
@@ -2927,7 +2927,7 @@
         <v>-2.15</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8099173553719008</v>
+        <v>1.234693877551021</v>
       </c>
     </row>
     <row r="148">
@@ -2944,7 +2944,7 @@
         <v>0.98</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5013774104683195</v>
+        <v>1.994505494505495</v>
       </c>
     </row>
     <row r="149">
@@ -2961,7 +2961,7 @@
         <v>1.31</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3994490358126722</v>
+        <v>2.503448275862069</v>
       </c>
     </row>
     <row r="150">
@@ -2978,7 +2978,7 @@
         <v>0.83</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4765840220385675</v>
+        <v>2.098265895953757</v>
       </c>
     </row>
     <row r="151">
@@ -2995,7 +2995,7 @@
         <v>0.71</v>
       </c>
       <c r="E151" t="n">
-        <v>0.303030303030303</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="152">
@@ -3012,7 +3012,7 @@
         <v>-0.29</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5234159779614325</v>
+        <v>1.910526315789474</v>
       </c>
     </row>
     <row r="153">
@@ -3029,7 +3029,7 @@
         <v>2.08</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4132231404958678</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="154">
@@ -3046,7 +3046,7 @@
         <v>-1.34</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7107438016528925</v>
+        <v>1.406976744186047</v>
       </c>
     </row>
     <row r="155">
@@ -3063,7 +3063,7 @@
         <v>0.84</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5151515151515151</v>
+        <v>1.941176470588235</v>
       </c>
     </row>
     <row r="156">
@@ -3080,7 +3080,7 @@
         <v>2.32</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6639118457300276</v>
+        <v>1.506224066390041</v>
       </c>
     </row>
     <row r="157">
@@ -3097,7 +3097,7 @@
         <v>-0.24</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5757575757575758</v>
+        <v>1.736842105263158</v>
       </c>
     </row>
     <row r="158">
@@ -3114,7 +3114,7 @@
         <v>-2.47</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8236914600550964</v>
+        <v>1.214046822742475</v>
       </c>
     </row>
     <row r="159">
@@ -3131,7 +3131,7 @@
         <v>-1.63</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8209366391184573</v>
+        <v>1.218120805369127</v>
       </c>
     </row>
     <row r="160">
@@ -3148,7 +3148,7 @@
         <v>-2.15</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7823691460055097</v>
+        <v>1.278169014084507</v>
       </c>
     </row>
     <row r="161">
@@ -3165,7 +3165,7 @@
         <v>-0.34</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6225895316804407</v>
+        <v>1.606194690265487</v>
       </c>
     </row>
     <row r="162">
@@ -3182,7 +3182,7 @@
         <v>3.13</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3526170798898072</v>
+        <v>2.8359375</v>
       </c>
     </row>
     <row r="163">
@@ -3199,7 +3199,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>0.487603305785124</v>
+        <v>2.050847457627119</v>
       </c>
     </row>
     <row r="164">
@@ -3216,7 +3216,7 @@
         <v>-2.58</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9559228650137741</v>
+        <v>1.046109510086455</v>
       </c>
     </row>
     <row r="165">
@@ -3233,7 +3233,7 @@
         <v>-0.23</v>
       </c>
       <c r="E165" t="n">
-        <v>0.6336088154269972</v>
+        <v>1.578260869565217</v>
       </c>
     </row>
     <row r="166">
@@ -3250,7 +3250,7 @@
         <v>-3.99</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9035812672176309</v>
+        <v>1.106707317073171</v>
       </c>
     </row>
     <row r="167">
@@ -3267,7 +3267,7 @@
         <v>0.98</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5840220385674931</v>
+        <v>1.712264150943396</v>
       </c>
     </row>
     <row r="168">
@@ -3284,7 +3284,7 @@
         <v>2.47</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3911845730027548</v>
+        <v>2.556338028169014</v>
       </c>
     </row>
     <row r="169">
@@ -3301,7 +3301,7 @@
         <v>4.08</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3608815426997245</v>
+        <v>2.770992366412214</v>
       </c>
     </row>
     <row r="170">
@@ -3318,7 +3318,7 @@
         <v>-0.55</v>
       </c>
       <c r="E170" t="n">
-        <v>0.696969696969697</v>
+        <v>1.434782608695652</v>
       </c>
     </row>
     <row r="171">
@@ -3335,7 +3335,7 @@
         <v>-3.34</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8870523415977961</v>
+        <v>1.127329192546584</v>
       </c>
     </row>
     <row r="172">
@@ -3352,7 +3352,7 @@
         <v>-0.96</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3415977961432507</v>
+        <v>2.92741935483871</v>
       </c>
     </row>
     <row r="173">
@@ -3369,7 +3369,7 @@
         <v>1.77</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3746556473829201</v>
+        <v>2.669117647058823</v>
       </c>
     </row>
     <row r="174">
@@ -3386,7 +3386,7 @@
         <v>0.46</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5674931129476584</v>
+        <v>1.762135922330097</v>
       </c>
     </row>
     <row r="175">
@@ -3403,7 +3403,7 @@
         <v>0.46</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2947658402203857</v>
+        <v>3.392523364485982</v>
       </c>
     </row>
     <row r="176">
@@ -3420,7 +3420,7 @@
         <v>-1.78</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7603305785123967</v>
+        <v>1.315217391304348</v>
       </c>
     </row>
     <row r="177">
@@ -3437,7 +3437,7 @@
         <v>0.35</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8126721763085399</v>
+        <v>1.230508474576271</v>
       </c>
     </row>
     <row r="178">
@@ -3454,7 +3454,7 @@
         <v>-2.14</v>
       </c>
       <c r="E178" t="n">
-        <v>0.8016528925619835</v>
+        <v>1.247422680412371</v>
       </c>
     </row>
     <row r="179">
@@ -3471,7 +3471,7 @@
         <v>-3</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8760330578512396</v>
+        <v>1.141509433962264</v>
       </c>
     </row>
     <row r="180">
@@ -3488,7 +3488,7 @@
         <v>1.74</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4242424242424243</v>
+        <v>2.357142857142857</v>
       </c>
     </row>
     <row r="181">
@@ -3505,7 +3505,7 @@
         <v>-1.17</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7768595041322314</v>
+        <v>1.287234042553192</v>
       </c>
     </row>
     <row r="182">
@@ -3522,7 +3522,7 @@
         <v>0.6</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6997245179063361</v>
+        <v>1.429133858267717</v>
       </c>
     </row>
     <row r="183">
@@ -3539,7 +3539,7 @@
         <v>1.95</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4517906336088154</v>
+        <v>2.213414634146341</v>
       </c>
     </row>
     <row r="184">
@@ -3556,7 +3556,7 @@
         <v>-0.32</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="185">
@@ -3573,7 +3573,7 @@
         <v>0.02</v>
       </c>
       <c r="E185" t="n">
-        <v>0.6859504132231405</v>
+        <v>1.457831325301205</v>
       </c>
     </row>
     <row r="186">
@@ -3590,7 +3590,7 @@
         <v>2.23</v>
       </c>
       <c r="E186" t="n">
-        <v>0.349862258953168</v>
+        <v>2.858267716535433</v>
       </c>
     </row>
     <row r="187">
@@ -3607,7 +3607,7 @@
         <v>-1.47</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8154269972451791</v>
+        <v>1.226351351351351</v>
       </c>
     </row>
     <row r="188">
@@ -3624,7 +3624,7 @@
         <v>1.32</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4022038567493113</v>
+        <v>2.486301369863014</v>
       </c>
     </row>
     <row r="189">
@@ -3641,7 +3641,7 @@
         <v>0.88</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8539944903581267</v>
+        <v>1.170967741935484</v>
       </c>
     </row>
     <row r="190">
@@ -3675,7 +3675,7 @@
         <v>-0.16</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5977961432506887</v>
+        <v>1.672811059907834</v>
       </c>
     </row>
     <row r="192">
@@ -3692,7 +3692,7 @@
         <v>3.3</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3278236914600551</v>
+        <v>3.050420168067227</v>
       </c>
     </row>
     <row r="193">
@@ -3709,7 +3709,7 @@
         <v>1.26</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4462809917355372</v>
+        <v>2.24074074074074</v>
       </c>
     </row>
     <row r="194">
@@ -3726,7 +3726,7 @@
         <v>0.55</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -3743,7 +3743,7 @@
         <v>0.26</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2617079889807162</v>
+        <v>3.821052631578948</v>
       </c>
     </row>
     <row r="196">
@@ -3777,7 +3777,7 @@
         <v>-0.31</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7300275482093664</v>
+        <v>1.369811320754717</v>
       </c>
     </row>
     <row r="198">
@@ -3794,7 +3794,7 @@
         <v>-0.46</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="199">
@@ -3811,7 +3811,7 @@
         <v>0.73</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5316804407713499</v>
+        <v>1.880829015544041</v>
       </c>
     </row>
     <row r="200">
@@ -3828,7 +3828,7 @@
         <v>-1.03</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7134986225895317</v>
+        <v>1.401544401544402</v>
       </c>
     </row>
     <row r="201">
@@ -3845,7 +3845,7 @@
         <v>-0.1</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5702479338842975</v>
+        <v>1.753623188405797</v>
       </c>
     </row>
     <row r="202">
@@ -3862,7 +3862,7 @@
         <v>2.72</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2809917355371901</v>
+        <v>3.558823529411764</v>
       </c>
     </row>
     <row r="203">
@@ -3879,7 +3879,7 @@
         <v>12.86</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8842975206611571</v>
+        <v>1.130841121495327</v>
       </c>
     </row>
     <row r="204">
@@ -3896,7 +3896,7 @@
         <v>-1.98</v>
       </c>
       <c r="E204" t="n">
-        <v>0.7658402203856749</v>
+        <v>1.305755395683453</v>
       </c>
     </row>
     <row r="205">
@@ -3913,7 +3913,7 @@
         <v>-1.67</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7933884297520661</v>
+        <v>1.260416666666667</v>
       </c>
     </row>
     <row r="206">
@@ -3930,7 +3930,7 @@
         <v>0.33</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3223140495867768</v>
+        <v>3.102564102564103</v>
       </c>
     </row>
     <row r="207">
@@ -3947,7 +3947,7 @@
         <v>1.25</v>
       </c>
       <c r="E207" t="n">
-        <v>0.2451790633608815</v>
+        <v>4.078651685393258</v>
       </c>
     </row>
     <row r="208">
@@ -3964,7 +3964,7 @@
         <v>0.68</v>
       </c>
       <c r="E208" t="n">
-        <v>0.2286501377410468</v>
+        <v>4.373493975903615</v>
       </c>
     </row>
     <row r="209">
@@ -3981,7 +3981,7 @@
         <v>-0.87</v>
       </c>
       <c r="E209" t="n">
-        <v>0.8650137741046832</v>
+        <v>1.156050955414013</v>
       </c>
     </row>
     <row r="210">
@@ -3998,7 +3998,7 @@
         <v>1.71</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3388429752066116</v>
+        <v>2.951219512195122</v>
       </c>
     </row>
     <row r="211">
@@ -4015,7 +4015,7 @@
         <v>0.37</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6005509641873278</v>
+        <v>1.665137614678899</v>
       </c>
     </row>
     <row r="212">
@@ -4049,7 +4049,7 @@
         <v>0.92</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5371900826446281</v>
+        <v>1.861538461538462</v>
       </c>
     </row>
     <row r="214">
@@ -4066,7 +4066,7 @@
         <v>-1.49</v>
       </c>
       <c r="E214" t="n">
-        <v>0.7796143250688705</v>
+        <v>1.282685512367491</v>
       </c>
     </row>
     <row r="215">
@@ -4083,7 +4083,7 @@
         <v>15.39</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9393939393939394</v>
+        <v>1.064516129032258</v>
       </c>
     </row>
     <row r="216">
@@ -4100,7 +4100,7 @@
         <v>-0.02</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5867768595041323</v>
+        <v>1.704225352112676</v>
       </c>
     </row>
     <row r="217">
@@ -4117,7 +4117,7 @@
         <v>0.41</v>
       </c>
       <c r="E217" t="n">
-        <v>0.837465564738292</v>
+        <v>1.194078947368421</v>
       </c>
     </row>
     <row r="218">
@@ -4134,7 +4134,7 @@
         <v>-4.43</v>
       </c>
       <c r="E218" t="n">
-        <v>0.8787878787878788</v>
+        <v>1.137931034482759</v>
       </c>
     </row>
     <row r="219">
@@ -4151,7 +4151,7 @@
         <v>-0.61</v>
       </c>
       <c r="E219" t="n">
-        <v>0.721763085399449</v>
+        <v>1.385496183206107</v>
       </c>
     </row>
     <row r="220">
@@ -4168,7 +4168,7 @@
         <v>0.14</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5261707988980716</v>
+        <v>1.900523560209424</v>
       </c>
     </row>
     <row r="221">
@@ -4185,7 +4185,7 @@
         <v>1.94</v>
       </c>
       <c r="E221" t="n">
-        <v>0.4986225895316804</v>
+        <v>2.005524861878453</v>
       </c>
     </row>
     <row r="222">
@@ -4219,7 +4219,7 @@
         <v>3.73</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9614325068870524</v>
+        <v>1.040114613180516</v>
       </c>
     </row>
     <row r="224">
@@ -4236,7 +4236,7 @@
         <v>0.44</v>
       </c>
       <c r="E224" t="n">
-        <v>0.5206611570247934</v>
+        <v>1.92063492063492</v>
       </c>
     </row>
     <row r="225">
@@ -4253,7 +4253,7 @@
         <v>0.64</v>
       </c>
       <c r="E225" t="n">
-        <v>0.5454545454545454</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="226">
@@ -4270,7 +4270,7 @@
         <v>2.37</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8181818181818182</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="227">
@@ -4287,7 +4287,7 @@
         <v>1.72</v>
       </c>
       <c r="E227" t="n">
-        <v>0.2534435261707989</v>
+        <v>3.945652173913043</v>
       </c>
     </row>
     <row r="228">
@@ -4304,7 +4304,7 @@
         <v>-6.6</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9228650137741047</v>
+        <v>1.083582089552239</v>
       </c>
     </row>
     <row r="229">
@@ -4321,7 +4321,7 @@
         <v>0.68</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3471074380165289</v>
+        <v>2.880952380952381</v>
       </c>
     </row>
     <row r="230">
@@ -4338,7 +4338,7 @@
         <v>-2.03</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8292011019283747</v>
+        <v>1.205980066445183</v>
       </c>
     </row>
     <row r="231">
@@ -4355,7 +4355,7 @@
         <v>-0.18</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3195592286501377</v>
+        <v>3.129310344827586</v>
       </c>
     </row>
     <row r="232">
@@ -4372,7 +4372,7 @@
         <v>-1.89</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8898071625344353</v>
+        <v>1.123839009287926</v>
       </c>
     </row>
     <row r="233">
@@ -4389,7 +4389,7 @@
         <v>3.85</v>
       </c>
       <c r="E233" t="n">
-        <v>0.5564738292011019</v>
+        <v>1.797029702970297</v>
       </c>
     </row>
     <row r="234">
@@ -4406,7 +4406,7 @@
         <v>0.3</v>
       </c>
       <c r="E234" t="n">
-        <v>0.581267217630854</v>
+        <v>1.720379146919431</v>
       </c>
     </row>
     <row r="235">
@@ -4440,7 +4440,7 @@
         <v>0.93</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4490358126721763</v>
+        <v>2.226993865030675</v>
       </c>
     </row>
     <row r="237">
@@ -4457,7 +4457,7 @@
         <v>-0.01</v>
       </c>
       <c r="E237" t="n">
-        <v>0.6308539944903582</v>
+        <v>1.585152838427947</v>
       </c>
     </row>
     <row r="238">
@@ -4474,7 +4474,7 @@
         <v>0.31</v>
       </c>
       <c r="E238" t="n">
-        <v>0.5179063360881543</v>
+        <v>1.930851063829787</v>
       </c>
     </row>
     <row r="239">
@@ -4491,7 +4491,7 @@
         <v>0.79</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3636363636363636</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="240">
@@ -4508,7 +4508,7 @@
         <v>0.36</v>
       </c>
       <c r="E240" t="n">
-        <v>0.6033057851239669</v>
+        <v>1.657534246575342</v>
       </c>
     </row>
     <row r="241">
@@ -4525,7 +4525,7 @@
         <v>-0.84</v>
       </c>
       <c r="E241" t="n">
-        <v>0.6887052341597796</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="242">
@@ -4542,7 +4542,7 @@
         <v>1.87</v>
       </c>
       <c r="E242" t="n">
-        <v>0.3829201101928374</v>
+        <v>2.611510791366907</v>
       </c>
     </row>
     <row r="243">
@@ -4559,7 +4559,7 @@
         <v>-2.18</v>
       </c>
       <c r="E243" t="n">
-        <v>0.7851239669421488</v>
+        <v>1.273684210526316</v>
       </c>
     </row>
     <row r="244">
@@ -4576,7 +4576,7 @@
         <v>1.42</v>
       </c>
       <c r="E244" t="n">
-        <v>0.9476584022038568</v>
+        <v>1.055232558139535</v>
       </c>
     </row>
     <row r="245">
@@ -4593,7 +4593,7 @@
         <v>1.16</v>
       </c>
       <c r="E245" t="n">
-        <v>0.2837465564738292</v>
+        <v>3.524271844660194</v>
       </c>
     </row>
     <row r="246">
@@ -4610,7 +4610,7 @@
         <v>0.8</v>
       </c>
       <c r="E246" t="n">
-        <v>0.4435261707988981</v>
+        <v>2.254658385093168</v>
       </c>
     </row>
     <row r="247">
@@ -4627,7 +4627,7 @@
         <v>1.38</v>
       </c>
       <c r="E247" t="n">
-        <v>0.3966942148760331</v>
+        <v>2.520833333333333</v>
       </c>
     </row>
     <row r="248">
@@ -4644,7 +4644,7 @@
         <v>-3.78</v>
       </c>
       <c r="E248" t="n">
-        <v>0.8732782369146006</v>
+        <v>1.145110410094637</v>
       </c>
     </row>
     <row r="249">
@@ -4661,7 +4661,7 @@
         <v>-0.57</v>
       </c>
       <c r="E249" t="n">
-        <v>0.8429752066115702</v>
+        <v>1.186274509803922</v>
       </c>
     </row>
     <row r="250">
@@ -4678,7 +4678,7 @@
         <v>-1.3</v>
       </c>
       <c r="E250" t="n">
-        <v>0.7713498622589532</v>
+        <v>1.296428571428571</v>
       </c>
     </row>
     <row r="251">
@@ -4695,7 +4695,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>0.2727272727272727</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="252">
@@ -4712,7 +4712,7 @@
         <v>-1.6</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7438016528925619</v>
+        <v>1.344444444444445</v>
       </c>
     </row>
     <row r="253">
@@ -4729,7 +4729,7 @@
         <v>-0.09</v>
       </c>
       <c r="E253" t="n">
-        <v>0.7961432506887053</v>
+        <v>1.256055363321799</v>
       </c>
     </row>
     <row r="254">
@@ -4746,7 +4746,7 @@
         <v>-0.36</v>
       </c>
       <c r="E254" t="n">
-        <v>0.2754820936639119</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="255">
@@ -4763,7 +4763,7 @@
         <v>-4.12</v>
       </c>
       <c r="E255" t="n">
-        <v>0.8457300275482094</v>
+        <v>1.182410423452769</v>
       </c>
     </row>
     <row r="256">
@@ -4797,7 +4797,7 @@
         <v>-0.74</v>
       </c>
       <c r="E257" t="n">
-        <v>0.8319559228650137</v>
+        <v>1.201986754966887</v>
       </c>
     </row>
     <row r="258">
@@ -4814,7 +4814,7 @@
         <v>0.6</v>
       </c>
       <c r="E258" t="n">
-        <v>0.465564738292011</v>
+        <v>2.14792899408284</v>
       </c>
     </row>
     <row r="259">
@@ -4831,7 +4831,7 @@
         <v>1.1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7272727272727273</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="260">
@@ -4848,7 +4848,7 @@
         <v>0.79</v>
       </c>
       <c r="E260" t="n">
-        <v>0.6804407713498623</v>
+        <v>1.469635627530364</v>
       </c>
     </row>
     <row r="261">
@@ -4865,7 +4865,7 @@
         <v>1.11</v>
       </c>
       <c r="E261" t="n">
-        <v>0.2479338842975207</v>
+        <v>4.033333333333333</v>
       </c>
     </row>
     <row r="262">
@@ -4882,7 +4882,7 @@
         <v>-2.38</v>
       </c>
       <c r="E262" t="n">
-        <v>0.8402203856749312</v>
+        <v>1.190163934426229</v>
       </c>
     </row>
     <row r="263">
@@ -4899,7 +4899,7 @@
         <v>-0.16</v>
       </c>
       <c r="E263" t="n">
-        <v>0.6528925619834711</v>
+        <v>1.531645569620253</v>
       </c>
     </row>
     <row r="264">
@@ -4916,7 +4916,7 @@
         <v>0.36</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5289256198347108</v>
+        <v>1.890625</v>
       </c>
     </row>
     <row r="265">
@@ -4933,7 +4933,7 @@
         <v>0.67</v>
       </c>
       <c r="E265" t="n">
-        <v>0.4793388429752066</v>
+        <v>2.086206896551724</v>
       </c>
     </row>
     <row r="266">
@@ -4950,7 +4950,7 @@
         <v>-14.68</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9669421487603306</v>
+        <v>1.034188034188034</v>
       </c>
     </row>
     <row r="267">
@@ -4967,7 +4967,7 @@
         <v>0.47</v>
       </c>
       <c r="E267" t="n">
-        <v>0.5041322314049587</v>
+        <v>1.983606557377049</v>
       </c>
     </row>
     <row r="268">
@@ -4984,7 +4984,7 @@
         <v>0.84</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4545454545454545</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="269">
@@ -5001,7 +5001,7 @@
         <v>4.33</v>
       </c>
       <c r="E269" t="n">
-        <v>0.9118457300275482</v>
+        <v>1.096676737160121</v>
       </c>
     </row>
     <row r="270">
@@ -5018,7 +5018,7 @@
         <v>2.13</v>
       </c>
       <c r="E270" t="n">
-        <v>0.2369146005509642</v>
+        <v>4.220930232558139</v>
       </c>
     </row>
     <row r="271">
@@ -5035,7 +5035,7 @@
         <v>0.34</v>
       </c>
       <c r="E271" t="n">
-        <v>0.5426997245179064</v>
+        <v>1.842639593908629</v>
       </c>
     </row>
     <row r="272">
@@ -5052,7 +5052,7 @@
         <v>-4.15</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9366391184573003</v>
+        <v>1.067647058823529</v>
       </c>
     </row>
     <row r="273">
@@ -5069,7 +5069,7 @@
         <v>1.88</v>
       </c>
       <c r="E273" t="n">
-        <v>0.3801652892561984</v>
+        <v>2.630434782608696</v>
       </c>
     </row>
     <row r="274">
@@ -5086,7 +5086,7 @@
         <v>0.03</v>
       </c>
       <c r="E274" t="n">
-        <v>0.71900826446281</v>
+        <v>1.390804597701149</v>
       </c>
     </row>
     <row r="275">
@@ -5103,7 +5103,7 @@
         <v>0.28</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5895316804407713</v>
+        <v>1.696261682242991</v>
       </c>
     </row>
     <row r="276">
@@ -5120,7 +5120,7 @@
         <v>1.77</v>
       </c>
       <c r="E276" t="n">
-        <v>0.4297520661157025</v>
+        <v>2.326923076923077</v>
       </c>
     </row>
     <row r="277">
@@ -5137,7 +5137,7 @@
         <v>-3.19</v>
       </c>
       <c r="E277" t="n">
-        <v>0.7052341597796143</v>
+        <v>1.41796875</v>
       </c>
     </row>
     <row r="278">
@@ -5154,7 +5154,7 @@
         <v>-1.14</v>
       </c>
       <c r="E278" t="n">
-        <v>0.6694214876033058</v>
+        <v>1.493827160493827</v>
       </c>
     </row>
     <row r="279">
@@ -5171,7 +5171,7 @@
         <v>-0.16</v>
       </c>
       <c r="E279" t="n">
-        <v>0.6198347107438017</v>
+        <v>1.613333333333333</v>
       </c>
     </row>
     <row r="280">
@@ -5188,7 +5188,7 @@
         <v>-0.55</v>
       </c>
       <c r="E280" t="n">
-        <v>0.2506887052341598</v>
+        <v>3.989010989010989</v>
       </c>
     </row>
     <row r="281">
@@ -5205,7 +5205,7 @@
         <v>0.57</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9146005509641874</v>
+        <v>1.093373493975904</v>
       </c>
     </row>
     <row r="282">
@@ -5222,7 +5222,7 @@
         <v>-2.55</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9008264462809917</v>
+        <v>1.110091743119266</v>
       </c>
     </row>
     <row r="283">
@@ -5239,7 +5239,7 @@
         <v>0.36</v>
       </c>
       <c r="E283" t="n">
-        <v>0.5344352617079889</v>
+        <v>1.871134020618557</v>
       </c>
     </row>
   </sheetData>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,101 +450,101 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="B2" t="n">
-        <v>1631.26</v>
+        <v>249.44</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4</v>
+        <v>-9.06</v>
       </c>
       <c r="D2" t="n">
-        <v>1.65</v>
+        <v>-1.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9953271028037384</v>
+        <v>0.3360881542699725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.94</v>
+        <v>0.58</v>
       </c>
       <c r="B3" t="n">
-        <v>2364.47</v>
+        <v>718</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.3</v>
+        <v>2.22</v>
       </c>
       <c r="D3" t="n">
-        <v>3.11</v>
+        <v>0.86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968847352024922</v>
+        <v>0.5730027548209367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.95</v>
+        <v>1.41</v>
       </c>
       <c r="B4" t="n">
-        <v>1820.24</v>
+        <v>412.7</v>
       </c>
       <c r="C4" t="n">
-        <v>7.99</v>
+        <v>28.42</v>
       </c>
       <c r="D4" t="n">
-        <v>2.04</v>
+        <v>0.63</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9906542056074766</v>
+        <v>0.2258953168044077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.12</v>
+        <v>0.96</v>
       </c>
       <c r="B5" t="n">
-        <v>165.03</v>
+        <v>144.12</v>
       </c>
       <c r="C5" t="n">
-        <v>67.93000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="D5" t="n">
-        <v>2.34</v>
+        <v>-0.02</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9890965732087228</v>
+        <v>0.2782369146005509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>916.3200000000001</v>
+        <v>136.56</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.31</v>
+        <v>2.84</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>1.02</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9844236760124611</v>
+        <v>0.4325068870523416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="B7" t="n">
-        <v>3939.19</v>
+        <v>840.6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.37</v>
+        <v>118.9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.68</v>
+        <v>17.76</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -552,87 +552,4694 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1637.73</v>
+        <v>78.16</v>
       </c>
       <c r="C8" t="n">
-        <v>4.23</v>
+        <v>-12.23</v>
       </c>
       <c r="D8" t="n">
-        <v>1.21</v>
+        <v>-2.49</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9937694704049844</v>
+        <v>0.8347107438016529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>8468.610000000001</v>
+        <v>192.51</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.77</v>
+        <v>5.26</v>
       </c>
       <c r="D9" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.6473829201101928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>728.3200000000001</v>
+        <v>120.22</v>
       </c>
       <c r="C10" t="n">
-        <v>56.02</v>
+        <v>5.55</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21</v>
+        <v>0.46</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9875389408099688</v>
+        <v>0.4958677685950413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>404.03</v>
+        <v>142.61</v>
       </c>
       <c r="C11" t="n">
-        <v>63.19</v>
+        <v>10.03</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.72</v>
+        <v>4.45</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9922118380062306</v>
+        <v>0.3553719008264463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>934.73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-13.79</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8622589531680441</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4931129476584022</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7355371900826446</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>151.53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72.63</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.931129476584022</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89.11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.440771349862259</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>101.52</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-21.76</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8264462809917356</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>598.0700000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7162534435261708</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>118.22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6611570247933884</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6942148760330579</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>168.71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.512396694214876</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B23" t="n">
+        <v>160.28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6391184573002755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>118.57</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-17.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.859504132231405</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B25" t="n">
+        <v>154.03</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3774104683195592</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B26" t="n">
+        <v>142.34</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3168044077134986</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>265.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.81</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7410468319559229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>271.76</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-12.26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5647382920110193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>91.23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7327823691460055</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B30" t="n">
+        <v>371.35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3085399449035813</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>361.17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1379.36</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9173553719008265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>242.97</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7630853994490359</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="B34" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-20.67</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9338842975206612</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="B36" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-12.56</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.325068870523416</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5950413223140496</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B38" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4214876033057851</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B39" t="n">
+        <v>161.81</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2920110192837466</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4683195592286502</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8980716253443526</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>97.20999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3884297520661157</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>209.86</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3856749311294766</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B44" t="n">
+        <v>982.3099999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>126.54</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6253443526170799</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>186.58</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.509641873278237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B47" t="n">
+        <v>130.82</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6115702479338843</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>117.49</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6170798898071626</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>109.78</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.4600550964187328</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>341.82</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-14.27</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7520661157024794</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>76.98</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-9.23</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5619834710743802</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>243.72</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7024793388429752</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1247.15</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.90633608815427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="B54" t="n">
+        <v>796.15</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4380165289256198</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7079889807162535</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1855.29</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.953168044077135</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>180.37</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4049586776859504</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6776859504132231</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>168.37</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8044077134986226</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>247.85</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7548209366391184</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>249.59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6721763085399449</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5785123966942148</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B63" t="n">
+        <v>105.07</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3443526170798898</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6580.26</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4573002754820937</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1789.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9504132231404959</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B67" t="n">
+        <v>199.16</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3663911845730027</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>167.84</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.559228650137741</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B69" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.231404958677686</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B70" t="n">
+        <v>429.07</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2341597796143251</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>112.47</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4269972451790633</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-11.63</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8484848484848485</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>649.91</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-8.66</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.768595041322314</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B74" t="n">
+        <v>216.39</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2865013774104683</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B75" t="n">
+        <v>203.16</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2396694214876033</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>221.96</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.371900826446281</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>453.24</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5068870523415978</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>169.08</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6831955922865014</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8567493112947658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>148.94</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4104683195592286</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>208.85</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-6.71</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4159779614325069</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>457.87</v>
+      </c>
+      <c r="C83" t="n">
+        <v>116.94</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>254.41</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-8.67</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6418732782369146</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>126.14</v>
+      </c>
+      <c r="C85" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9641873278236914</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-55.04</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9421487603305785</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="B87" t="n">
+        <v>359.43</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-7.73</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2975206611570248</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9449035812672176</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B89" t="n">
+        <v>197.07</v>
+      </c>
+      <c r="C89" t="n">
+        <v>75.45</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.928374655647383</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>238.57</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D90" t="n">
         <v>2.25</v>
       </c>
-      <c r="B12" t="n">
-        <v>250.55</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-10.67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.985981308411215</v>
+      <c r="E90" t="n">
+        <v>0.3581267217630854</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>130.74</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.628099173553719</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B92" t="n">
+        <v>247.01</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3140495867768595</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6914600550964187</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>118.69</v>
+      </c>
+      <c r="C94" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5922865013774105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B95" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.2672176308539945</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>231.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-15.88</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7382920110192838</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1104.38</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8512396694214877</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>134.82</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-29.74</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9256198347107438</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>121.56</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.5399449035812672</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B100" t="n">
+        <v>271.89</v>
+      </c>
+      <c r="C100" t="n">
+        <v>163.34</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3390.59</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B102" t="n">
+        <v>185.93</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3691460055096419</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>69.11</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7988980716253443</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>281</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.4077134986225895</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="B105" t="n">
+        <v>831.22</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.418732782369146</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>101.06</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.6446280991735537</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>405.29</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5509641873278237</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>180.37</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4628099173553719</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B109" t="n">
+        <v>982.48</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-6.89</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7741046831955923</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>500.28</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-25.12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8705234159779615</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>933.4400000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>163.14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4710743801652892</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>193.37</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6584022038567493</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-4.98</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.8925619834710744</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B115" t="n">
+        <v>289.39</v>
+      </c>
+      <c r="C115" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.2644628099173554</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>164.19</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.7465564738292011</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>224.78</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7932.71</v>
+      </c>
+      <c r="C118" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>281.54</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4352617079889807</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>131.27</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4820936639118457</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B121" t="n">
+        <v>387.54</v>
+      </c>
+      <c r="C121" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.256198347107438</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B122" t="n">
+        <v>81.06</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.3002754820936639</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>129.71</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6088154269972452</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>445.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.7493112947658402</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.3305785123966942</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>116.52</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-20.17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.8071625344352618</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>127.39</v>
+      </c>
+      <c r="C127" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.9586776859504132</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>120.81</v>
+      </c>
+      <c r="C128" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.8677685950413223</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B129" t="n">
+        <v>258.29</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4738292011019284</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.6143250688705234</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4903581267217631</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>144.27</v>
+      </c>
+      <c r="C132" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.6556473829201102</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5537190082644629</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-7.74</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.6749311294765841</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B135" t="n">
+        <v>128.72</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-19.37</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2892561983471074</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="B136" t="n">
+        <v>832.64</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.3112947658402204</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B137" t="n">
+        <v>123.12</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.2589531680440771</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>154.61</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8815426997245179</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5482093663911846</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>114.47</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.790633608815427</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B141" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.3057851239669421</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>272.83</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-15.04</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.650137741046832</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1278.17</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-7.26</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.9201101928374655</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>146.01</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.7245179063360881</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="B145" t="n">
+        <v>99.59</v>
+      </c>
+      <c r="C145" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.2699724517906336</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1033.44</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-14.52</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.8953168044077136</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>287.77</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-10.71</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.8099173553719008</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>126.04</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5013774104683195</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>252.87</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.3994490358126722</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>106.97</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4765840220385675</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B151" t="n">
+        <v>229.48</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.303030303030303</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B152" t="n">
+        <v>219.77</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-9.529999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.5234159779614325</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>406.12</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.4132231404958678</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>175.59</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.7107438016528925</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>122.38</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B156" t="n">
+        <v>445.31</v>
+      </c>
+      <c r="C156" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.6639118457300276</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>168.38</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>260.59</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8236914600550964</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>154.31</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-16.83</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.8209366391184573</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>251.28</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.7823691460055097</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>137.39</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.6225895316804407</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>122.16</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.3526170798898072</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>132.09</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.487603305785124</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>127.98</v>
+      </c>
+      <c r="C164" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.9559228650137741</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>67.73</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6336088154269972</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>698.9400000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-16.04</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.9035812672176309</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>59.91</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-7.56</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5840220385674931</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B168" t="n">
+        <v>247.31</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-5.66</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3911845730027548</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>102.06</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3608815426997245</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>144.14</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.696969696969697</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>901.4299999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8870523415977961</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="B172" t="n">
+        <v>302.32</v>
+      </c>
+      <c r="C172" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3415977961432507</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>190.21</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.3746556473829201</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>458.93</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.5674931129476584</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>255.01</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2947658402203857</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.7603305785123967</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>765.61</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-14.61</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.8126721763085399</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.8016528925619835</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-20.86</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.8760330578512396</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B180" t="n">
+        <v>258.82</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-13.15</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-14.17</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.7768595041322314</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>64.73</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-13.43</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.6997245179063361</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4517906336088154</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1290.78</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>467.82</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.6859504132231405</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>204.12</v>
+      </c>
+      <c r="C186" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.349862258953168</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-16.85</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.8154269972451791</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>139.48</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.4022038567493113</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1078.55</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.8539944903581267</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>7137.3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B191" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5977961432506887</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.3278236914600551</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>352.37</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.4462809917355372</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="B194" t="n">
+        <v>619.64</v>
+      </c>
+      <c r="C194" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B195" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.2617079889807162</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2907.97</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-4.67</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>333.62</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.7300275482093664</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>246.62</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B199" t="n">
+        <v>360.92</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-9.16</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.5316804407713499</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.7134986225895317</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>137.55</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.5702479338842975</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B202" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.2809917355371901</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="B203" t="n">
+        <v>140.61</v>
+      </c>
+      <c r="C203" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.8842975206611571</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>172.66</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.7658402203856749</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-11.42</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.7933884297520661</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B206" t="n">
+        <v>193.39</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.3223140495867768</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B207" t="n">
+        <v>317.72</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2451790633608815</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="B208" t="n">
+        <v>174.16</v>
+      </c>
+      <c r="C208" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.2286501377410468</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>998.53</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.8650137741046832</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B210" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.3388429752066116</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>123.47</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-5.78</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.6005509641873278</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2510.92</v>
+      </c>
+      <c r="C212" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>193.64</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-7.23</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5371900826446281</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>53.82</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.7796143250688705</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>89.45</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>172.02</v>
+      </c>
+      <c r="C216" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.5867768595041323</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="B217" t="n">
+        <v>166.24</v>
+      </c>
+      <c r="C217" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.837465564738292</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0</v>
+      </c>
+      <c r="B218" t="n">
+        <v>460.74</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-4.84</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0</v>
+      </c>
+      <c r="B219" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.721763085399449</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0</v>
+      </c>
+      <c r="B220" t="n">
+        <v>152.08</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.5261707988980716</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0</v>
+      </c>
+      <c r="B221" t="n">
+        <v>572.71</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.4986225895316804</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0</v>
+      </c>
+      <c r="B222" t="n">
+        <v>10546.27</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B223" t="n">
+        <v>237.86</v>
+      </c>
+      <c r="C223" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.9614325068870524</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B224" t="n">
+        <v>212.56</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-15.72</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.5206611570247934</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0</v>
+      </c>
+      <c r="B225" t="n">
+        <v>160.96</v>
+      </c>
+      <c r="C225" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B226" t="n">
+        <v>147.05</v>
+      </c>
+      <c r="C226" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B227" t="n">
+        <v>205.86</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2534435261707989</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>108.16</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.9228650137741047</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="B229" t="n">
+        <v>659</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-11.29</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.3471074380165289</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0</v>
+      </c>
+      <c r="B230" t="n">
+        <v>410.02</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-14.68</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.8292011019283747</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B231" t="n">
+        <v>138.32</v>
+      </c>
+      <c r="C231" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.3195592286501377</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>303.4</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-34.51</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.8898071625344353</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B233" t="n">
+        <v>804.58</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.5564738292011019</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0</v>
+      </c>
+      <c r="B234" t="n">
+        <v>102.67</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-3.29</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.581267217630854</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1318.7</v>
+      </c>
+      <c r="C235" t="n">
+        <v>112.51</v>
+      </c>
+      <c r="D235" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0</v>
+      </c>
+      <c r="B236" t="n">
+        <v>216.84</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.4490358126721763</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0</v>
+      </c>
+      <c r="B237" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.6308539944903582</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>251.97</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.5179063360881543</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B239" t="n">
+        <v>117.03</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>355.8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.6033057851239669</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>319.53</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.6887052341597796</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0</v>
+      </c>
+      <c r="B242" t="n">
+        <v>112.85</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.3829201101928374</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>125.63</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.7851239669421488</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1246.53</v>
+      </c>
+      <c r="C244" t="n">
+        <v>64.34999999999999</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.9476584022038568</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B245" t="n">
+        <v>227.72</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.2837465564738292</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>177.37</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.4435261707988981</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0</v>
+      </c>
+      <c r="B247" t="n">
+        <v>176.49</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.3966942148760331</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0</v>
+      </c>
+      <c r="B248" t="n">
+        <v>216.61</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.8732782369146006</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>157.64</v>
+      </c>
+      <c r="C249" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.8429752066115702</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0</v>
+      </c>
+      <c r="B250" t="n">
+        <v>561.95</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.7713498622589532</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B251" t="n">
+        <v>150.57</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-8.24</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0</v>
+      </c>
+      <c r="B252" t="n">
+        <v>128.47</v>
+      </c>
+      <c r="C252" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.7438016528925619</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0</v>
+      </c>
+      <c r="B253" t="n">
+        <v>146.15</v>
+      </c>
+      <c r="C253" t="n">
+        <v>36.42</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.7961432506887053</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B254" t="n">
+        <v>122.21</v>
+      </c>
+      <c r="C254" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.2754820936639119</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B255" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.8457300275482094</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3652.14</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0</v>
+      </c>
+      <c r="B257" t="n">
+        <v>155.54</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-25.02</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.8319559228650137</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0</v>
+      </c>
+      <c r="B258" t="n">
+        <v>140.81</v>
+      </c>
+      <c r="C258" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.465564738292011</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0</v>
+      </c>
+      <c r="B259" t="n">
+        <v>642.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-11.31</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0</v>
+      </c>
+      <c r="B260" t="n">
+        <v>212.12</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-14.34</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.6804407713498623</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B261" t="n">
+        <v>215.54</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.2479338842975207</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0</v>
+      </c>
+      <c r="B262" t="n">
+        <v>438.53</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-14.71</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.8402203856749312</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0</v>
+      </c>
+      <c r="B263" t="n">
+        <v>120.83</v>
+      </c>
+      <c r="C263" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.6528925619834711</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0</v>
+      </c>
+      <c r="B264" t="n">
+        <v>163.73</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.5289256198347108</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0</v>
+      </c>
+      <c r="B265" t="n">
+        <v>136.78</v>
+      </c>
+      <c r="C265" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.4793388429752066</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0</v>
+      </c>
+      <c r="B266" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-6.14</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-14.68</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.9669421487603306</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0</v>
+      </c>
+      <c r="B267" t="n">
+        <v>164.54</v>
+      </c>
+      <c r="C267" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0</v>
+      </c>
+      <c r="B268" t="n">
+        <v>212.75</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B269" t="n">
+        <v>322.66</v>
+      </c>
+      <c r="C269" t="n">
+        <v>67.77</v>
+      </c>
+      <c r="D269" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.9118457300275482</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B270" t="n">
+        <v>360.36</v>
+      </c>
+      <c r="C270" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.2369146005509642</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0</v>
+      </c>
+      <c r="B271" t="n">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.5426997245179064</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1361.77</v>
+      </c>
+      <c r="C272" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.9366391184573003</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0</v>
+      </c>
+      <c r="B273" t="n">
+        <v>136.39</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.3801652892561984</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0</v>
+      </c>
+      <c r="B274" t="n">
+        <v>152.19</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.71900826446281</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0</v>
+      </c>
+      <c r="B275" t="n">
+        <v>187.42</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.5895316804407713</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0</v>
+      </c>
+      <c r="B276" t="n">
+        <v>222.71</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.4297520661157025</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="B277" t="n">
+        <v>388.12</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.7052341597796143</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B278" t="n">
+        <v>150.93</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.6694214876033058</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0</v>
+      </c>
+      <c r="B279" t="n">
+        <v>156.41</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.6198347107438017</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="B280" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.2506887052341598</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B281" t="n">
+        <v>172.83</v>
+      </c>
+      <c r="C281" t="n">
+        <v>68.61</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.9146005509641874</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0</v>
+      </c>
+      <c r="B282" t="n">
+        <v>332.55</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.9008264462809917</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0</v>
+      </c>
+      <c r="B283" t="n">
+        <v>236.57</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.5344352617079889</v>
       </c>
     </row>
   </sheetData>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         <v>-1.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3360881542699725</v>
+        <v>0.7327217113418482</v>
       </c>
     </row>
     <row r="3">
@@ -479,75 +479,75 @@
         <v>0.86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5730027548209367</v>
+        <v>0.8882977006564577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.41</v>
+        <v>0.96</v>
       </c>
       <c r="B4" t="n">
-        <v>412.7</v>
+        <v>144.12</v>
       </c>
       <c r="C4" t="n">
-        <v>28.42</v>
+        <v>5.57</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>-0.02</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2258953168044077</v>
+        <v>0.623943524379402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>144.12</v>
+        <v>136.56</v>
       </c>
       <c r="C5" t="n">
-        <v>5.57</v>
+        <v>2.84</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02</v>
+        <v>1.02</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2782369146005509</v>
+        <v>0.8175631699288894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="B6" t="n">
-        <v>136.56</v>
+        <v>840.6</v>
       </c>
       <c r="C6" t="n">
-        <v>2.84</v>
+        <v>118.9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.02</v>
+        <v>17.76</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4325068870523416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>840.6</v>
+        <v>78.16</v>
       </c>
       <c r="C7" t="n">
-        <v>118.9</v>
+        <v>-12.23</v>
       </c>
       <c r="D7" t="n">
-        <v>17.76</v>
+        <v>-2.49</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9933403525640845</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>78.16</v>
+        <v>192.51</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.23</v>
+        <v>5.26</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.49</v>
+        <v>7.6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8347107438016529</v>
+        <v>0.9458384668736248</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>192.51</v>
+        <v>120.22</v>
       </c>
       <c r="C9" t="n">
-        <v>5.26</v>
+        <v>5.55</v>
       </c>
       <c r="D9" t="n">
-        <v>7.6</v>
+        <v>0.46</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6473829201101928</v>
+        <v>0.851668628913523</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>120.22</v>
+        <v>142.61</v>
       </c>
       <c r="C10" t="n">
-        <v>5.55</v>
+        <v>10.03</v>
       </c>
       <c r="D10" t="n">
-        <v>0.46</v>
+        <v>4.45</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4958677685950413</v>
+        <v>0.7688840366745612</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>142.61</v>
+        <v>934.73</v>
       </c>
       <c r="C11" t="n">
-        <v>10.03</v>
+        <v>-13.79</v>
       </c>
       <c r="D11" t="n">
-        <v>4.45</v>
+        <v>-0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3553719008264463</v>
+        <v>0.9967376009740938</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>934.73</v>
+        <v>56.39</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.79</v>
+        <v>-3.53</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.34</v>
+        <v>1.36</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8622589531680441</v>
+        <v>0.848015172509368</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>56.39</v>
+        <v>71.94</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.53</v>
+        <v>-3.84</v>
       </c>
       <c r="D13" t="n">
-        <v>1.36</v>
+        <v>-1.04</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4931129476584022</v>
+        <v>0.955911676724606</v>
       </c>
     </row>
     <row r="14">
@@ -657,50 +657,50 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>71.94</v>
+        <v>151.53</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.84</v>
+        <v>12.08</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.04</v>
+        <v>-0.43</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7355371900826446</v>
+        <v>0.9091902479197728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="B15" t="n">
-        <v>151.53</v>
+        <v>72.63</v>
       </c>
       <c r="C15" t="n">
-        <v>12.08</v>
+        <v>37.72</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.43</v>
+        <v>14.99</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.9999994701464079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>72.63</v>
+        <v>89.11</v>
       </c>
       <c r="C16" t="n">
-        <v>37.72</v>
+        <v>4.47</v>
       </c>
       <c r="D16" t="n">
-        <v>14.99</v>
+        <v>1.03</v>
       </c>
       <c r="E16" t="n">
-        <v>0.931129476584022</v>
+        <v>0.8240247492611275</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>89.11</v>
+        <v>101.52</v>
       </c>
       <c r="C17" t="n">
-        <v>4.47</v>
+        <v>-21.76</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03</v>
+        <v>-0.95</v>
       </c>
       <c r="E17" t="n">
-        <v>0.440771349862259</v>
+        <v>0.9898682600149036</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>101.52</v>
+        <v>598.0700000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>-21.76</v>
+        <v>-7.8</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.95</v>
+        <v>0.22</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.9504008818693976</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +742,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>598.0700000000001</v>
+        <v>118.22</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.8</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7162534435261708</v>
+        <v>0.915405334621844</v>
       </c>
     </row>
     <row r="20">
@@ -759,118 +759,118 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>118.22</v>
+        <v>121.25</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.869999999999999</v>
+        <v>4.66</v>
       </c>
       <c r="D20" t="n">
-        <v>0.48</v>
+        <v>-1.02</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6611570247933884</v>
+        <v>0.9384840613482017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="B21" t="n">
-        <v>121.25</v>
+        <v>168.71</v>
       </c>
       <c r="C21" t="n">
-        <v>4.66</v>
+        <v>5.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.02</v>
+        <v>0.09</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6942148760330579</v>
+        <v>0.8606459492020657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
       <c r="B22" t="n">
-        <v>168.71</v>
+        <v>160.28</v>
       </c>
       <c r="C22" t="n">
-        <v>5.13</v>
+        <v>23.99</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09</v>
+        <v>8.18</v>
       </c>
       <c r="E22" t="n">
-        <v>0.512396694214876</v>
+        <v>0.9479978318246124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>160.28</v>
+        <v>118.57</v>
       </c>
       <c r="C23" t="n">
-        <v>23.99</v>
+        <v>-17.75</v>
       </c>
       <c r="D23" t="n">
-        <v>8.18</v>
+        <v>-2.69</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6391184573002755</v>
+        <v>0.9967150204419373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="B24" t="n">
-        <v>118.57</v>
+        <v>154.03</v>
       </c>
       <c r="C24" t="n">
-        <v>-17.75</v>
+        <v>20.85</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.69</v>
+        <v>1.14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.859504132231405</v>
+        <v>0.7708152433340679</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="B25" t="n">
-        <v>154.03</v>
+        <v>142.34</v>
       </c>
       <c r="C25" t="n">
-        <v>20.85</v>
+        <v>10.17</v>
       </c>
       <c r="D25" t="n">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3774104683195592</v>
+        <v>0.6977530085994327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>142.34</v>
+        <v>265.51</v>
       </c>
       <c r="C26" t="n">
-        <v>10.17</v>
+        <v>-9.81</v>
       </c>
       <c r="D26" t="n">
-        <v>0.99</v>
+        <v>-0.88</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3168044077134986</v>
+        <v>0.9591266140865814</v>
       </c>
     </row>
     <row r="27">
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>265.51</v>
+        <v>271.76</v>
       </c>
       <c r="C27" t="n">
-        <v>-9.81</v>
+        <v>-12.26</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.88</v>
+        <v>1.6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7410468319559229</v>
+        <v>0.8843567462581855</v>
       </c>
     </row>
     <row r="28">
@@ -895,50 +895,50 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>271.76</v>
+        <v>91.23</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.26</v>
+        <v>-9.49</v>
       </c>
       <c r="D28" t="n">
-        <v>1.6</v>
+        <v>-0.58</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5647382920110193</v>
+        <v>0.9545711461125752</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="B29" t="n">
-        <v>91.23</v>
+        <v>371.35</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.49</v>
+        <v>-2.39</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.58</v>
+        <v>0.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7327823691460055</v>
+        <v>0.6665712165954165</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>371.35</v>
+        <v>361.17</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.39</v>
+        <v>5.11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3085399449035813</v>
+        <v>0.8446164388892241</v>
       </c>
     </row>
     <row r="31">
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>361.17</v>
+        <v>1379.36</v>
       </c>
       <c r="C31" t="n">
-        <v>5.11</v>
+        <v>5.95</v>
       </c>
       <c r="D31" t="n">
-        <v>0.53</v>
+        <v>-0.35</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.9999023019067649</v>
       </c>
     </row>
     <row r="32">
@@ -963,135 +963,135 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1379.36</v>
+        <v>242.97</v>
       </c>
       <c r="C32" t="n">
-        <v>5.95</v>
+        <v>2.63</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.35</v>
+        <v>-1.94</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9173553719008265</v>
+        <v>0.9700828000975656</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="B33" t="n">
-        <v>242.97</v>
+        <v>64.3</v>
       </c>
       <c r="C33" t="n">
-        <v>2.63</v>
+        <v>-7.15</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.94</v>
+        <v>1.02</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7630853994490359</v>
+        <v>0.5363756454131891</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>64.3</v>
+        <v>50.47</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.15</v>
+        <v>-20.67</v>
       </c>
       <c r="D34" t="n">
-        <v>1.02</v>
+        <v>-7.44</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.9999988178026438</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="B35" t="n">
-        <v>50.47</v>
+        <v>159.99</v>
       </c>
       <c r="C35" t="n">
-        <v>-20.67</v>
+        <v>-12.56</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.44</v>
+        <v>0.09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9338842975206612</v>
+        <v>0.7069966221923415</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>159.99</v>
+        <v>16.76</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.56</v>
+        <v>9.42</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.325068870523416</v>
+        <v>0.8949452557814236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="B37" t="n">
-        <v>16.76</v>
+        <v>130.42</v>
       </c>
       <c r="C37" t="n">
-        <v>9.42</v>
+        <v>36.91</v>
       </c>
       <c r="D37" t="n">
-        <v>0.14</v>
+        <v>3.77</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5950413223140496</v>
+        <v>0.8230107449354427</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.02</v>
+        <v>0.65</v>
       </c>
       <c r="B38" t="n">
-        <v>130.42</v>
+        <v>161.81</v>
       </c>
       <c r="C38" t="n">
-        <v>36.91</v>
+        <v>-0.59</v>
       </c>
       <c r="D38" t="n">
-        <v>3.77</v>
+        <v>1.5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4214876033057851</v>
+        <v>0.6459820290649053</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>161.81</v>
+        <v>101.24</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.59</v>
+        <v>0.15</v>
       </c>
       <c r="D39" t="n">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2920110192837466</v>
+        <v>0.8389546387762412</v>
       </c>
     </row>
     <row r="40">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>101.24</v>
+        <v>191.1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.15</v>
+        <v>-18.74</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9399999999999999</v>
+        <v>-4.51</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4683195592286502</v>
+        <v>0.9996972622857172</v>
       </c>
     </row>
     <row r="41">
@@ -1116,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>191.1</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>-18.74</v>
+        <v>-0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.51</v>
+        <v>2.21</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8980716253443526</v>
+        <v>0.7865648086818779</v>
       </c>
     </row>
     <row r="42">
@@ -1133,50 +1133,50 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>97.20999999999999</v>
+        <v>209.86</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.8</v>
+        <v>-4.93</v>
       </c>
       <c r="D42" t="n">
-        <v>2.21</v>
+        <v>2.84</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3884297520661157</v>
+        <v>0.7847749665246921</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="B43" t="n">
-        <v>209.86</v>
+        <v>982.3099999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.93</v>
+        <v>-1.1</v>
       </c>
       <c r="D43" t="n">
-        <v>2.84</v>
+        <v>1.02</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3856749311294766</v>
+        <v>0.9657488224887613</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>982.3099999999999</v>
+        <v>126.54</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.1</v>
+        <v>-0.77</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02</v>
+        <v>-0.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.9046423506816169</v>
       </c>
     </row>
     <row r="45">
@@ -1184,50 +1184,50 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>126.54</v>
+        <v>186.58</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.77</v>
+        <v>-0.24</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2</v>
+        <v>0.42</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6253443526170799</v>
+        <v>0.8592852713433569</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="B46" t="n">
-        <v>186.58</v>
+        <v>130.82</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.24</v>
+        <v>-17.32</v>
       </c>
       <c r="D46" t="n">
-        <v>0.42</v>
+        <v>-0.21</v>
       </c>
       <c r="E46" t="n">
-        <v>0.509641873278237</v>
+        <v>0.8990271680263193</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>130.82</v>
+        <v>117.49</v>
       </c>
       <c r="C47" t="n">
-        <v>-17.32</v>
+        <v>6.46</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6115702479338843</v>
+        <v>0.9021799418571077</v>
       </c>
     </row>
     <row r="48">
@@ -1235,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>117.49</v>
+        <v>109.78</v>
       </c>
       <c r="C48" t="n">
-        <v>6.46</v>
+        <v>-2.62</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.34</v>
+        <v>1.22</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6170798898071626</v>
+        <v>0.8360283284258445</v>
       </c>
     </row>
     <row r="49">
@@ -1252,16 +1252,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>109.78</v>
+        <v>341.82</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.62</v>
+        <v>-14.27</v>
       </c>
       <c r="D49" t="n">
-        <v>1.22</v>
+        <v>-0.51</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4600550964187328</v>
+        <v>0.9650977636822533</v>
       </c>
     </row>
     <row r="50">
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>341.82</v>
+        <v>76.98</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.27</v>
+        <v>-9.23</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.51</v>
+        <v>1.35</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7520661157024794</v>
+        <v>0.8838601312555708</v>
       </c>
     </row>
     <row r="51">
@@ -1286,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>76.98</v>
+        <v>243.72</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.23</v>
+        <v>-0.49</v>
       </c>
       <c r="D51" t="n">
-        <v>1.35</v>
+        <v>-1.08</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5619834710743802</v>
+        <v>0.9424237536099903</v>
       </c>
     </row>
     <row r="52">
@@ -1303,50 +1303,50 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>243.72</v>
+        <v>1247.15</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.49</v>
+        <v>0.41</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.08</v>
+        <v>-0.96</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7024793388429752</v>
+        <v>0.9997273486041244</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="B53" t="n">
-        <v>1247.15</v>
+        <v>796.15</v>
       </c>
       <c r="C53" t="n">
-        <v>0.41</v>
+        <v>13.7</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.96</v>
+        <v>6.63</v>
       </c>
       <c r="E53" t="n">
-        <v>0.90633608815427</v>
+        <v>0.870224135174152</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>796.15</v>
+        <v>116.6</v>
       </c>
       <c r="C54" t="n">
-        <v>13.7</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>6.63</v>
+        <v>-0.57</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4380165289256198</v>
+        <v>0.9486333007905626</v>
       </c>
     </row>
     <row r="55">
@@ -1354,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>116.6</v>
+        <v>1855.29</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.380000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.57</v>
+        <v>2.63</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7079889807162535</v>
+        <v>0.9999997896886396</v>
       </c>
     </row>
     <row r="56">
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1855.29</v>
+        <v>180.37</v>
       </c>
       <c r="C56" t="n">
-        <v>1.94</v>
+        <v>-4.9</v>
       </c>
       <c r="D56" t="n">
-        <v>2.63</v>
+        <v>2.17</v>
       </c>
       <c r="E56" t="n">
-        <v>0.953168044077135</v>
+        <v>0.8011553860442531</v>
       </c>
     </row>
     <row r="57">
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>180.37</v>
+        <v>180.4</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.9</v>
+        <v>-4.36</v>
       </c>
       <c r="D57" t="n">
-        <v>2.17</v>
+        <v>-0.51</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4049586776859504</v>
+        <v>0.9280242322790517</v>
       </c>
     </row>
     <row r="58">
@@ -1405,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>180.4</v>
+        <v>168.37</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.36</v>
+        <v>-5.44</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.51</v>
+        <v>-2.47</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6776859504132231</v>
+        <v>0.9874420928700056</v>
       </c>
     </row>
     <row r="59">
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>168.37</v>
+        <v>247.85</v>
       </c>
       <c r="C59" t="n">
-        <v>-5.44</v>
+        <v>-6.94</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.47</v>
+        <v>-1.41</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8044077134986226</v>
+        <v>0.9673073720678058</v>
       </c>
     </row>
     <row r="60">
@@ -1439,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>247.85</v>
+        <v>249.59</v>
       </c>
       <c r="C60" t="n">
-        <v>-6.94</v>
+        <v>-10.06</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.41</v>
+        <v>0.14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7548209366391184</v>
+        <v>0.9231715938254698</v>
       </c>
     </row>
     <row r="61">
@@ -1456,50 +1456,50 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>249.59</v>
+        <v>70.06</v>
       </c>
       <c r="C61" t="n">
-        <v>-10.06</v>
+        <v>5.67</v>
       </c>
       <c r="D61" t="n">
-        <v>0.14</v>
+        <v>-0.01</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6721763085399449</v>
+        <v>0.8905253211063733</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B62" t="n">
-        <v>70.06</v>
+        <v>105.07</v>
       </c>
       <c r="C62" t="n">
-        <v>5.67</v>
+        <v>-3.48</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01</v>
+        <v>0.54</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5785123966942148</v>
+        <v>0.7278576114136902</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>105.07</v>
+        <v>6580.26</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.48</v>
+        <v>-2.25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3443526170798898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1507,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>6580.26</v>
+        <v>183.4</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.25</v>
+        <v>-5.33</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06</v>
+        <v>1.41</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0.8339392213957919</v>
       </c>
     </row>
     <row r="65">
@@ -1524,101 +1524,101 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>183.4</v>
+        <v>1789.9</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.33</v>
+        <v>-4.69</v>
       </c>
       <c r="D65" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4573002754820937</v>
+        <v>0.9999996184553535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="B66" t="n">
-        <v>1789.9</v>
+        <v>199.16</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.69</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.7541095957124831</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>199.16</v>
+        <v>167.84</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.029999999999999</v>
+        <v>-3.54</v>
       </c>
       <c r="D67" t="n">
-        <v>0.77</v>
+        <v>0.3</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3663911845730027</v>
+        <v>0.8830372261222035</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="B68" t="n">
-        <v>167.84</v>
+        <v>109.9</v>
       </c>
       <c r="C68" t="n">
-        <v>-3.54</v>
+        <v>30.68</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3</v>
+        <v>1.87</v>
       </c>
       <c r="E68" t="n">
-        <v>0.559228650137741</v>
+        <v>0.5011510770532189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.32</v>
+        <v>0.89</v>
       </c>
       <c r="B69" t="n">
-        <v>109.9</v>
+        <v>429.07</v>
       </c>
       <c r="C69" t="n">
-        <v>30.68</v>
+        <v>4.44</v>
       </c>
       <c r="D69" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="E69" t="n">
-        <v>0.231404958677686</v>
+        <v>0.5205975728624529</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>429.07</v>
+        <v>112.47</v>
       </c>
       <c r="C70" t="n">
-        <v>4.44</v>
+        <v>-1.03</v>
       </c>
       <c r="D70" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2341597796143251</v>
+        <v>0.8142455009481155</v>
       </c>
     </row>
     <row r="71">
@@ -1626,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>112.47</v>
+        <v>36.15</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.03</v>
+        <v>-11.63</v>
       </c>
       <c r="D71" t="n">
-        <v>1.46</v>
+        <v>-2.95</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4269972451790633</v>
+        <v>0.9961606460883873</v>
       </c>
     </row>
     <row r="72">
@@ -1643,67 +1643,67 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>36.15</v>
+        <v>649.91</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.63</v>
+        <v>-8.66</v>
       </c>
       <c r="D72" t="n">
-        <v>-2.95</v>
+        <v>-0.35</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9728747387284802</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="B73" t="n">
-        <v>649.91</v>
+        <v>216.39</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.66</v>
+        <v>-0.05</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.35</v>
+        <v>1.46</v>
       </c>
       <c r="E73" t="n">
-        <v>0.768595041322314</v>
+        <v>0.6364754843431449</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="B74" t="n">
-        <v>216.39</v>
+        <v>203.16</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.05</v>
+        <v>-3.62</v>
       </c>
       <c r="D74" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2865013774104683</v>
+        <v>0.5368071765031445</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>203.16</v>
+        <v>221.96</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.62</v>
+        <v>3.29</v>
       </c>
       <c r="D75" t="n">
-        <v>1.16</v>
+        <v>1.76</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2396694214876033</v>
+        <v>0.7642203848558433</v>
       </c>
     </row>
     <row r="76">
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>221.96</v>
+        <v>453.24</v>
       </c>
       <c r="C76" t="n">
-        <v>3.29</v>
+        <v>-3.94</v>
       </c>
       <c r="D76" t="n">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="E76" t="n">
-        <v>0.371900826446281</v>
+        <v>0.8551202744780134</v>
       </c>
     </row>
     <row r="77">
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>453.24</v>
+        <v>169.08</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.94</v>
+        <v>-4.56</v>
       </c>
       <c r="D77" t="n">
-        <v>1.33</v>
+        <v>-0.54</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5068870523415978</v>
+        <v>0.9307079931120718</v>
       </c>
     </row>
     <row r="78">
@@ -1745,50 +1745,50 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>169.08</v>
+        <v>53.01</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.56</v>
+        <v>-4.17</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.54</v>
+        <v>-3.61</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6831955922865014</v>
+        <v>0.997048696282601</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="B79" t="n">
-        <v>53.01</v>
+        <v>148.94</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.17</v>
+        <v>4.78</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.61</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8567493112947658</v>
+        <v>0.8135316601105914</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>148.94</v>
+        <v>208.85</v>
       </c>
       <c r="C80" t="n">
-        <v>4.78</v>
+        <v>-6.71</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.8100000000000001</v>
+        <v>2.27</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4104683195592286</v>
+        <v>0.8121835483457839</v>
       </c>
     </row>
     <row r="81">
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>208.85</v>
+        <v>22.23</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.71</v>
+        <v>9.81</v>
       </c>
       <c r="D81" t="n">
-        <v>2.27</v>
+        <v>0.05</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4159779614325069</v>
+        <v>0.8989927022441936</v>
       </c>
     </row>
     <row r="82">
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>22.23</v>
+        <v>457.87</v>
       </c>
       <c r="C82" t="n">
-        <v>9.81</v>
+        <v>116.94</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05</v>
+        <v>-2.04</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.9999999999999858</v>
       </c>
     </row>
     <row r="83">
@@ -1830,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>457.87</v>
+        <v>254.41</v>
       </c>
       <c r="C83" t="n">
-        <v>116.94</v>
+        <v>-8.67</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.04</v>
+        <v>0.31</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9077855525315385</v>
       </c>
     </row>
     <row r="84">
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>254.41</v>
+        <v>126.14</v>
       </c>
       <c r="C84" t="n">
-        <v>-8.67</v>
+        <v>45.6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.31</v>
+        <v>19.79</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6418732782369146</v>
+        <v>0.9999999999999645</v>
       </c>
     </row>
     <row r="85">
@@ -1864,84 +1864,84 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>126.14</v>
+        <v>363.7</v>
       </c>
       <c r="C85" t="n">
-        <v>45.6</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>19.79</v>
+        <v>-25.01</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9641873278236914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="B86" t="n">
-        <v>202.42</v>
+        <v>359.43</v>
       </c>
       <c r="C86" t="n">
-        <v>-55.04</v>
+        <v>-7.73</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.9</v>
+        <v>-0.12</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9421487603305785</v>
+        <v>0.6574742009402411</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>359.43</v>
+        <v>109.5</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.73</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.12</v>
+        <v>-4.24</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2975206611570248</v>
+        <v>0.9999996047660549</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>109.5</v>
+        <v>197.07</v>
       </c>
       <c r="C88" t="n">
-        <v>67.15000000000001</v>
+        <v>75.45</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.24</v>
+        <v>2.94</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9449035812672176</v>
+        <v>0.9999841155355068</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>197.07</v>
+        <v>238.57</v>
       </c>
       <c r="C89" t="n">
-        <v>75.45</v>
+        <v>2.51</v>
       </c>
       <c r="D89" t="n">
-        <v>2.94</v>
+        <v>2.25</v>
       </c>
       <c r="E89" t="n">
-        <v>0.928374655647383</v>
+        <v>0.7462242050542642</v>
       </c>
     </row>
     <row r="90">
@@ -1949,50 +1949,50 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>238.57</v>
+        <v>130.74</v>
       </c>
       <c r="C90" t="n">
-        <v>2.51</v>
+        <v>-3.73</v>
       </c>
       <c r="D90" t="n">
-        <v>2.25</v>
+        <v>-0.05</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3581267217630854</v>
+        <v>0.9067472611010567</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="B91" t="n">
-        <v>130.74</v>
+        <v>247.01</v>
       </c>
       <c r="C91" t="n">
-        <v>-3.73</v>
+        <v>-6.48</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.05</v>
+        <v>0.58</v>
       </c>
       <c r="E91" t="n">
-        <v>0.628099173553719</v>
+        <v>0.6928880975518178</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>247.01</v>
+        <v>32.41</v>
       </c>
       <c r="C92" t="n">
-        <v>-6.48</v>
+        <v>5.8</v>
       </c>
       <c r="D92" t="n">
-        <v>0.58</v>
+        <v>-0.78</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3140495867768595</v>
+        <v>0.9370650691321802</v>
       </c>
     </row>
     <row r="93">
@@ -2000,50 +2000,50 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>32.41</v>
+        <v>118.69</v>
       </c>
       <c r="C93" t="n">
-        <v>5.8</v>
+        <v>17.2</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.78</v>
+        <v>0.23</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6914600550964187</v>
+        <v>0.8929350617501874</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B94" t="n">
-        <v>118.69</v>
+        <v>106.58</v>
       </c>
       <c r="C94" t="n">
-        <v>17.2</v>
+        <v>0.19</v>
       </c>
       <c r="D94" t="n">
-        <v>0.23</v>
+        <v>1.19</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5922865013774105</v>
+        <v>0.6092770056711749</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>106.58</v>
+        <v>231.3</v>
       </c>
       <c r="C95" t="n">
-        <v>0.19</v>
+        <v>-15.88</v>
       </c>
       <c r="D95" t="n">
-        <v>1.19</v>
+        <v>0.04</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2672176308539945</v>
+        <v>0.9560848743758255</v>
       </c>
     </row>
     <row r="96">
@@ -2051,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>231.3</v>
+        <v>1104.38</v>
       </c>
       <c r="C96" t="n">
-        <v>-15.88</v>
+        <v>11.04</v>
       </c>
       <c r="D96" t="n">
-        <v>0.04</v>
+        <v>1.17</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7382920110192838</v>
+        <v>0.9956868285890624</v>
       </c>
     </row>
     <row r="97">
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1104.38</v>
+        <v>134.82</v>
       </c>
       <c r="C97" t="n">
-        <v>11.04</v>
+        <v>-29.74</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17</v>
+        <v>-4.95</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8512396694214877</v>
+        <v>0.999969672813089</v>
       </c>
     </row>
     <row r="98">
@@ -2085,47 +2085,47 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>134.82</v>
+        <v>121.56</v>
       </c>
       <c r="C98" t="n">
-        <v>-29.74</v>
+        <v>-3.48</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.95</v>
+        <v>0.6</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9256198347107438</v>
+        <v>0.8718139212016069</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="B99" t="n">
-        <v>121.56</v>
+        <v>271.89</v>
       </c>
       <c r="C99" t="n">
-        <v>-3.48</v>
+        <v>163.34</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6</v>
+        <v>5.15</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5399449035812672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>271.89</v>
+        <v>3390.59</v>
       </c>
       <c r="C100" t="n">
-        <v>163.34</v>
+        <v>1.3</v>
       </c>
       <c r="D100" t="n">
-        <v>5.15</v>
+        <v>1.61</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -2133,36 +2133,36 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="B101" t="n">
-        <v>3390.59</v>
+        <v>185.93</v>
       </c>
       <c r="C101" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="D101" t="n">
-        <v>1.61</v>
+        <v>0.19</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0.7583225301649206</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>185.93</v>
+        <v>69.11</v>
       </c>
       <c r="C102" t="n">
-        <v>1.98</v>
+        <v>-10.6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.19</v>
+        <v>-1.86</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3691460055096419</v>
+        <v>0.9858443717230243</v>
       </c>
     </row>
     <row r="103">
@@ -2170,50 +2170,50 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>69.11</v>
+        <v>281</v>
       </c>
       <c r="C103" t="n">
-        <v>-10.6</v>
+        <v>9.81</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.86</v>
+        <v>1.01</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7988980716253443</v>
+        <v>0.8060010677323114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="B104" t="n">
-        <v>281</v>
+        <v>831.22</v>
       </c>
       <c r="C104" t="n">
-        <v>9.81</v>
+        <v>0.03</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4077134986225895</v>
+        <v>0.8109207957334414</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>831.22</v>
+        <v>101.06</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03</v>
+        <v>-3.08</v>
       </c>
       <c r="D105" t="n">
-        <v>1.35</v>
+        <v>-0.09</v>
       </c>
       <c r="E105" t="n">
-        <v>0.418732782369146</v>
+        <v>0.9098919740247989</v>
       </c>
     </row>
     <row r="106">
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>101.06</v>
+        <v>405.29</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.08</v>
+        <v>-7.44</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.09</v>
+        <v>1.16</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6446280991735537</v>
+        <v>0.8748215020085867</v>
       </c>
     </row>
     <row r="107">
@@ -2238,50 +2238,50 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>405.29</v>
+        <v>180.37</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.44</v>
+        <v>3.63</v>
       </c>
       <c r="D107" t="n">
-        <v>1.16</v>
+        <v>0.59</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5509641873278237</v>
+        <v>0.8370012728206411</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="B108" t="n">
-        <v>180.37</v>
+        <v>982.48</v>
       </c>
       <c r="C108" t="n">
-        <v>3.63</v>
+        <v>-6.89</v>
       </c>
       <c r="D108" t="n">
-        <v>0.59</v>
+        <v>1.08</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4628099173553719</v>
+        <v>0.9735696902152144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>982.48</v>
+        <v>500.28</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.89</v>
+        <v>-25.12</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08</v>
+        <v>-1.64</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7741046831955923</v>
+        <v>0.997185888319818</v>
       </c>
     </row>
     <row r="110">
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>500.28</v>
+        <v>933.4400000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>-25.12</v>
+        <v>3.02</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.64</v>
+        <v>1.22</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8705234159779615</v>
+        <v>0.9811416096961145</v>
       </c>
     </row>
     <row r="111">
@@ -2306,16 +2306,16 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>933.4400000000001</v>
+        <v>163.14</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02</v>
+        <v>13.88</v>
       </c>
       <c r="D111" t="n">
-        <v>1.22</v>
+        <v>0.78</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.8394659777175669</v>
       </c>
     </row>
     <row r="112">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>163.14</v>
+        <v>193.37</v>
       </c>
       <c r="C112" t="n">
-        <v>13.88</v>
+        <v>0.9</v>
       </c>
       <c r="D112" t="n">
-        <v>0.78</v>
+        <v>-0.61</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4710743801652892</v>
+        <v>0.9176303572417578</v>
       </c>
     </row>
     <row r="113">
@@ -2340,50 +2340,50 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>193.37</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9</v>
+        <v>-5.54</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.61</v>
+        <v>-4.98</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6584022038567493</v>
+        <v>0.99958691366263</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="B114" t="n">
-        <v>79.81999999999999</v>
+        <v>289.39</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.54</v>
+        <v>13.65</v>
       </c>
       <c r="D114" t="n">
-        <v>-4.98</v>
+        <v>1.93</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8925619834710744</v>
+        <v>0.6108662796578305</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>289.39</v>
+        <v>164.19</v>
       </c>
       <c r="C115" t="n">
-        <v>13.65</v>
+        <v>2.45</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93</v>
+        <v>-1.75</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2644628099173554</v>
+        <v>0.9658006526495583</v>
       </c>
     </row>
     <row r="116">
@@ -2391,16 +2391,16 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>164.19</v>
+        <v>224.78</v>
       </c>
       <c r="C116" t="n">
-        <v>2.45</v>
+        <v>4.71</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7465564738292011</v>
+        <v>0.7888210334840587</v>
       </c>
     </row>
     <row r="117">
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>224.78</v>
+        <v>7932.71</v>
       </c>
       <c r="C117" t="n">
-        <v>4.71</v>
+        <v>25.93</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25</v>
+        <v>-0.41</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3939393939393939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2425,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>7932.71</v>
+        <v>281.54</v>
       </c>
       <c r="C118" t="n">
-        <v>25.93</v>
+        <v>1.88</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.41</v>
+        <v>0.9</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0.8184339990265503</v>
       </c>
     </row>
     <row r="119">
@@ -2442,67 +2442,67 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>281.54</v>
+        <v>131.27</v>
       </c>
       <c r="C119" t="n">
-        <v>1.88</v>
+        <v>-1.82</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4352617079889807</v>
+        <v>0.842933827624547</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="B120" t="n">
-        <v>131.27</v>
+        <v>387.54</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.82</v>
+        <v>23.01</v>
       </c>
       <c r="D120" t="n">
-        <v>0.93</v>
+        <v>1.88</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4820936639118457</v>
+        <v>0.5739604159044174</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="B121" t="n">
-        <v>387.54</v>
+        <v>81.06</v>
       </c>
       <c r="C121" t="n">
-        <v>23.01</v>
+        <v>11.32</v>
       </c>
       <c r="D121" t="n">
-        <v>1.88</v>
+        <v>-0.03</v>
       </c>
       <c r="E121" t="n">
-        <v>0.256198347107438</v>
+        <v>0.6631811456948106</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>81.06</v>
+        <v>129.71</v>
       </c>
       <c r="C122" t="n">
-        <v>11.32</v>
+        <v>-2.04</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3002754820936639</v>
+        <v>0.8996948220742432</v>
       </c>
     </row>
     <row r="123">
@@ -2510,50 +2510,50 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>129.71</v>
+        <v>445.1</v>
       </c>
       <c r="C123" t="n">
-        <v>-2.04</v>
+        <v>-1.89</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.04</v>
+        <v>-1.41</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6088154269972452</v>
+        <v>0.9657186034642343</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="B124" t="n">
-        <v>445.1</v>
+        <v>19.71</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.89</v>
+        <v>-7.11</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.41</v>
+        <v>0.45</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7493112947658402</v>
+        <v>0.7147344075990607</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>19.71</v>
+        <v>116.52</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.11</v>
+        <v>-20.17</v>
       </c>
       <c r="D125" t="n">
-        <v>0.45</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3305785123966942</v>
+        <v>0.985876957803091</v>
       </c>
     </row>
     <row r="126">
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>116.52</v>
+        <v>127.39</v>
       </c>
       <c r="C126" t="n">
-        <v>-20.17</v>
+        <v>33.38</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-9.75</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8071625344352618</v>
+        <v>0.9999999914942048</v>
       </c>
     </row>
     <row r="127">
@@ -2578,50 +2578,50 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>127.39</v>
+        <v>120.81</v>
       </c>
       <c r="C127" t="n">
-        <v>33.38</v>
+        <v>50.04</v>
       </c>
       <c r="D127" t="n">
-        <v>-9.75</v>
+        <v>1.35</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9586776859504132</v>
+        <v>0.9966658244991813</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="B128" t="n">
-        <v>120.81</v>
+        <v>258.29</v>
       </c>
       <c r="C128" t="n">
-        <v>50.04</v>
+        <v>-4.17</v>
       </c>
       <c r="D128" t="n">
-        <v>1.35</v>
+        <v>0.37</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8677685950413223</v>
+        <v>0.8412149510726266</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>258.29</v>
+        <v>73.25</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.17</v>
+        <v>-4.25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4738292011019284</v>
+        <v>0.8999987417202618</v>
       </c>
     </row>
     <row r="130">
@@ -2629,16 +2629,16 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>73.25</v>
+        <v>225.2</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.25</v>
+        <v>3.79</v>
       </c>
       <c r="D130" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6143250688705234</v>
+        <v>0.8471867163168245</v>
       </c>
     </row>
     <row r="131">
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>225.2</v>
+        <v>144.27</v>
       </c>
       <c r="C131" t="n">
-        <v>3.79</v>
+        <v>17.7</v>
       </c>
       <c r="D131" t="n">
-        <v>0.39</v>
+        <v>-0.23</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4903581267217631</v>
+        <v>0.9160492145898474</v>
       </c>
     </row>
     <row r="132">
@@ -2663,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>144.27</v>
+        <v>145.14</v>
       </c>
       <c r="C132" t="n">
-        <v>17.7</v>
+        <v>-5.09</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.23</v>
+        <v>0.63</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6556473829201102</v>
+        <v>0.8759957469859317</v>
       </c>
     </row>
     <row r="133">
@@ -2680,84 +2680,84 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>145.14</v>
+        <v>31.75</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.09</v>
+        <v>-7.74</v>
       </c>
       <c r="D133" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5537190082644629</v>
+        <v>0.9249489750541174</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="B134" t="n">
-        <v>31.75</v>
+        <v>128.72</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.74</v>
+        <v>-19.37</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26</v>
+        <v>0.97</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6749311294765841</v>
+        <v>0.6322251346769342</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="B135" t="n">
-        <v>128.72</v>
+        <v>832.64</v>
       </c>
       <c r="C135" t="n">
-        <v>-19.37</v>
+        <v>2.63</v>
       </c>
       <c r="D135" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2892561983471074</v>
+        <v>0.6730206227721259</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="B136" t="n">
-        <v>832.64</v>
+        <v>123.12</v>
       </c>
       <c r="C136" t="n">
-        <v>2.63</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3112947658402204</v>
+        <v>0.5798646267056234</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>123.12</v>
+        <v>154.61</v>
       </c>
       <c r="C137" t="n">
-        <v>-8.380000000000001</v>
+        <v>50.99</v>
       </c>
       <c r="D137" t="n">
-        <v>0.83</v>
+        <v>-0.27</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2589531680440771</v>
+        <v>0.9987221445146059</v>
       </c>
     </row>
     <row r="138">
@@ -2765,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>154.61</v>
+        <v>85.33</v>
       </c>
       <c r="C138" t="n">
-        <v>50.99</v>
+        <v>9.44</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.27</v>
+        <v>0.22</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8815426997245179</v>
+        <v>0.8750324395215898</v>
       </c>
     </row>
     <row r="139">
@@ -2782,50 +2782,50 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>85.33</v>
+        <v>114.47</v>
       </c>
       <c r="C139" t="n">
-        <v>9.44</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22</v>
+        <v>-2.36</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5482093663911846</v>
+        <v>0.9836122624465844</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B140" t="n">
-        <v>114.47</v>
+        <v>333.2</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.6899999999999999</v>
+        <v>24.64</v>
       </c>
       <c r="D140" t="n">
-        <v>-2.36</v>
+        <v>2.31</v>
       </c>
       <c r="E140" t="n">
-        <v>0.790633608815427</v>
+        <v>0.6697740655147815</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>333.2</v>
+        <v>272.83</v>
       </c>
       <c r="C141" t="n">
-        <v>24.64</v>
+        <v>-15.04</v>
       </c>
       <c r="D141" t="n">
-        <v>2.31</v>
+        <v>1.53</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3057851239669421</v>
+        <v>0.9105033965598825</v>
       </c>
     </row>
     <row r="142">
@@ -2833,16 +2833,16 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>272.83</v>
+        <v>1278.17</v>
       </c>
       <c r="C142" t="n">
-        <v>-15.04</v>
+        <v>-7.26</v>
       </c>
       <c r="D142" t="n">
-        <v>1.53</v>
+        <v>-1.66</v>
       </c>
       <c r="E142" t="n">
-        <v>0.650137741046832</v>
+        <v>0.9999264593079582</v>
       </c>
     </row>
     <row r="143">
@@ -2850,67 +2850,67 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>1278.17</v>
+        <v>146.01</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.26</v>
+        <v>-4.97</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.66</v>
+        <v>-1.04</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9201101928374655</v>
+        <v>0.9534694439277022</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="B144" t="n">
-        <v>146.01</v>
+        <v>99.59</v>
       </c>
       <c r="C144" t="n">
-        <v>-4.97</v>
+        <v>43.4</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.04</v>
+        <v>4.1</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7245179063360881</v>
+        <v>0.6354589095280381</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.64</v>
+        <v>0.7</v>
       </c>
       <c r="B145" t="n">
-        <v>99.59</v>
+        <v>1033.44</v>
       </c>
       <c r="C145" t="n">
-        <v>43.4</v>
+        <v>-14.52</v>
       </c>
       <c r="D145" t="n">
-        <v>4.1</v>
+        <v>-2.73</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2699724517906336</v>
+        <v>0.999612862547236</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>1033.44</v>
+        <v>287.77</v>
       </c>
       <c r="C146" t="n">
-        <v>-14.52</v>
+        <v>-10.71</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.73</v>
+        <v>-2.15</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8953168044077136</v>
+        <v>0.9874670922737747</v>
       </c>
     </row>
     <row r="147">
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>287.77</v>
+        <v>126.04</v>
       </c>
       <c r="C147" t="n">
-        <v>-10.71</v>
+        <v>-4.06</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.15</v>
+        <v>0.98</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8099173553719008</v>
+        <v>0.8541359135664818</v>
       </c>
     </row>
     <row r="148">
@@ -2935,16 +2935,16 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>126.04</v>
+        <v>252.87</v>
       </c>
       <c r="C148" t="n">
-        <v>-4.06</v>
+        <v>1.48</v>
       </c>
       <c r="D148" t="n">
-        <v>0.98</v>
+        <v>1.31</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5013774104683195</v>
+        <v>0.7939078748481788</v>
       </c>
     </row>
     <row r="149">
@@ -2952,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>252.87</v>
+        <v>106.97</v>
       </c>
       <c r="C149" t="n">
-        <v>1.48</v>
+        <v>0.71</v>
       </c>
       <c r="D149" t="n">
-        <v>1.31</v>
+        <v>0.83</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3994490358126722</v>
+        <v>0.8419035735609357</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="B150" t="n">
-        <v>106.97</v>
+        <v>229.48</v>
       </c>
       <c r="C150" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="D150" t="n">
         <v>0.71</v>
       </c>
-      <c r="D150" t="n">
-        <v>0.83</v>
-      </c>
       <c r="E150" t="n">
-        <v>0.4765840220385675</v>
+        <v>0.6625562881691243</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B151" t="n">
-        <v>229.48</v>
+        <v>219.77</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.31</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>0.71</v>
+        <v>-0.29</v>
       </c>
       <c r="E151" t="n">
-        <v>0.303030303030303</v>
+        <v>0.8642493359307928</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>219.77</v>
+        <v>406.12</v>
       </c>
       <c r="C152" t="n">
-        <v>-9.529999999999999</v>
+        <v>-3.64</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.29</v>
+        <v>2.08</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5234159779614325</v>
+        <v>0.8111746845782384</v>
       </c>
     </row>
     <row r="153">
@@ -3020,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>406.12</v>
+        <v>175.59</v>
       </c>
       <c r="C153" t="n">
-        <v>-3.64</v>
+        <v>1.37</v>
       </c>
       <c r="D153" t="n">
-        <v>2.08</v>
+        <v>-1.34</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4132231404958678</v>
+        <v>0.9519865683722407</v>
       </c>
     </row>
     <row r="154">
@@ -3037,50 +3037,50 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>175.59</v>
+        <v>122.38</v>
       </c>
       <c r="C154" t="n">
-        <v>1.37</v>
+        <v>-3.74</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.34</v>
+        <v>0.84</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7107438016528925</v>
+        <v>0.8601725619024105</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="B155" t="n">
-        <v>122.38</v>
+        <v>445.31</v>
       </c>
       <c r="C155" t="n">
-        <v>-3.74</v>
+        <v>40.59</v>
       </c>
       <c r="D155" t="n">
-        <v>0.84</v>
+        <v>2.32</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.9155048301475448</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>445.31</v>
+        <v>168.38</v>
       </c>
       <c r="C156" t="n">
-        <v>40.59</v>
+        <v>7.9</v>
       </c>
       <c r="D156" t="n">
-        <v>2.32</v>
+        <v>-0.24</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6639118457300276</v>
+        <v>0.8907506958902597</v>
       </c>
     </row>
     <row r="157">
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>168.38</v>
+        <v>260.59</v>
       </c>
       <c r="C157" t="n">
-        <v>7.9</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.24</v>
+        <v>-2.47</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.9903811804081322</v>
       </c>
     </row>
     <row r="158">
@@ -3105,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>260.59</v>
+        <v>154.31</v>
       </c>
       <c r="C158" t="n">
-        <v>-9.970000000000001</v>
+        <v>-16.83</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.47</v>
+        <v>-1.63</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8236914600550964</v>
+        <v>0.9889181763693917</v>
       </c>
     </row>
     <row r="159">
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>154.31</v>
+        <v>251.28</v>
       </c>
       <c r="C159" t="n">
-        <v>-16.83</v>
+        <v>-5.04</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.63</v>
+        <v>-2.15</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8209366391184573</v>
+        <v>0.9815177421585733</v>
       </c>
     </row>
     <row r="160">
@@ -3139,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>251.28</v>
+        <v>137.39</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.04</v>
+        <v>11.68</v>
       </c>
       <c r="D160" t="n">
-        <v>-2.15</v>
+        <v>-0.34</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7823691460055097</v>
+        <v>0.9046401011041462</v>
       </c>
     </row>
     <row r="161">
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>137.39</v>
+        <v>122.16</v>
       </c>
       <c r="C161" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.34</v>
+        <v>3.13</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6225895316804407</v>
+        <v>0.7506175472072681</v>
       </c>
     </row>
     <row r="162">
@@ -3173,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>122.16</v>
+        <v>132.09</v>
       </c>
       <c r="C162" t="n">
-        <v>11.72</v>
+        <v>3.39</v>
       </c>
       <c r="D162" t="n">
-        <v>3.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3526170798898072</v>
+        <v>0.8460959133417916</v>
       </c>
     </row>
     <row r="163">
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>132.09</v>
+        <v>127.98</v>
       </c>
       <c r="C163" t="n">
-        <v>3.39</v>
+        <v>79.06</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5600000000000001</v>
+        <v>-2.58</v>
       </c>
       <c r="E163" t="n">
-        <v>0.487603305785124</v>
+        <v>0.9999999167479351</v>
       </c>
     </row>
     <row r="164">
@@ -3207,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>127.98</v>
+        <v>67.73</v>
       </c>
       <c r="C164" t="n">
-        <v>79.06</v>
+        <v>1.86</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.58</v>
+        <v>-0.23</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9559228650137741</v>
+        <v>0.9082232426420156</v>
       </c>
     </row>
     <row r="165">
@@ -3224,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>67.73</v>
+        <v>698.9400000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>1.86</v>
+        <v>-16.04</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.23</v>
+        <v>-3.99</v>
       </c>
       <c r="E165" t="n">
-        <v>0.6336088154269972</v>
+        <v>0.9997171312233136</v>
       </c>
     </row>
     <row r="166">
@@ -3241,50 +3241,50 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>698.9400000000001</v>
+        <v>59.91</v>
       </c>
       <c r="C166" t="n">
-        <v>-16.04</v>
+        <v>-7.56</v>
       </c>
       <c r="D166" t="n">
-        <v>-3.99</v>
+        <v>0.98</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9035812672176309</v>
+        <v>0.8896208458634101</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="B167" t="n">
-        <v>59.91</v>
+        <v>247.31</v>
       </c>
       <c r="C167" t="n">
-        <v>-7.56</v>
+        <v>-5.66</v>
       </c>
       <c r="D167" t="n">
-        <v>0.98</v>
+        <v>2.47</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5840220385674931</v>
+        <v>0.7881386282381595</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>247.31</v>
+        <v>102.06</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.66</v>
+        <v>3.43</v>
       </c>
       <c r="D168" t="n">
-        <v>2.47</v>
+        <v>4.08</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3911845730027548</v>
+        <v>0.7655137141649523</v>
       </c>
     </row>
     <row r="169">
@@ -3292,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>102.06</v>
+        <v>144.14</v>
       </c>
       <c r="C169" t="n">
-        <v>3.43</v>
+        <v>-6.29</v>
       </c>
       <c r="D169" t="n">
-        <v>4.08</v>
+        <v>-0.55</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3608815426997245</v>
+        <v>0.9386837339356605</v>
       </c>
     </row>
     <row r="170">
@@ -3309,50 +3309,50 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>144.14</v>
+        <v>901.4299999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.29</v>
+        <v>-2.46</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.55</v>
+        <v>-3.34</v>
       </c>
       <c r="E170" t="n">
-        <v>0.696969696969697</v>
+        <v>0.9994754246598</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="B171" t="n">
-        <v>901.4299999999999</v>
+        <v>302.32</v>
       </c>
       <c r="C171" t="n">
-        <v>-2.46</v>
+        <v>25.49</v>
       </c>
       <c r="D171" t="n">
-        <v>-3.34</v>
+        <v>-0.96</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8870523415977961</v>
+        <v>0.7359993829188953</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>302.32</v>
+        <v>190.21</v>
       </c>
       <c r="C172" t="n">
-        <v>25.49</v>
+        <v>1.89</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.96</v>
+        <v>1.77</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3415977961432507</v>
+        <v>0.7713178060945636</v>
       </c>
     </row>
     <row r="173">
@@ -3360,50 +3360,50 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>190.21</v>
+        <v>458.93</v>
       </c>
       <c r="C173" t="n">
-        <v>1.89</v>
+        <v>-1.35</v>
       </c>
       <c r="D173" t="n">
-        <v>1.77</v>
+        <v>0.46</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3746556473829201</v>
+        <v>0.8860522427097497</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
-        <v>458.93</v>
+        <v>255.01</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.35</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D174" t="n">
         <v>0.46</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5674931129476584</v>
+        <v>0.6463120421784593</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>255.01</v>
+        <v>82.75</v>
       </c>
       <c r="C175" t="n">
-        <v>-8.380000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="D175" t="n">
-        <v>0.46</v>
+        <v>-1.78</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2947658402203857</v>
+        <v>0.9689272962487553</v>
       </c>
     </row>
     <row r="176">
@@ -3411,16 +3411,16 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>82.75</v>
+        <v>765.61</v>
       </c>
       <c r="C176" t="n">
-        <v>6.08</v>
+        <v>-14.61</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.78</v>
+        <v>0.35</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7603305785123967</v>
+        <v>0.9860271740078969</v>
       </c>
     </row>
     <row r="177">
@@ -3428,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>765.61</v>
+        <v>342.25</v>
       </c>
       <c r="C177" t="n">
-        <v>-14.61</v>
+        <v>-9.279999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>0.35</v>
+        <v>-2.14</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8126721763085399</v>
+        <v>0.9864159217828102</v>
       </c>
     </row>
     <row r="178">
@@ -3445,50 +3445,50 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>342.25</v>
+        <v>9.69</v>
       </c>
       <c r="C178" t="n">
-        <v>-9.279999999999999</v>
+        <v>-20.86</v>
       </c>
       <c r="D178" t="n">
-        <v>-2.14</v>
+        <v>-3</v>
       </c>
       <c r="E178" t="n">
-        <v>0.8016528925619835</v>
+        <v>0.9987342675796154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="B179" t="n">
-        <v>9.69</v>
+        <v>258.82</v>
       </c>
       <c r="C179" t="n">
-        <v>-20.86</v>
+        <v>-13.15</v>
       </c>
       <c r="D179" t="n">
-        <v>-3</v>
+        <v>1.74</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8760330578512396</v>
+        <v>0.8124135524100393</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>258.82</v>
+        <v>248.5</v>
       </c>
       <c r="C180" t="n">
-        <v>-13.15</v>
+        <v>-14.17</v>
       </c>
       <c r="D180" t="n">
-        <v>1.74</v>
+        <v>-1.17</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.9773763949586373</v>
       </c>
     </row>
     <row r="181">
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>248.5</v>
+        <v>64.73</v>
       </c>
       <c r="C181" t="n">
-        <v>-14.17</v>
+        <v>-13.43</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.17</v>
+        <v>0.6</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7768595041322314</v>
+        <v>0.9381932531360101</v>
       </c>
     </row>
     <row r="182">
@@ -3513,16 +3513,16 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>64.73</v>
+        <v>155.25</v>
       </c>
       <c r="C182" t="n">
-        <v>-13.43</v>
+        <v>-7.05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6</v>
+        <v>1.95</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6997245179063361</v>
+        <v>0.8305953051661675</v>
       </c>
     </row>
     <row r="183">
@@ -3530,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>155.25</v>
+        <v>1290.78</v>
       </c>
       <c r="C183" t="n">
-        <v>-7.05</v>
+        <v>0.4</v>
       </c>
       <c r="D183" t="n">
-        <v>1.95</v>
+        <v>-0.32</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4517906336088154</v>
+        <v>0.9997355833157688</v>
       </c>
     </row>
     <row r="184">
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1290.78</v>
+        <v>467.82</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4</v>
+        <v>-6.74</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.32</v>
+        <v>0.02</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9301310453818904</v>
       </c>
     </row>
     <row r="185">
@@ -3564,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>467.82</v>
+        <v>204.12</v>
       </c>
       <c r="C185" t="n">
-        <v>-6.74</v>
+        <v>7.79</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02</v>
+        <v>2.23</v>
       </c>
       <c r="E185" t="n">
-        <v>0.6859504132231405</v>
+        <v>0.7412146374510652</v>
       </c>
     </row>
     <row r="186">
@@ -3581,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>204.12</v>
+        <v>147.7</v>
       </c>
       <c r="C186" t="n">
-        <v>7.79</v>
+        <v>-16.85</v>
       </c>
       <c r="D186" t="n">
-        <v>2.23</v>
+        <v>-1.47</v>
       </c>
       <c r="E186" t="n">
-        <v>0.349862258953168</v>
+        <v>0.9873437801324439</v>
       </c>
     </row>
     <row r="187">
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>147.7</v>
+        <v>139.48</v>
       </c>
       <c r="C187" t="n">
-        <v>-16.85</v>
+        <v>3.11</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.47</v>
+        <v>1.32</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8154269972451791</v>
+        <v>0.7986022671044873</v>
       </c>
     </row>
     <row r="188">
@@ -3615,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>139.48</v>
+        <v>1078.55</v>
       </c>
       <c r="C188" t="n">
-        <v>3.11</v>
+        <v>-4.02</v>
       </c>
       <c r="D188" t="n">
-        <v>1.32</v>
+        <v>0.88</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4022038567493113</v>
+        <v>0.9961195049366961</v>
       </c>
     </row>
     <row r="189">
@@ -3632,50 +3632,50 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>1078.55</v>
+        <v>7137.3</v>
       </c>
       <c r="C189" t="n">
-        <v>-4.02</v>
+        <v>0.57</v>
       </c>
       <c r="D189" t="n">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8539944903581267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="B190" t="n">
-        <v>7137.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>0.57</v>
+        <v>-1.49</v>
       </c>
       <c r="D190" t="n">
-        <v>1.38</v>
+        <v>-0.16</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0.8961444904899557</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>99.48999999999999</v>
+        <v>197.6</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.49</v>
+        <v>7.53</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.16</v>
+        <v>3.3</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5977961432506887</v>
+        <v>0.7259150620729413</v>
       </c>
     </row>
     <row r="192">
@@ -3683,84 +3683,84 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>197.6</v>
+        <v>352.37</v>
       </c>
       <c r="C192" t="n">
-        <v>7.53</v>
+        <v>-2.5</v>
       </c>
       <c r="D192" t="n">
-        <v>3.3</v>
+        <v>1.26</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3278236914600551</v>
+        <v>0.8264765931671869</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="B193" t="n">
-        <v>352.37</v>
+        <v>619.64</v>
       </c>
       <c r="C193" t="n">
-        <v>-2.5</v>
+        <v>39.91</v>
       </c>
       <c r="D193" t="n">
-        <v>1.26</v>
+        <v>0.55</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4462809917355372</v>
+        <v>0.7129860911348531</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.71</v>
+        <v>0.96</v>
       </c>
       <c r="B194" t="n">
-        <v>619.64</v>
+        <v>130.25</v>
       </c>
       <c r="C194" t="n">
-        <v>39.91</v>
+        <v>4.96</v>
       </c>
       <c r="D194" t="n">
-        <v>0.55</v>
+        <v>0.26</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5903536416173486</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.96</v>
+        <v>0.42</v>
       </c>
       <c r="B195" t="n">
-        <v>130.25</v>
+        <v>2907.97</v>
       </c>
       <c r="C195" t="n">
-        <v>4.96</v>
+        <v>-4.67</v>
       </c>
       <c r="D195" t="n">
-        <v>0.26</v>
+        <v>-0.54</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2617079889807162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>2907.97</v>
+        <v>333.62</v>
       </c>
       <c r="C196" t="n">
-        <v>-4.67</v>
+        <v>-12.54</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.54</v>
+        <v>-0.31</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0.9531618950804343</v>
       </c>
     </row>
     <row r="197">
@@ -3768,50 +3768,50 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>333.62</v>
+        <v>246.62</v>
       </c>
       <c r="C197" t="n">
-        <v>-12.54</v>
+        <v>-3.94</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.31</v>
+        <v>-0.46</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7300275482093664</v>
+        <v>0.9223353647731117</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="B198" t="n">
-        <v>246.62</v>
+        <v>360.92</v>
       </c>
       <c r="C198" t="n">
-        <v>-3.94</v>
+        <v>-9.16</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.46</v>
+        <v>0.73</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8691863256739527</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>360.92</v>
+        <v>249.4</v>
       </c>
       <c r="C199" t="n">
-        <v>-9.16</v>
+        <v>19.25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.73</v>
+        <v>-1.03</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5316804407713499</v>
+        <v>0.9521944806487069</v>
       </c>
     </row>
     <row r="200">
@@ -3819,67 +3819,67 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>249.4</v>
+        <v>137.55</v>
       </c>
       <c r="C200" t="n">
-        <v>19.25</v>
+        <v>10.54</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.03</v>
+        <v>-0.1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7134986225895317</v>
+        <v>0.8881552158806683</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="B201" t="n">
-        <v>137.55</v>
+        <v>105.2</v>
       </c>
       <c r="C201" t="n">
-        <v>10.54</v>
+        <v>-11.13</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.1</v>
+        <v>2.72</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5702479338842975</v>
+        <v>0.6351349189659966</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="B202" t="n">
-        <v>105.2</v>
+        <v>140.61</v>
       </c>
       <c r="C202" t="n">
-        <v>-11.13</v>
+        <v>17.97</v>
       </c>
       <c r="D202" t="n">
-        <v>2.72</v>
+        <v>12.86</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2809917355371901</v>
+        <v>0.9998202533176676</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>140.61</v>
+        <v>172.66</v>
       </c>
       <c r="C203" t="n">
-        <v>17.97</v>
+        <v>0.58</v>
       </c>
       <c r="D203" t="n">
-        <v>12.86</v>
+        <v>-1.98</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8842975206611571</v>
+        <v>0.9733925660476257</v>
       </c>
     </row>
     <row r="204">
@@ -3887,84 +3887,84 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>172.66</v>
+        <v>87.42</v>
       </c>
       <c r="C204" t="n">
-        <v>0.58</v>
+        <v>-11.42</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.98</v>
+        <v>-1.67</v>
       </c>
       <c r="E204" t="n">
-        <v>0.7658402203856749</v>
+        <v>0.9836628742344575</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="B205" t="n">
-        <v>87.42</v>
+        <v>193.39</v>
       </c>
       <c r="C205" t="n">
-        <v>-11.42</v>
+        <v>-4.6</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.67</v>
+        <v>0.33</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7933884297520661</v>
+        <v>0.7058266260220326</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="B206" t="n">
-        <v>193.39</v>
+        <v>317.72</v>
       </c>
       <c r="C206" t="n">
-        <v>-4.6</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D206" t="n">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3223140495867768</v>
+        <v>0.5483637712812057</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>317.72</v>
+        <v>998.53</v>
       </c>
       <c r="C207" t="n">
-        <v>8.210000000000001</v>
+        <v>-1.56</v>
       </c>
       <c r="D207" t="n">
-        <v>1.25</v>
+        <v>-0.87</v>
       </c>
       <c r="E207" t="n">
-        <v>0.2451790633608815</v>
+        <v>0.9969516465346443</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.01</v>
+        <v>0.34</v>
       </c>
       <c r="B208" t="n">
-        <v>174.16</v>
+        <v>144.8</v>
       </c>
       <c r="C208" t="n">
-        <v>7.77</v>
+        <v>1.39</v>
       </c>
       <c r="D208" t="n">
-        <v>0.68</v>
+        <v>1.71</v>
       </c>
       <c r="E208" t="n">
-        <v>0.2286501377410468</v>
+        <v>0.7283178596497536</v>
       </c>
     </row>
     <row r="209">
@@ -3972,33 +3972,33 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>998.53</v>
+        <v>123.47</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.56</v>
+        <v>-5.78</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.87</v>
+        <v>0.37</v>
       </c>
       <c r="E209" t="n">
-        <v>0.8650137741046832</v>
+        <v>0.896026887997402</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>144.8</v>
+        <v>2510.92</v>
       </c>
       <c r="C210" t="n">
-        <v>1.39</v>
+        <v>40.7</v>
       </c>
       <c r="D210" t="n">
-        <v>1.71</v>
+        <v>-5.25</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3388429752066116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4006,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>123.47</v>
+        <v>193.64</v>
       </c>
       <c r="C211" t="n">
-        <v>-5.78</v>
+        <v>-7.23</v>
       </c>
       <c r="D211" t="n">
-        <v>0.37</v>
+        <v>0.92</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6005509641873278</v>
+        <v>0.8708901164599705</v>
       </c>
     </row>
     <row r="212">
@@ -4023,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>2510.92</v>
+        <v>53.82</v>
       </c>
       <c r="C212" t="n">
-        <v>40.7</v>
+        <v>-9.75</v>
       </c>
       <c r="D212" t="n">
-        <v>-5.25</v>
+        <v>-1.49</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0.9795048026037675</v>
       </c>
     </row>
     <row r="213">
@@ -4040,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>193.64</v>
+        <v>89.45</v>
       </c>
       <c r="C213" t="n">
-        <v>-7.23</v>
+        <v>3.8</v>
       </c>
       <c r="D213" t="n">
-        <v>0.92</v>
+        <v>15.39</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5371900826446281</v>
+        <v>0.9999997927636387</v>
       </c>
     </row>
     <row r="214">
@@ -4057,33 +4057,33 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>53.82</v>
+        <v>172.02</v>
       </c>
       <c r="C214" t="n">
-        <v>-9.75</v>
+        <v>15.12</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.49</v>
+        <v>-0.02</v>
       </c>
       <c r="E214" t="n">
-        <v>0.7796143250688705</v>
+        <v>0.8923569424570628</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="B215" t="n">
-        <v>89.45</v>
+        <v>166.24</v>
       </c>
       <c r="C215" t="n">
-        <v>3.8</v>
+        <v>56.1</v>
       </c>
       <c r="D215" t="n">
-        <v>15.39</v>
+        <v>0.41</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.99271735166634</v>
       </c>
     </row>
     <row r="216">
@@ -4091,33 +4091,33 @@
         <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>172.02</v>
+        <v>460.74</v>
       </c>
       <c r="C216" t="n">
-        <v>15.12</v>
+        <v>-4.84</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.02</v>
+        <v>-4.43</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5867768595041323</v>
+        <v>0.9991044290044521</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>166.24</v>
+        <v>107.04</v>
       </c>
       <c r="C217" t="n">
-        <v>56.1</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="D217" t="n">
-        <v>0.41</v>
+        <v>-0.61</v>
       </c>
       <c r="E217" t="n">
-        <v>0.837465564738292</v>
+        <v>0.9523163534011351</v>
       </c>
     </row>
     <row r="218">
@@ -4125,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>460.74</v>
+        <v>152.08</v>
       </c>
       <c r="C218" t="n">
-        <v>-4.84</v>
+        <v>8</v>
       </c>
       <c r="D218" t="n">
-        <v>-4.43</v>
+        <v>0.14</v>
       </c>
       <c r="E218" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8678670753321099</v>
       </c>
     </row>
     <row r="219">
@@ -4142,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>107.04</v>
+        <v>572.71</v>
       </c>
       <c r="C219" t="n">
-        <v>-8.869999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.61</v>
+        <v>1.94</v>
       </c>
       <c r="E219" t="n">
-        <v>0.721763085399449</v>
+        <v>0.8539758331991012</v>
       </c>
     </row>
     <row r="220">
@@ -4159,135 +4159,135 @@
         <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>152.08</v>
+        <v>10546.27</v>
       </c>
       <c r="C220" t="n">
-        <v>8</v>
+        <v>9.68</v>
       </c>
       <c r="D220" t="n">
-        <v>0.14</v>
+        <v>-6.39</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5261707988980716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="B221" t="n">
-        <v>572.71</v>
+        <v>237.86</v>
       </c>
       <c r="C221" t="n">
-        <v>0.73</v>
+        <v>103.1</v>
       </c>
       <c r="D221" t="n">
-        <v>1.94</v>
+        <v>3.73</v>
       </c>
       <c r="E221" t="n">
-        <v>0.4986225895316804</v>
+        <v>0.9999999994125339</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="B222" t="n">
-        <v>10546.27</v>
+        <v>212.56</v>
       </c>
       <c r="C222" t="n">
-        <v>9.68</v>
+        <v>-15.72</v>
       </c>
       <c r="D222" t="n">
-        <v>-6.39</v>
+        <v>0.44</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0.8600728141708354</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>237.86</v>
+        <v>160.96</v>
       </c>
       <c r="C223" t="n">
-        <v>103.1</v>
+        <v>18.73</v>
       </c>
       <c r="D223" t="n">
-        <v>3.73</v>
+        <v>0.64</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9614325068870524</v>
+        <v>0.8738988450869534</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.77</v>
+        <v>1.32</v>
       </c>
       <c r="B224" t="n">
-        <v>212.56</v>
+        <v>147.05</v>
       </c>
       <c r="C224" t="n">
-        <v>-15.72</v>
+        <v>56.5</v>
       </c>
       <c r="D224" t="n">
-        <v>0.44</v>
+        <v>2.37</v>
       </c>
       <c r="E224" t="n">
-        <v>0.5206611570247934</v>
+        <v>0.9861465635989389</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="B225" t="n">
-        <v>160.96</v>
+        <v>205.86</v>
       </c>
       <c r="C225" t="n">
-        <v>18.73</v>
+        <v>-3.02</v>
       </c>
       <c r="D225" t="n">
-        <v>0.64</v>
+        <v>1.72</v>
       </c>
       <c r="E225" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5614145554965733</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>147.05</v>
+        <v>108.16</v>
       </c>
       <c r="C226" t="n">
-        <v>56.5</v>
+        <v>16.34</v>
       </c>
       <c r="D226" t="n">
-        <v>2.37</v>
+        <v>-6.6</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9999685718441832</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.82</v>
+        <v>1.23</v>
       </c>
       <c r="B227" t="n">
-        <v>205.86</v>
+        <v>659</v>
       </c>
       <c r="C227" t="n">
-        <v>-3.02</v>
+        <v>-11.29</v>
       </c>
       <c r="D227" t="n">
-        <v>1.72</v>
+        <v>0.68</v>
       </c>
       <c r="E227" t="n">
-        <v>0.2534435261707989</v>
+        <v>0.7283795937705388</v>
       </c>
     </row>
     <row r="228">
@@ -4295,33 +4295,33 @@
         <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>108.16</v>
+        <v>410.02</v>
       </c>
       <c r="C228" t="n">
-        <v>16.34</v>
+        <v>-14.68</v>
       </c>
       <c r="D228" t="n">
-        <v>-6.6</v>
+        <v>-2.03</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9228650137741047</v>
+        <v>0.9913499798795402</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="B229" t="n">
-        <v>659</v>
+        <v>138.32</v>
       </c>
       <c r="C229" t="n">
-        <v>-11.29</v>
+        <v>22.43</v>
       </c>
       <c r="D229" t="n">
-        <v>0.68</v>
+        <v>-0.18</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3471074380165289</v>
+        <v>0.7070968370468254</v>
       </c>
     </row>
     <row r="230">
@@ -4329,33 +4329,33 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>410.02</v>
+        <v>303.4</v>
       </c>
       <c r="C230" t="n">
-        <v>-14.68</v>
+        <v>-34.51</v>
       </c>
       <c r="D230" t="n">
-        <v>-2.03</v>
+        <v>-1.89</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8292011019283747</v>
+        <v>0.9993684003990247</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.07</v>
+        <v>0.6</v>
       </c>
       <c r="B231" t="n">
-        <v>138.32</v>
+        <v>804.58</v>
       </c>
       <c r="C231" t="n">
-        <v>22.43</v>
+        <v>1.9</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.18</v>
+        <v>3.85</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3195592286501377</v>
+        <v>0.888780017565019</v>
       </c>
     </row>
     <row r="232">
@@ -4363,33 +4363,33 @@
         <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>303.4</v>
+        <v>102.67</v>
       </c>
       <c r="C232" t="n">
-        <v>-34.51</v>
+        <v>-3.29</v>
       </c>
       <c r="D232" t="n">
-        <v>-1.89</v>
+        <v>0.3</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8898071625344353</v>
+        <v>0.8901245322263722</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.6</v>
+        <v>1.64</v>
       </c>
       <c r="B233" t="n">
-        <v>804.58</v>
+        <v>1318.7</v>
       </c>
       <c r="C233" t="n">
-        <v>1.9</v>
+        <v>112.51</v>
       </c>
       <c r="D233" t="n">
-        <v>3.85</v>
+        <v>50.37</v>
       </c>
       <c r="E233" t="n">
-        <v>0.5564738292011019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -4397,33 +4397,33 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>102.67</v>
+        <v>216.84</v>
       </c>
       <c r="C234" t="n">
-        <v>-3.29</v>
+        <v>-0.79</v>
       </c>
       <c r="D234" t="n">
-        <v>0.3</v>
+        <v>0.93</v>
       </c>
       <c r="E234" t="n">
-        <v>0.581267217630854</v>
+        <v>0.8278188856920504</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>1318.7</v>
+        <v>42.11</v>
       </c>
       <c r="C235" t="n">
-        <v>112.51</v>
+        <v>-0.49</v>
       </c>
       <c r="D235" t="n">
-        <v>50.37</v>
+        <v>-0.01</v>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>0.906897471712545</v>
       </c>
     </row>
     <row r="236">
@@ -4431,33 +4431,33 @@
         <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>216.84</v>
+        <v>251.97</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.79</v>
+        <v>0.3</v>
       </c>
       <c r="D236" t="n">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4490358126721763</v>
+        <v>0.8617030448888447</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="B237" t="n">
-        <v>42.11</v>
+        <v>117.03</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.49</v>
+        <v>-2.17</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.01</v>
+        <v>0.79</v>
       </c>
       <c r="E237" t="n">
-        <v>0.6308539944903582</v>
+        <v>0.75344142407917</v>
       </c>
     </row>
     <row r="238">
@@ -4465,33 +4465,33 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>251.97</v>
+        <v>355.8</v>
       </c>
       <c r="C238" t="n">
-        <v>0.3</v>
+        <v>-6.21</v>
       </c>
       <c r="D238" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="E238" t="n">
-        <v>0.5179063360881543</v>
+        <v>0.8966559058894984</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>117.03</v>
+        <v>319.53</v>
       </c>
       <c r="C239" t="n">
-        <v>-2.17</v>
+        <v>-1.11</v>
       </c>
       <c r="D239" t="n">
-        <v>0.79</v>
+        <v>-0.84</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.9343800639834097</v>
       </c>
     </row>
     <row r="240">
@@ -4499,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>355.8</v>
+        <v>112.85</v>
       </c>
       <c r="C240" t="n">
-        <v>-6.21</v>
+        <v>2.19</v>
       </c>
       <c r="D240" t="n">
-        <v>0.36</v>
+        <v>1.87</v>
       </c>
       <c r="E240" t="n">
-        <v>0.6033057851239669</v>
+        <v>0.7802850978565683</v>
       </c>
     </row>
     <row r="241">
@@ -4516,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>319.53</v>
+        <v>125.63</v>
       </c>
       <c r="C241" t="n">
-        <v>-1.11</v>
+        <v>-3.2</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.84</v>
+        <v>-2.18</v>
       </c>
       <c r="E241" t="n">
-        <v>0.6887052341597796</v>
+        <v>0.9819080262602052</v>
       </c>
     </row>
     <row r="242">
@@ -4533,33 +4533,33 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>112.85</v>
+        <v>1246.53</v>
       </c>
       <c r="C242" t="n">
-        <v>2.19</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="D242" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="E242" t="n">
-        <v>0.3829201101928374</v>
+        <v>0.9999994761885689</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B243" t="n">
-        <v>125.63</v>
+        <v>227.72</v>
       </c>
       <c r="C243" t="n">
-        <v>-3.2</v>
+        <v>-1.96</v>
       </c>
       <c r="D243" t="n">
-        <v>-2.18</v>
+        <v>1.16</v>
       </c>
       <c r="E243" t="n">
-        <v>0.7851239669421488</v>
+        <v>0.6345513616504233</v>
       </c>
     </row>
     <row r="244">
@@ -4567,33 +4567,33 @@
         <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>1246.53</v>
+        <v>177.37</v>
       </c>
       <c r="C244" t="n">
-        <v>64.34999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="D244" t="n">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="E244" t="n">
-        <v>0.9476584022038568</v>
+        <v>0.8253005516516244</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>227.72</v>
+        <v>176.49</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.96</v>
+        <v>10.8</v>
       </c>
       <c r="D245" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="E245" t="n">
-        <v>0.2837465564738292</v>
+        <v>0.790022917608566</v>
       </c>
     </row>
     <row r="246">
@@ -4601,16 +4601,16 @@
         <v>0</v>
       </c>
       <c r="B246" t="n">
-        <v>177.37</v>
+        <v>216.61</v>
       </c>
       <c r="C246" t="n">
-        <v>2.84</v>
+        <v>-10.06</v>
       </c>
       <c r="D246" t="n">
-        <v>0.8</v>
+        <v>-3.78</v>
       </c>
       <c r="E246" t="n">
-        <v>0.4435261707988981</v>
+        <v>0.9980102948000463</v>
       </c>
     </row>
     <row r="247">
@@ -4618,16 +4618,16 @@
         <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>176.49</v>
+        <v>157.64</v>
       </c>
       <c r="C247" t="n">
-        <v>10.8</v>
+        <v>41.54</v>
       </c>
       <c r="D247" t="n">
-        <v>1.38</v>
+        <v>-0.57</v>
       </c>
       <c r="E247" t="n">
-        <v>0.3966942148760331</v>
+        <v>0.9941292456547893</v>
       </c>
     </row>
     <row r="248">
@@ -4635,33 +4635,33 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>216.61</v>
+        <v>561.95</v>
       </c>
       <c r="C248" t="n">
-        <v>-10.06</v>
+        <v>-3.71</v>
       </c>
       <c r="D248" t="n">
-        <v>-3.78</v>
+        <v>-1.3</v>
       </c>
       <c r="E248" t="n">
-        <v>0.8732782369146006</v>
+        <v>0.9747930851055175</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="B249" t="n">
-        <v>157.64</v>
+        <v>150.57</v>
       </c>
       <c r="C249" t="n">
-        <v>41.54</v>
+        <v>-8.24</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E249" t="n">
-        <v>0.8429752066115702</v>
+        <v>0.6176790908397273</v>
       </c>
     </row>
     <row r="250">
@@ -4669,118 +4669,118 @@
         <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>561.95</v>
+        <v>128.47</v>
       </c>
       <c r="C250" t="n">
-        <v>-3.71</v>
+        <v>9.1</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="E250" t="n">
-        <v>0.7713498622589532</v>
+        <v>0.9612656165207843</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>150.57</v>
+        <v>146.15</v>
       </c>
       <c r="C251" t="n">
-        <v>-8.24</v>
+        <v>36.42</v>
       </c>
       <c r="D251" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="E251" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.9830383496086189</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="B252" t="n">
-        <v>128.47</v>
+        <v>122.21</v>
       </c>
       <c r="C252" t="n">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D252" t="n">
-        <v>-1.6</v>
+        <v>-0.36</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7438016528925619</v>
+        <v>0.6257562375108237</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="B253" t="n">
-        <v>146.15</v>
+        <v>274.9</v>
       </c>
       <c r="C253" t="n">
-        <v>36.42</v>
+        <v>-10.79</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.09</v>
+        <v>-4.12</v>
       </c>
       <c r="E253" t="n">
-        <v>0.7961432506887053</v>
+        <v>0.9962089792856212</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="B254" t="n">
-        <v>122.21</v>
+        <v>3652.14</v>
       </c>
       <c r="C254" t="n">
-        <v>8.300000000000001</v>
+        <v>-0.82</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.36</v>
+        <v>-1.11</v>
       </c>
       <c r="E254" t="n">
-        <v>0.2754820936639119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>274.9</v>
+        <v>155.54</v>
       </c>
       <c r="C255" t="n">
-        <v>-10.79</v>
+        <v>-25.02</v>
       </c>
       <c r="D255" t="n">
-        <v>-4.12</v>
+        <v>-0.74</v>
       </c>
       <c r="E255" t="n">
-        <v>0.8457300275482094</v>
+        <v>0.9918849274934065</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>3652.14</v>
+        <v>140.81</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.82</v>
+        <v>6.45</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.11</v>
+        <v>0.6</v>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>0.8384903504265854</v>
       </c>
     </row>
     <row r="257">
@@ -4788,16 +4788,16 @@
         <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>155.54</v>
+        <v>642.5</v>
       </c>
       <c r="C257" t="n">
-        <v>-25.02</v>
+        <v>-11.31</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.74</v>
+        <v>1.1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.8319559228650137</v>
+        <v>0.9517891770421038</v>
       </c>
     </row>
     <row r="258">
@@ -4805,33 +4805,33 @@
         <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>140.81</v>
+        <v>212.12</v>
       </c>
       <c r="C258" t="n">
-        <v>6.45</v>
+        <v>-14.34</v>
       </c>
       <c r="D258" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="E258" t="n">
-        <v>0.465564738292011</v>
+        <v>0.9266854089713668</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="B259" t="n">
-        <v>642.5</v>
+        <v>215.54</v>
       </c>
       <c r="C259" t="n">
-        <v>-11.31</v>
+        <v>-2.17</v>
       </c>
       <c r="D259" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5488977838667887</v>
       </c>
     </row>
     <row r="260">
@@ -4839,33 +4839,33 @@
         <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>212.12</v>
+        <v>438.53</v>
       </c>
       <c r="C260" t="n">
-        <v>-14.34</v>
+        <v>-14.71</v>
       </c>
       <c r="D260" t="n">
-        <v>0.79</v>
+        <v>-2.38</v>
       </c>
       <c r="E260" t="n">
-        <v>0.6804407713498623</v>
+        <v>0.9942820385877964</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>215.54</v>
+        <v>120.83</v>
       </c>
       <c r="C261" t="n">
-        <v>-2.17</v>
+        <v>17.46</v>
       </c>
       <c r="D261" t="n">
-        <v>1.11</v>
+        <v>-0.16</v>
       </c>
       <c r="E261" t="n">
-        <v>0.2479338842975207</v>
+        <v>0.913987842904403</v>
       </c>
     </row>
     <row r="262">
@@ -4873,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>438.53</v>
+        <v>163.73</v>
       </c>
       <c r="C262" t="n">
-        <v>-14.71</v>
+        <v>-0.74</v>
       </c>
       <c r="D262" t="n">
-        <v>-2.38</v>
+        <v>0.36</v>
       </c>
       <c r="E262" t="n">
-        <v>0.8402203856749312</v>
+        <v>0.8672366936876278</v>
       </c>
     </row>
     <row r="263">
@@ -4890,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="B263" t="n">
-        <v>120.83</v>
+        <v>136.78</v>
       </c>
       <c r="C263" t="n">
-        <v>17.46</v>
+        <v>11.95</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.16</v>
+        <v>0.67</v>
       </c>
       <c r="E263" t="n">
-        <v>0.6528925619834711</v>
+        <v>0.8428488066281293</v>
       </c>
     </row>
     <row r="264">
@@ -4907,16 +4907,16 @@
         <v>0</v>
       </c>
       <c r="B264" t="n">
-        <v>163.73</v>
+        <v>74.02</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.74</v>
+        <v>-6.14</v>
       </c>
       <c r="D264" t="n">
-        <v>0.36</v>
+        <v>-14.68</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5289256198347108</v>
+        <v>0.9999999999999858</v>
       </c>
     </row>
     <row r="265">
@@ -4924,16 +4924,16 @@
         <v>0</v>
       </c>
       <c r="B265" t="n">
-        <v>136.78</v>
+        <v>164.54</v>
       </c>
       <c r="C265" t="n">
-        <v>11.95</v>
+        <v>13.26</v>
       </c>
       <c r="D265" t="n">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="E265" t="n">
-        <v>0.4793388429752066</v>
+        <v>0.8561206805682035</v>
       </c>
     </row>
     <row r="266">
@@ -4941,84 +4941,84 @@
         <v>0</v>
       </c>
       <c r="B266" t="n">
-        <v>74.02</v>
+        <v>212.75</v>
       </c>
       <c r="C266" t="n">
-        <v>-6.14</v>
+        <v>-0.79</v>
       </c>
       <c r="D266" t="n">
-        <v>-14.68</v>
+        <v>0.84</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9669421487603306</v>
+        <v>0.8335337115336118</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="B267" t="n">
-        <v>164.54</v>
+        <v>322.66</v>
       </c>
       <c r="C267" t="n">
-        <v>13.26</v>
+        <v>67.77</v>
       </c>
       <c r="D267" t="n">
-        <v>0.47</v>
+        <v>4.33</v>
       </c>
       <c r="E267" t="n">
-        <v>0.5041322314049587</v>
+        <v>0.9997493625021316</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="B268" t="n">
-        <v>212.75</v>
+        <v>360.36</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.79</v>
+        <v>30.28</v>
       </c>
       <c r="D268" t="n">
-        <v>0.84</v>
+        <v>2.13</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5231679730639117</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>322.66</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="C269" t="n">
-        <v>67.77</v>
+        <v>2.18</v>
       </c>
       <c r="D269" t="n">
-        <v>4.33</v>
+        <v>0.34</v>
       </c>
       <c r="E269" t="n">
-        <v>0.9118457300275482</v>
+        <v>0.8740907080563931</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>360.36</v>
+        <v>1361.77</v>
       </c>
       <c r="C270" t="n">
-        <v>30.28</v>
+        <v>16.71</v>
       </c>
       <c r="D270" t="n">
-        <v>2.13</v>
+        <v>-4.15</v>
       </c>
       <c r="E270" t="n">
-        <v>0.2369146005509642</v>
+        <v>0.9999980819062034</v>
       </c>
     </row>
     <row r="271">
@@ -5026,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>72.56999999999999</v>
+        <v>136.39</v>
       </c>
       <c r="C271" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
       <c r="D271" t="n">
-        <v>0.34</v>
+        <v>1.88</v>
       </c>
       <c r="E271" t="n">
-        <v>0.5426997245179064</v>
+        <v>0.7785714753178071</v>
       </c>
     </row>
     <row r="272">
@@ -5043,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="B272" t="n">
-        <v>1361.77</v>
+        <v>152.19</v>
       </c>
       <c r="C272" t="n">
-        <v>16.71</v>
+        <v>-14.1</v>
       </c>
       <c r="D272" t="n">
-        <v>-4.15</v>
+        <v>0.03</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9366391184573003</v>
+        <v>0.9505859137707328</v>
       </c>
     </row>
     <row r="273">
@@ -5060,16 +5060,16 @@
         <v>0</v>
       </c>
       <c r="B273" t="n">
-        <v>136.39</v>
+        <v>187.42</v>
       </c>
       <c r="C273" t="n">
-        <v>1.14</v>
+        <v>-5.39</v>
       </c>
       <c r="D273" t="n">
-        <v>1.88</v>
+        <v>0.28</v>
       </c>
       <c r="E273" t="n">
-        <v>0.3801652892561984</v>
+        <v>0.8922235887152276</v>
       </c>
     </row>
     <row r="274">
@@ -5077,169 +5077,135 @@
         <v>0</v>
       </c>
       <c r="B274" t="n">
-        <v>152.19</v>
+        <v>222.71</v>
       </c>
       <c r="C274" t="n">
-        <v>-14.1</v>
+        <v>-5.49</v>
       </c>
       <c r="D274" t="n">
-        <v>0.03</v>
+        <v>1.77</v>
       </c>
       <c r="E274" t="n">
-        <v>0.71900826446281</v>
+        <v>0.8168167111218574</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="B275" t="n">
-        <v>187.42</v>
+        <v>388.12</v>
       </c>
       <c r="C275" t="n">
-        <v>-5.39</v>
+        <v>-13.7</v>
       </c>
       <c r="D275" t="n">
-        <v>0.28</v>
+        <v>-3.19</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5895316804407713</v>
+        <v>0.9541889665761238</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="B276" t="n">
-        <v>222.71</v>
+        <v>150.93</v>
       </c>
       <c r="C276" t="n">
-        <v>-5.49</v>
+        <v>-2.32</v>
       </c>
       <c r="D276" t="n">
-        <v>1.77</v>
+        <v>-1.14</v>
       </c>
       <c r="E276" t="n">
-        <v>0.4297520661157025</v>
+        <v>0.9254344274028291</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="B277" t="n">
-        <v>388.12</v>
+        <v>156.41</v>
       </c>
       <c r="C277" t="n">
-        <v>-13.7</v>
+        <v>-1.45</v>
       </c>
       <c r="D277" t="n">
-        <v>-3.19</v>
+        <v>-0.16</v>
       </c>
       <c r="E277" t="n">
-        <v>0.7052341597796143</v>
+        <v>0.9014716347900109</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.45</v>
+        <v>1.31</v>
       </c>
       <c r="B278" t="n">
-        <v>150.93</v>
+        <v>51.5</v>
       </c>
       <c r="C278" t="n">
-        <v>-2.32</v>
+        <v>-4.17</v>
       </c>
       <c r="D278" t="n">
-        <v>-1.14</v>
+        <v>-0.55</v>
       </c>
       <c r="E278" t="n">
-        <v>0.6694214876033058</v>
+        <v>0.563931873279728</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="B279" t="n">
-        <v>156.41</v>
+        <v>172.83</v>
       </c>
       <c r="C279" t="n">
-        <v>-1.45</v>
+        <v>68.61</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.16</v>
+        <v>0.57</v>
       </c>
       <c r="E279" t="n">
-        <v>0.6198347107438017</v>
+        <v>0.9998579308024427</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="B280" t="n">
-        <v>51.5</v>
+        <v>332.55</v>
       </c>
       <c r="C280" t="n">
-        <v>-4.17</v>
+        <v>-33.6</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.55</v>
+        <v>-2.55</v>
       </c>
       <c r="E280" t="n">
-        <v>0.2506887052341598</v>
+        <v>0.9996271958564696</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>172.83</v>
+        <v>236.57</v>
       </c>
       <c r="C281" t="n">
-        <v>68.61</v>
+        <v>-2.58</v>
       </c>
       <c r="D281" t="n">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9146005509641874</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>0</v>
-      </c>
-      <c r="B282" t="n">
-        <v>332.55</v>
-      </c>
-      <c r="C282" t="n">
-        <v>-33.6</v>
-      </c>
-      <c r="D282" t="n">
-        <v>-2.55</v>
-      </c>
-      <c r="E282" t="n">
-        <v>0.9008264462809917</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>0</v>
-      </c>
-      <c r="B283" t="n">
-        <v>236.57</v>
-      </c>
-      <c r="C283" t="n">
-        <v>-2.58</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E283" t="n">
-        <v>0.5344352617079889</v>
+        <v>0.8709585598322341</v>
       </c>
     </row>
   </sheetData>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,87 +450,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>249.44</v>
+        <v>1278.22</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.06</v>
+        <v>2.12</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2</v>
+        <v>4.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7327217113418482</v>
+        <v>0.9999999997115854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>718</v>
+        <v>284.37</v>
       </c>
       <c r="C3" t="n">
-        <v>2.22</v>
+        <v>-30.14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>-4.65</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8882977006564577</v>
+        <v>0.9997273091900457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="B4" t="n">
-        <v>144.12</v>
+        <v>362.94</v>
       </c>
       <c r="C4" t="n">
-        <v>5.57</v>
+        <v>4.39</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02</v>
+        <v>2.16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.623943524379402</v>
+        <v>0.5600364901682059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="B5" t="n">
-        <v>136.56</v>
+        <v>547.38</v>
       </c>
       <c r="C5" t="n">
-        <v>2.84</v>
+        <v>124.87</v>
       </c>
       <c r="D5" t="n">
-        <v>1.02</v>
+        <v>29.47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8175631699288894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>840.6</v>
+        <v>263.43</v>
       </c>
       <c r="C6" t="n">
-        <v>118.9</v>
+        <v>-11.14</v>
       </c>
       <c r="D6" t="n">
-        <v>17.76</v>
+        <v>1.96</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8563928004281985</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>78.16</v>
+        <v>235.4</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.23</v>
+        <v>-12.27</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.49</v>
+        <v>3.14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9933403525640845</v>
+        <v>0.8263932364047387</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>192.51</v>
+        <v>157.28</v>
       </c>
       <c r="C8" t="n">
-        <v>5.26</v>
+        <v>24.46</v>
       </c>
       <c r="D8" t="n">
-        <v>7.6</v>
+        <v>1.83</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9458384668736248</v>
+        <v>0.8301135101844528</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>120.22</v>
+        <v>68.34</v>
       </c>
       <c r="C9" t="n">
-        <v>5.55</v>
+        <v>-2.1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.46</v>
+        <v>-1.9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.851668628913523</v>
+        <v>0.9618169975142917</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>142.61</v>
+        <v>125.16</v>
       </c>
       <c r="C10" t="n">
-        <v>10.03</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>4.45</v>
+        <v>-3.19</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7688840366745612</v>
+        <v>0.9721923738471218</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>934.73</v>
+        <v>141.62</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.79</v>
+        <v>-3.67</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9967376009740938</v>
+        <v>0.9178086555211227</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>56.39</v>
+        <v>113.12</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.53</v>
+        <v>11.22</v>
       </c>
       <c r="D12" t="n">
-        <v>1.36</v>
+        <v>0.88</v>
       </c>
       <c r="E12" t="n">
-        <v>0.848015172509368</v>
+        <v>0.8044554070715483</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>71.94</v>
+        <v>115.29</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.84</v>
+        <v>-19.64</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.04</v>
+        <v>-1.37</v>
       </c>
       <c r="E13" t="n">
-        <v>0.955911676724606</v>
+        <v>0.9872257010108572</v>
       </c>
     </row>
     <row r="14">
@@ -657,50 +657,50 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>151.53</v>
+        <v>249.9</v>
       </c>
       <c r="C14" t="n">
-        <v>12.08</v>
+        <v>-6.09</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.43</v>
+        <v>-2.1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9091902479197728</v>
+        <v>0.9608354478087534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>72.63</v>
+        <v>363.7</v>
       </c>
       <c r="C15" t="n">
-        <v>37.72</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>14.99</v>
+        <v>-25.01</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999994701464079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="B16" t="n">
-        <v>89.11</v>
+        <v>121.89</v>
       </c>
       <c r="C16" t="n">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8240247492611275</v>
+        <v>0.5850305860860451</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>101.52</v>
+        <v>131.13</v>
       </c>
       <c r="C17" t="n">
-        <v>-21.76</v>
+        <v>2.73</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.95</v>
+        <v>2.22</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9898682600149036</v>
+        <v>0.7220880945874213</v>
       </c>
     </row>
     <row r="18">
@@ -725,84 +725,84 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>598.0700000000001</v>
+        <v>125.11</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.8</v>
+        <v>0.48</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9504008818693976</v>
+        <v>0.7424431711282888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="B19" t="n">
-        <v>118.22</v>
+        <v>259.38</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.869999999999999</v>
+        <v>20.35</v>
       </c>
       <c r="D19" t="n">
-        <v>0.48</v>
+        <v>0.97</v>
       </c>
       <c r="E19" t="n">
-        <v>0.915405334621844</v>
+        <v>0.7679557514119362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>121.25</v>
+        <v>238.18</v>
       </c>
       <c r="C20" t="n">
-        <v>4.66</v>
+        <v>-9.18</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.02</v>
+        <v>1.09</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9384840613482017</v>
+        <v>0.7848133255231921</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.12</v>
+        <v>0.83</v>
       </c>
       <c r="B21" t="n">
-        <v>168.71</v>
+        <v>228.6</v>
       </c>
       <c r="C21" t="n">
-        <v>5.13</v>
+        <v>-11.23</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09</v>
+        <v>-0.37</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8606459492020657</v>
+        <v>0.8410870135107649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>160.28</v>
       </c>
       <c r="C22" t="n">
-        <v>23.99</v>
+        <v>-3.25</v>
       </c>
       <c r="D22" t="n">
-        <v>8.18</v>
+        <v>-0.74</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9479978318246124</v>
+        <v>0.9081992709224761</v>
       </c>
     </row>
     <row r="23">
@@ -810,50 +810,50 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>118.57</v>
+        <v>176.48</v>
       </c>
       <c r="C23" t="n">
-        <v>-17.75</v>
+        <v>13.67</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.69</v>
+        <v>3.96</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9967150204419373</v>
+        <v>0.6185006159560691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>154.03</v>
+        <v>102.9</v>
       </c>
       <c r="C24" t="n">
-        <v>20.85</v>
+        <v>-5.77</v>
       </c>
       <c r="D24" t="n">
-        <v>1.14</v>
+        <v>-1.21</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7708152433340679</v>
+        <v>0.9468542054256512</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.58</v>
+        <v>1.22</v>
       </c>
       <c r="B25" t="n">
-        <v>142.34</v>
+        <v>154.58</v>
       </c>
       <c r="C25" t="n">
-        <v>10.17</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.99</v>
+        <v>-0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6977530085994327</v>
+        <v>0.6529119201277683</v>
       </c>
     </row>
     <row r="26">
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>265.51</v>
+        <v>301.76</v>
       </c>
       <c r="C26" t="n">
-        <v>-9.81</v>
+        <v>-11.3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.88</v>
+        <v>0.46</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9591266140865814</v>
+        <v>0.9195270183743833</v>
       </c>
     </row>
     <row r="27">
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>271.76</v>
+        <v>131.38</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.26</v>
+        <v>74.59</v>
       </c>
       <c r="D27" t="n">
-        <v>1.6</v>
+        <v>-5.05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8843567462581855</v>
+        <v>0.999999873537571</v>
       </c>
     </row>
     <row r="28">
@@ -895,33 +895,33 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>91.23</v>
+        <v>158.98</v>
       </c>
       <c r="C28" t="n">
-        <v>-9.49</v>
+        <v>0.97</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.58</v>
+        <v>0.91</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9545711461125752</v>
+        <v>0.7969636245181252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>371.35</v>
+        <v>190.31</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.39</v>
+        <v>14.46</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>5.52</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6665712165954165</v>
+        <v>0.5884875963858783</v>
       </c>
     </row>
     <row r="30">
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>361.17</v>
+        <v>65.13</v>
       </c>
       <c r="C30" t="n">
-        <v>5.11</v>
+        <v>-11.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.53</v>
+        <v>-2.79</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8446164388892241</v>
+        <v>0.9885116537820703</v>
       </c>
     </row>
     <row r="31">
@@ -946,50 +946,50 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1379.36</v>
+        <v>92.25</v>
       </c>
       <c r="C31" t="n">
-        <v>5.95</v>
+        <v>-5.71</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.35</v>
+        <v>-0.46</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999023019067649</v>
+        <v>0.9266906397178769</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="B32" t="n">
-        <v>242.97</v>
+        <v>385.23</v>
       </c>
       <c r="C32" t="n">
-        <v>2.63</v>
+        <v>-17.5</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.94</v>
+        <v>-3.41</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9700828000975656</v>
+        <v>0.9850621912164846</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>64.3</v>
+        <v>251.97</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.15</v>
+        <v>-3.85</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02</v>
+        <v>2.13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5363756454131891</v>
+        <v>0.7602159082442772</v>
       </c>
     </row>
     <row r="34">
@@ -997,33 +997,33 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>50.47</v>
+        <v>201.28</v>
       </c>
       <c r="C34" t="n">
-        <v>-20.67</v>
+        <v>-5.24</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.44</v>
+        <v>-0.19</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9999988178026438</v>
+        <v>0.8900993778346686</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>159.99</v>
+        <v>662.9299999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.56</v>
+        <v>-11.36</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09</v>
+        <v>-3.42</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7069966221923415</v>
+        <v>0.9997561105762646</v>
       </c>
     </row>
     <row r="36">
@@ -1031,50 +1031,50 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>16.76</v>
+        <v>125.45</v>
       </c>
       <c r="C36" t="n">
-        <v>9.42</v>
+        <v>-1.45</v>
       </c>
       <c r="D36" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8949452557814236</v>
+        <v>0.8713232264872002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>130.42</v>
+        <v>88.45</v>
       </c>
       <c r="C37" t="n">
-        <v>36.91</v>
+        <v>11.51</v>
       </c>
       <c r="D37" t="n">
-        <v>3.77</v>
+        <v>-0.32</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8230107449354427</v>
+        <v>0.8851649014167451</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>161.81</v>
+        <v>192.14</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.59</v>
+        <v>5.44</v>
       </c>
       <c r="D38" t="n">
-        <v>1.5</v>
+        <v>2.68</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6459820290649053</v>
+        <v>0.6582368248294037</v>
       </c>
     </row>
     <row r="39">
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>101.24</v>
+        <v>184.22</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15</v>
+        <v>-15.76</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9399999999999999</v>
+        <v>-5.61</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8389546387762412</v>
+        <v>0.9988158882108746</v>
       </c>
     </row>
     <row r="40">
@@ -1099,33 +1099,33 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>191.1</v>
+        <v>236.79</v>
       </c>
       <c r="C40" t="n">
-        <v>-18.74</v>
+        <v>-2.95</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.51</v>
+        <v>2.04</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9996972622857172</v>
+        <v>0.7524553473344696</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="B41" t="n">
-        <v>97.20999999999999</v>
+        <v>50.33</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D41" t="n">
-        <v>2.21</v>
+        <v>-4.72</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7865648086818779</v>
+        <v>0.9379719084498496</v>
       </c>
     </row>
     <row r="42">
@@ -1133,33 +1133,33 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>209.86</v>
+        <v>50.36</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.93</v>
+        <v>-2.21</v>
       </c>
       <c r="D42" t="n">
-        <v>2.84</v>
+        <v>1.31</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7847749665246921</v>
+        <v>0.8602354082960461</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="B43" t="n">
-        <v>982.3099999999999</v>
+        <v>582.09</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.1</v>
+        <v>3.48</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9657488224887613</v>
+        <v>0.8929455438960523</v>
       </c>
     </row>
     <row r="44">
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>126.54</v>
+        <v>5936.01</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.77</v>
+        <v>23.48</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2</v>
+        <v>-4.86</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9046423506816169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1184,50 +1184,50 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>186.58</v>
+        <v>85.67</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.24</v>
+        <v>5.41</v>
       </c>
       <c r="D45" t="n">
-        <v>0.42</v>
+        <v>1.99</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8592852713433569</v>
+        <v>0.7600090008217358</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="B46" t="n">
-        <v>130.82</v>
+        <v>321.98</v>
       </c>
       <c r="C46" t="n">
-        <v>-17.32</v>
+        <v>1.32</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.21</v>
+        <v>1.87</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8990271680263193</v>
+        <v>0.5998563735060597</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B47" t="n">
-        <v>117.49</v>
+        <v>799.61</v>
       </c>
       <c r="C47" t="n">
-        <v>6.46</v>
+        <v>-15.33</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.34</v>
+        <v>-5.52</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9021799418571077</v>
+        <v>0.9999953171884995</v>
       </c>
     </row>
     <row r="48">
@@ -1235,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>109.78</v>
+        <v>101.07</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.62</v>
+        <v>8.02</v>
       </c>
       <c r="D48" t="n">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8360283284258445</v>
+        <v>0.7996161787186103</v>
       </c>
     </row>
     <row r="49">
@@ -1252,33 +1252,33 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>341.82</v>
+        <v>252.11</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.27</v>
+        <v>-13.45</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.51</v>
+        <v>-4.44</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9650977636822533</v>
+        <v>0.9959403111739384</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="B50" t="n">
-        <v>76.98</v>
+        <v>483.64</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.23</v>
+        <v>-3.84</v>
       </c>
       <c r="D50" t="n">
-        <v>1.35</v>
+        <v>0.58</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8838601312555708</v>
+        <v>0.77457244414162</v>
       </c>
     </row>
     <row r="51">
@@ -1286,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>243.72</v>
+        <v>145.94</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.49</v>
+        <v>-6.78</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.08</v>
+        <v>1.37</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9424237536099903</v>
+        <v>0.8395184772925084</v>
       </c>
     </row>
     <row r="52">
@@ -1303,33 +1303,33 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1247.15</v>
+        <v>2686.3</v>
       </c>
       <c r="C52" t="n">
-        <v>0.41</v>
+        <v>23.42</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.96</v>
+        <v>-2.16</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9997273486041244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="B53" t="n">
-        <v>796.15</v>
+        <v>1100.14</v>
       </c>
       <c r="C53" t="n">
-        <v>13.7</v>
+        <v>5.25</v>
       </c>
       <c r="D53" t="n">
-        <v>6.63</v>
+        <v>0.45</v>
       </c>
       <c r="E53" t="n">
-        <v>0.870224135174152</v>
+        <v>0.9999994467666629</v>
       </c>
     </row>
     <row r="54">
@@ -1337,33 +1337,33 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>116.6</v>
+        <v>146.26</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.380000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.57</v>
+        <v>5.96</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9486333007905626</v>
+        <v>0.5834052237807069</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B55" t="n">
-        <v>1855.29</v>
+        <v>146.32</v>
       </c>
       <c r="C55" t="n">
-        <v>1.94</v>
+        <v>3.22</v>
       </c>
       <c r="D55" t="n">
-        <v>2.63</v>
+        <v>-0.91</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9999997896886396</v>
+        <v>0.7887666276662036</v>
       </c>
     </row>
     <row r="56">
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>180.37</v>
+        <v>173.75</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.9</v>
+        <v>-3.49</v>
       </c>
       <c r="D56" t="n">
-        <v>2.17</v>
+        <v>-0.34</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8011553860442531</v>
+        <v>0.8892886511894682</v>
       </c>
     </row>
     <row r="57">
@@ -1388,33 +1388,33 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>180.4</v>
+        <v>200.05</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.36</v>
+        <v>35.42</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.51</v>
+        <v>-0.79</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9280242322790517</v>
+        <v>0.9778192151108994</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="B58" t="n">
-        <v>168.37</v>
+        <v>158.37</v>
       </c>
       <c r="C58" t="n">
-        <v>-5.44</v>
+        <v>108.18</v>
       </c>
       <c r="D58" t="n">
-        <v>-2.47</v>
+        <v>2.87</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9874420928700056</v>
+        <v>0.9999999998603499</v>
       </c>
     </row>
     <row r="59">
@@ -1422,33 +1422,33 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>247.85</v>
+        <v>1647.76</v>
       </c>
       <c r="C59" t="n">
-        <v>-6.94</v>
+        <v>7.3</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.41</v>
+        <v>-6.8</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9673073720678058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B60" t="n">
-        <v>249.59</v>
+        <v>163.67</v>
       </c>
       <c r="C60" t="n">
-        <v>-10.06</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.14</v>
+        <v>1.2</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9231715938254698</v>
+        <v>0.5720499657381363</v>
       </c>
     </row>
     <row r="61">
@@ -1456,33 +1456,33 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>70.06</v>
+        <v>120.58</v>
       </c>
       <c r="C61" t="n">
-        <v>5.67</v>
+        <v>11.94</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01</v>
+        <v>4.42</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8905253211063733</v>
+        <v>0.6287897036106981</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>105.07</v>
+        <v>271.78</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.48</v>
+        <v>-9.52</v>
       </c>
       <c r="D62" t="n">
-        <v>0.54</v>
+        <v>-3.94</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7278576114136902</v>
+        <v>0.991579652376131</v>
       </c>
     </row>
     <row r="63">
@@ -1490,33 +1490,33 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>6580.26</v>
+        <v>287.76</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.25</v>
+        <v>7.21</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06</v>
+        <v>1.89</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0.7204428463251465</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="B64" t="n">
-        <v>183.4</v>
+        <v>221.52</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.33</v>
+        <v>-0.5</v>
       </c>
       <c r="D64" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8339392213957919</v>
+        <v>0.5902591013139468</v>
       </c>
     </row>
     <row r="65">
@@ -1524,33 +1524,33 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>1789.9</v>
+        <v>281.56</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.69</v>
+        <v>-3.79</v>
       </c>
       <c r="D65" t="n">
-        <v>1.32</v>
+        <v>-0.38</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9999996184553535</v>
+        <v>0.8976342497888157</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.71</v>
+        <v>0.29</v>
       </c>
       <c r="B66" t="n">
-        <v>199.16</v>
+        <v>316.57</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.029999999999999</v>
+        <v>-6.39</v>
       </c>
       <c r="D66" t="n">
-        <v>0.77</v>
+        <v>2.42</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7541095957124831</v>
+        <v>0.7742417463069198</v>
       </c>
     </row>
     <row r="67">
@@ -1558,50 +1558,50 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>167.84</v>
+        <v>58.7</v>
       </c>
       <c r="C67" t="n">
-        <v>-3.54</v>
+        <v>-1.57</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3</v>
+        <v>-12.65</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8830372261222035</v>
+        <v>0.9999992896513331</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>109.9</v>
+        <v>160.12</v>
       </c>
       <c r="C68" t="n">
-        <v>30.68</v>
+        <v>2.35</v>
       </c>
       <c r="D68" t="n">
-        <v>1.87</v>
+        <v>4.97</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5011510770532189</v>
+        <v>0.6016320057830202</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>429.07</v>
+        <v>222.65</v>
       </c>
       <c r="C69" t="n">
-        <v>4.44</v>
+        <v>-1.21</v>
       </c>
       <c r="D69" t="n">
-        <v>1.58</v>
+        <v>-3.18</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5205975728624529</v>
+        <v>0.973448410822806</v>
       </c>
     </row>
     <row r="70">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>112.47</v>
+        <v>60.51</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.03</v>
+        <v>8.57</v>
       </c>
       <c r="D70" t="n">
-        <v>1.46</v>
+        <v>7.75</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8142455009481155</v>
+        <v>0.6989865927782009</v>
       </c>
     </row>
     <row r="71">
@@ -1626,67 +1626,67 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>36.15</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.63</v>
+        <v>10.53</v>
       </c>
       <c r="D71" t="n">
-        <v>-2.95</v>
+        <v>0.38</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9961606460883873</v>
+        <v>0.849786344397224</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="B72" t="n">
-        <v>649.91</v>
+        <v>269.57</v>
       </c>
       <c r="C72" t="n">
-        <v>-8.66</v>
+        <v>142.77</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.35</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9728747387284802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>216.39</v>
+        <v>228.4</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.05</v>
+        <v>-6.14</v>
       </c>
       <c r="D73" t="n">
-        <v>1.46</v>
+        <v>3.05</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6364754843431449</v>
+        <v>0.7406381009043348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.95</v>
+        <v>0.16</v>
       </c>
       <c r="B74" t="n">
-        <v>203.16</v>
+        <v>94.42</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.62</v>
+        <v>0.43</v>
       </c>
       <c r="D74" t="n">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5368071765031445</v>
+        <v>0.7905788390330971</v>
       </c>
     </row>
     <row r="75">
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>221.96</v>
+        <v>199.18</v>
       </c>
       <c r="C75" t="n">
-        <v>3.29</v>
+        <v>11.04</v>
       </c>
       <c r="D75" t="n">
-        <v>1.76</v>
+        <v>-1.25</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7642203848558433</v>
+        <v>0.9010785588520221</v>
       </c>
     </row>
     <row r="76">
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>453.24</v>
+        <v>168.7</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.94</v>
+        <v>-6.85</v>
       </c>
       <c r="D76" t="n">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8551202744780134</v>
+        <v>0.8123103885771635</v>
       </c>
     </row>
     <row r="77">
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>169.08</v>
+        <v>100.7</v>
       </c>
       <c r="C77" t="n">
-        <v>-4.56</v>
+        <v>-15.32</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.54</v>
+        <v>-0.23</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9307079931120718</v>
+        <v>0.963559881592236</v>
       </c>
     </row>
     <row r="78">
@@ -1745,33 +1745,33 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>53.01</v>
+        <v>148.92</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.17</v>
+        <v>1.88</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.61</v>
+        <v>-0.08</v>
       </c>
       <c r="E78" t="n">
-        <v>0.997048696282601</v>
+        <v>0.8551681067587772</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="B79" t="n">
-        <v>148.94</v>
+        <v>134.26</v>
       </c>
       <c r="C79" t="n">
-        <v>4.78</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.8100000000000001</v>
+        <v>3.08</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8135316601105914</v>
+        <v>0.5520453884838464</v>
       </c>
     </row>
     <row r="80">
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>208.85</v>
+        <v>866.71</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.71</v>
+        <v>-1.93</v>
       </c>
       <c r="D80" t="n">
-        <v>2.27</v>
+        <v>-2.32</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8121835483457839</v>
+        <v>0.9999858102040637</v>
       </c>
     </row>
     <row r="81">
@@ -1796,67 +1796,67 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>22.23</v>
+        <v>153.06</v>
       </c>
       <c r="C81" t="n">
-        <v>9.81</v>
+        <v>23.21</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05</v>
+        <v>1.81</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8989927022441936</v>
+        <v>0.8183483399671828</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B82" t="n">
-        <v>457.87</v>
+        <v>1202.63</v>
       </c>
       <c r="C82" t="n">
-        <v>116.94</v>
+        <v>-2.22</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.04</v>
+        <v>1.49</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9999999999999858</v>
+        <v>0.9999999938581805</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="B83" t="n">
-        <v>254.41</v>
+        <v>2670.31</v>
       </c>
       <c r="C83" t="n">
-        <v>-8.67</v>
+        <v>-2.87</v>
       </c>
       <c r="D83" t="n">
-        <v>0.31</v>
+        <v>-0.68</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9077855525315385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="B84" t="n">
-        <v>126.14</v>
+        <v>195.18</v>
       </c>
       <c r="C84" t="n">
-        <v>45.6</v>
+        <v>69</v>
       </c>
       <c r="D84" t="n">
-        <v>19.79</v>
+        <v>4.53</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9999999999999645</v>
+        <v>0.9997702022021614</v>
       </c>
     </row>
     <row r="85">
@@ -1864,33 +1864,33 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>363.7</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>-9.460000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="D85" t="n">
-        <v>-25.01</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0.7634177598789114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>359.43</v>
+        <v>235.01</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.73</v>
+        <v>-2.95</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.12</v>
+        <v>1.79</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6574742009402411</v>
+        <v>0.7660462146122717</v>
       </c>
     </row>
     <row r="87">
@@ -1898,50 +1898,50 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>109.5</v>
+        <v>444.62</v>
       </c>
       <c r="C87" t="n">
-        <v>67.15000000000001</v>
+        <v>2.77</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.24</v>
+        <v>0.42</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9999996047660549</v>
+        <v>0.9206510905111419</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>197.07</v>
+        <v>173.78</v>
       </c>
       <c r="C88" t="n">
-        <v>75.45</v>
+        <v>2.69</v>
       </c>
       <c r="D88" t="n">
-        <v>2.94</v>
+        <v>-0.65</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9999841155355068</v>
+        <v>0.8780923218610004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="B89" t="n">
-        <v>238.57</v>
+        <v>116.22</v>
       </c>
       <c r="C89" t="n">
-        <v>2.51</v>
+        <v>3.61</v>
       </c>
       <c r="D89" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7462242050542642</v>
+        <v>0.6766051438343745</v>
       </c>
     </row>
     <row r="90">
@@ -1949,33 +1949,33 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>130.74</v>
+        <v>521.8099999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>-3.73</v>
+        <v>-4.98</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.05</v>
+        <v>-3.07</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9067472611010567</v>
+        <v>0.9960387960545302</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>247.01</v>
+        <v>81.11</v>
       </c>
       <c r="C91" t="n">
-        <v>-6.48</v>
+        <v>-8.83</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58</v>
+        <v>-4.71</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6928880975518178</v>
+        <v>0.9963046885201167</v>
       </c>
     </row>
     <row r="92">
@@ -1983,84 +1983,84 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>32.41</v>
+        <v>232.86</v>
       </c>
       <c r="C92" t="n">
-        <v>5.8</v>
+        <v>-51.2</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.78</v>
+        <v>-10.46</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9370650691321802</v>
+        <v>0.9999999955168235</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="B93" t="n">
-        <v>118.69</v>
+        <v>207.72</v>
       </c>
       <c r="C93" t="n">
-        <v>17.2</v>
+        <v>64.69</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23</v>
+        <v>5.95</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8929350617501874</v>
+        <v>0.9993765664452162</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>106.58</v>
+        <v>124.03</v>
       </c>
       <c r="C94" t="n">
-        <v>0.19</v>
+        <v>-6.07</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19</v>
+        <v>-3.06</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6092770056711749</v>
+        <v>0.9812798866928844</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="B95" t="n">
-        <v>231.3</v>
+        <v>232.82</v>
       </c>
       <c r="C95" t="n">
-        <v>-15.88</v>
+        <v>-1.79</v>
       </c>
       <c r="D95" t="n">
-        <v>0.04</v>
+        <v>0.91</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9560848743758255</v>
+        <v>0.7742070775248893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="B96" t="n">
-        <v>1104.38</v>
+        <v>686.16</v>
       </c>
       <c r="C96" t="n">
-        <v>11.04</v>
+        <v>0.89</v>
       </c>
       <c r="D96" t="n">
-        <v>1.17</v>
+        <v>2.06</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9956868285890624</v>
+        <v>0.975805990269438</v>
       </c>
     </row>
     <row r="97">
@@ -2068,84 +2068,84 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>134.82</v>
+        <v>168.16</v>
       </c>
       <c r="C97" t="n">
-        <v>-29.74</v>
+        <v>-6.21</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.95</v>
+        <v>-5.04</v>
       </c>
       <c r="E97" t="n">
-        <v>0.999969672813089</v>
+        <v>0.9953514923804758</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="B98" t="n">
-        <v>121.56</v>
+        <v>541.99</v>
       </c>
       <c r="C98" t="n">
-        <v>-3.48</v>
+        <v>10.05</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>3.29</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8718139212016069</v>
+        <v>0.8664086771675994</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>271.89</v>
+        <v>345.15</v>
       </c>
       <c r="C99" t="n">
-        <v>163.34</v>
+        <v>-1.12</v>
       </c>
       <c r="D99" t="n">
-        <v>5.15</v>
+        <v>3.21</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0.7393493411499928</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="B100" t="n">
-        <v>3390.59</v>
+        <v>125.27</v>
       </c>
       <c r="C100" t="n">
-        <v>1.3</v>
+        <v>-14.66</v>
       </c>
       <c r="D100" t="n">
-        <v>1.61</v>
+        <v>-0.27</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0.9243814963011044</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>185.93</v>
+        <v>112.45</v>
       </c>
       <c r="C101" t="n">
-        <v>1.98</v>
+        <v>-25.08</v>
       </c>
       <c r="D101" t="n">
-        <v>0.19</v>
+        <v>-6.36</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7583225301649206</v>
+        <v>0.9998666899301257</v>
       </c>
     </row>
     <row r="102">
@@ -2153,16 +2153,16 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>69.11</v>
+        <v>261.16</v>
       </c>
       <c r="C102" t="n">
-        <v>-10.6</v>
+        <v>-4.79</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.86</v>
+        <v>-3.99</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9858443717230243</v>
+        <v>0.9882046846134543</v>
       </c>
     </row>
     <row r="103">
@@ -2170,33 +2170,33 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>281</v>
+        <v>1320.03</v>
       </c>
       <c r="C103" t="n">
-        <v>9.81</v>
+        <v>1.48</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8060010677323114</v>
+        <v>0.9999999999723208</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.08</v>
+        <v>0.43</v>
       </c>
       <c r="B104" t="n">
-        <v>831.22</v>
+        <v>141.55</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03</v>
+        <v>32.5</v>
       </c>
       <c r="D104" t="n">
-        <v>1.35</v>
+        <v>4.16</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8109207957334414</v>
+        <v>0.8312303700270202</v>
       </c>
     </row>
     <row r="105">
@@ -2204,84 +2204,84 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>101.06</v>
+        <v>2965.57</v>
       </c>
       <c r="C105" t="n">
-        <v>-3.08</v>
+        <v>-1.77</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.09</v>
+        <v>0.16</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9098919740247989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="B106" t="n">
-        <v>405.29</v>
+        <v>177.64</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.44</v>
+        <v>15.96</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16</v>
+        <v>3.02</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8748215020085867</v>
+        <v>0.6663556172735033</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="B107" t="n">
-        <v>180.37</v>
+        <v>217.95</v>
       </c>
       <c r="C107" t="n">
-        <v>3.63</v>
+        <v>-1.44</v>
       </c>
       <c r="D107" t="n">
-        <v>0.59</v>
+        <v>1.39</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8370012728206411</v>
+        <v>0.5793330649063542</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>982.48</v>
+        <v>1380.97</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.89</v>
+        <v>-5.84</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08</v>
+        <v>-2.93</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9735696902152144</v>
+        <v>0.9999999999998641</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="B109" t="n">
-        <v>500.28</v>
+        <v>190.05</v>
       </c>
       <c r="C109" t="n">
-        <v>-25.12</v>
+        <v>-4.71</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.64</v>
+        <v>0.26</v>
       </c>
       <c r="E109" t="n">
-        <v>0.997185888319818</v>
+        <v>0.7874760705168061</v>
       </c>
     </row>
     <row r="110">
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>933.4400000000001</v>
+        <v>220.61</v>
       </c>
       <c r="C110" t="n">
-        <v>3.02</v>
+        <v>16.44</v>
       </c>
       <c r="D110" t="n">
-        <v>1.22</v>
+        <v>-1.37</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9811416096961145</v>
+        <v>0.9184222295319894</v>
       </c>
     </row>
     <row r="111">
@@ -2306,16 +2306,16 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>163.14</v>
+        <v>150.22</v>
       </c>
       <c r="C111" t="n">
-        <v>13.88</v>
+        <v>-10.4</v>
       </c>
       <c r="D111" t="n">
-        <v>0.78</v>
+        <v>-3.24</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8394659777175669</v>
+        <v>0.9873424255401376</v>
       </c>
     </row>
     <row r="112">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>193.37</v>
+        <v>114.01</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9</v>
+        <v>7.84</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.61</v>
+        <v>-1.35</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9176303572417578</v>
+        <v>0.9194062775126217</v>
       </c>
     </row>
     <row r="113">
@@ -2340,67 +2340,67 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>79.81999999999999</v>
+        <v>168.98</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.54</v>
+        <v>8.19</v>
       </c>
       <c r="D113" t="n">
-        <v>-4.98</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.99958691366263</v>
+        <v>0.8363753587807835</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>289.39</v>
+        <v>206.48</v>
       </c>
       <c r="C114" t="n">
-        <v>13.65</v>
+        <v>-9.98</v>
       </c>
       <c r="D114" t="n">
-        <v>1.93</v>
+        <v>0.31</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6108662796578305</v>
+        <v>0.903368220418465</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="B115" t="n">
-        <v>164.19</v>
+        <v>132.62</v>
       </c>
       <c r="C115" t="n">
-        <v>2.45</v>
+        <v>30.28</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.75</v>
+        <v>-0.85</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9658006526495583</v>
+        <v>0.8618996904888604</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="B116" t="n">
-        <v>224.78</v>
+        <v>151.02</v>
       </c>
       <c r="C116" t="n">
-        <v>4.71</v>
+        <v>84.84</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7888210334840587</v>
+        <v>0.9999995444742183</v>
       </c>
     </row>
     <row r="117">
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>7932.71</v>
+        <v>131.35</v>
       </c>
       <c r="C117" t="n">
-        <v>25.93</v>
+        <v>25.37</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.41</v>
+        <v>0.11</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0.9152306734237144</v>
       </c>
     </row>
     <row r="118">
@@ -2425,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>281.54</v>
+        <v>15.63</v>
       </c>
       <c r="C118" t="n">
-        <v>1.88</v>
+        <v>9.07</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9</v>
+        <v>-0.06</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8184339990265503</v>
+        <v>0.9128223446443987</v>
       </c>
     </row>
     <row r="119">
@@ -2442,67 +2442,67 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>131.27</v>
+        <v>180.66</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.82</v>
+        <v>-23.71</v>
       </c>
       <c r="D119" t="n">
-        <v>0.93</v>
+        <v>-6.88</v>
       </c>
       <c r="E119" t="n">
-        <v>0.842933827624547</v>
+        <v>0.9998795874454566</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.98</v>
+        <v>1.27</v>
       </c>
       <c r="B120" t="n">
-        <v>387.54</v>
+        <v>214.37</v>
       </c>
       <c r="C120" t="n">
-        <v>23.01</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>1.88</v>
+        <v>-1.3</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5739604159044174</v>
+        <v>0.5209709950498004</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>81.06</v>
+        <v>575.23</v>
       </c>
       <c r="C121" t="n">
-        <v>11.32</v>
+        <v>5.21</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.03</v>
+        <v>2.99</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6631811456948106</v>
+        <v>0.9547607163143542</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="B122" t="n">
-        <v>129.71</v>
+        <v>232.43</v>
       </c>
       <c r="C122" t="n">
-        <v>-2.04</v>
+        <v>13.95</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.04</v>
+        <v>10.9</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8996948220742432</v>
+        <v>0.5869809904775272</v>
       </c>
     </row>
     <row r="123">
@@ -2510,33 +2510,33 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>445.1</v>
+        <v>866.16</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.89</v>
+        <v>5.58</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.41</v>
+        <v>1.13</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9657186034642343</v>
+        <v>0.9998989235079268</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="B124" t="n">
-        <v>19.71</v>
+        <v>353.67</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.11</v>
+        <v>-0.37</v>
       </c>
       <c r="D124" t="n">
-        <v>0.45</v>
+        <v>1.46</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7147344075990607</v>
+        <v>0.6533694076377438</v>
       </c>
     </row>
     <row r="125">
@@ -2544,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>116.52</v>
+        <v>47.22</v>
       </c>
       <c r="C125" t="n">
-        <v>-20.17</v>
+        <v>-0.19</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="E125" t="n">
-        <v>0.985876957803091</v>
+        <v>0.9181208591123534</v>
       </c>
     </row>
     <row r="126">
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>127.39</v>
+        <v>148.83</v>
       </c>
       <c r="C126" t="n">
-        <v>33.38</v>
+        <v>57.37</v>
       </c>
       <c r="D126" t="n">
-        <v>-9.75</v>
+        <v>19.22</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9999999914942048</v>
+        <v>0.9999982521009779</v>
       </c>
     </row>
     <row r="127">
@@ -2578,50 +2578,50 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>120.81</v>
+        <v>449.95</v>
       </c>
       <c r="C127" t="n">
-        <v>50.04</v>
+        <v>-17.39</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35</v>
+        <v>-1.28</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9966658244991813</v>
+        <v>0.9923219790363678</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>258.29</v>
+        <v>127.16</v>
       </c>
       <c r="C128" t="n">
-        <v>-4.17</v>
+        <v>38.97</v>
       </c>
       <c r="D128" t="n">
-        <v>0.37</v>
+        <v>36.34</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8412149510726266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="B129" t="n">
-        <v>73.25</v>
+        <v>258.69</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.25</v>
+        <v>38.91</v>
       </c>
       <c r="D129" t="n">
-        <v>0.29</v>
+        <v>6.05</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8999987417202618</v>
+        <v>0.8740172640108407</v>
       </c>
     </row>
     <row r="130">
@@ -2629,33 +2629,33 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>225.2</v>
+        <v>159.52</v>
       </c>
       <c r="C130" t="n">
-        <v>3.79</v>
+        <v>50.58</v>
       </c>
       <c r="D130" t="n">
-        <v>0.39</v>
+        <v>1.39</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8471867163168245</v>
+        <v>0.9960215237516519</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="B131" t="n">
-        <v>144.27</v>
+        <v>244.59</v>
       </c>
       <c r="C131" t="n">
-        <v>17.7</v>
+        <v>-2.85</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.23</v>
+        <v>0.92</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9160492145898474</v>
+        <v>0.775990632974739</v>
       </c>
     </row>
     <row r="132">
@@ -2663,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>145.14</v>
+        <v>89</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.09</v>
+        <v>-6.08</v>
       </c>
       <c r="D132" t="n">
-        <v>0.63</v>
+        <v>12.71</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8759957469859317</v>
+        <v>0.9466479012536646</v>
       </c>
     </row>
     <row r="133">
@@ -2680,67 +2680,67 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>31.75</v>
+        <v>33.59</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.74</v>
+        <v>-16.75</v>
       </c>
       <c r="D133" t="n">
-        <v>0.26</v>
+        <v>-3.02</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9249489750541174</v>
+        <v>0.9956573389240031</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>128.72</v>
+        <v>66.81</v>
       </c>
       <c r="C134" t="n">
-        <v>-19.37</v>
+        <v>12.17</v>
       </c>
       <c r="D134" t="n">
-        <v>0.97</v>
+        <v>-0.6</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6322251346769342</v>
+        <v>0.9092370571377321</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>832.64</v>
+        <v>207.31</v>
       </c>
       <c r="C135" t="n">
-        <v>2.63</v>
+        <v>0.91</v>
       </c>
       <c r="D135" t="n">
-        <v>0.85</v>
+        <v>-0.37</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6730206227721259</v>
+        <v>0.8654384783950436</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>123.12</v>
+        <v>116.52</v>
       </c>
       <c r="C136" t="n">
-        <v>-8.380000000000001</v>
+        <v>2.79</v>
       </c>
       <c r="D136" t="n">
-        <v>0.83</v>
+        <v>1.37</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5798646267056234</v>
+        <v>0.7806974976034086</v>
       </c>
     </row>
     <row r="137">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>154.61</v>
+        <v>78.73</v>
       </c>
       <c r="C137" t="n">
-        <v>50.99</v>
+        <v>-7.71</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.27</v>
+        <v>2.17</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9987221445146059</v>
+        <v>0.8504175854874826</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B138" t="n">
-        <v>85.33</v>
+        <v>131.95</v>
       </c>
       <c r="C138" t="n">
-        <v>9.44</v>
+        <v>52.6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8750324395215898</v>
+        <v>0.9917561420729443</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="B139" t="n">
-        <v>114.47</v>
+        <v>945.62</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.6899999999999999</v>
+        <v>10.98</v>
       </c>
       <c r="D139" t="n">
-        <v>-2.36</v>
+        <v>6.35</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9836122624465844</v>
+        <v>0.9999603611939234</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>333.2</v>
+        <v>10424.13</v>
       </c>
       <c r="C140" t="n">
-        <v>24.64</v>
+        <v>25.5</v>
       </c>
       <c r="D140" t="n">
-        <v>2.31</v>
+        <v>-7.49</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6697740655147815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2816,135 +2816,135 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>272.83</v>
+        <v>212.4</v>
       </c>
       <c r="C141" t="n">
-        <v>-15.04</v>
+        <v>0.79</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53</v>
+        <v>-0.4</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9105033965598825</v>
+        <v>0.8674870636339792</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B142" t="n">
-        <v>1278.17</v>
+        <v>662.0599999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.26</v>
+        <v>1.16</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.66</v>
+        <v>2.59</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9999264593079582</v>
+        <v>0.9032356020134249</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="B143" t="n">
-        <v>146.01</v>
+        <v>1933.67</v>
       </c>
       <c r="C143" t="n">
-        <v>-4.97</v>
+        <v>-0.01</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.04</v>
+        <v>0.86</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9534694439277022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>99.59</v>
+        <v>214.14</v>
       </c>
       <c r="C144" t="n">
-        <v>43.4</v>
+        <v>-13.96</v>
       </c>
       <c r="D144" t="n">
-        <v>4.1</v>
+        <v>0.95</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6354589095280381</v>
+        <v>0.914657008659379</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7</v>
+        <v>1.01</v>
       </c>
       <c r="B145" t="n">
-        <v>1033.44</v>
+        <v>133.09</v>
       </c>
       <c r="C145" t="n">
-        <v>-14.52</v>
+        <v>15.26</v>
       </c>
       <c r="D145" t="n">
-        <v>-2.73</v>
+        <v>15.84</v>
       </c>
       <c r="E145" t="n">
-        <v>0.999612862547236</v>
+        <v>0.9509208437814384</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="B146" t="n">
-        <v>287.77</v>
+        <v>434.83</v>
       </c>
       <c r="C146" t="n">
-        <v>-10.71</v>
+        <v>47.7</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.15</v>
+        <v>4.67</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9874670922737747</v>
+        <v>0.9796228675826109</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="B147" t="n">
-        <v>126.04</v>
+        <v>189.43</v>
       </c>
       <c r="C147" t="n">
-        <v>-4.06</v>
+        <v>-3.33</v>
       </c>
       <c r="D147" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8541359135664818</v>
+        <v>0.5671567506647007</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="B148" t="n">
-        <v>252.87</v>
+        <v>263.77</v>
       </c>
       <c r="C148" t="n">
-        <v>1.48</v>
+        <v>-4.72</v>
       </c>
       <c r="D148" t="n">
-        <v>1.31</v>
+        <v>2.74</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7939078748481788</v>
+        <v>0.5431896053623488</v>
       </c>
     </row>
     <row r="149">
@@ -2952,50 +2952,50 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>106.97</v>
+        <v>131.3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.71</v>
+        <v>17.62</v>
       </c>
       <c r="D149" t="n">
-        <v>0.83</v>
+        <v>1.35</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8419035735609357</v>
+        <v>0.7985842798143949</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="B150" t="n">
-        <v>229.48</v>
+        <v>128.91</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.31</v>
+        <v>-13.69</v>
       </c>
       <c r="D150" t="n">
-        <v>0.71</v>
+        <v>2.8</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6625562881691243</v>
+        <v>0.5490497759472297</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>219.77</v>
+        <v>242.66</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.529999999999999</v>
+        <v>-11.58</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.29</v>
+        <v>-1.93</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8642493359307928</v>
+        <v>0.9720480558668284</v>
       </c>
     </row>
     <row r="152">
@@ -3003,33 +3003,33 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>406.12</v>
+        <v>1353.51</v>
       </c>
       <c r="C152" t="n">
-        <v>-3.64</v>
+        <v>1.16</v>
       </c>
       <c r="D152" t="n">
-        <v>2.08</v>
+        <v>-8.83</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8111746845782384</v>
+        <v>0.9999999999999973</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="B153" t="n">
-        <v>175.59</v>
+        <v>233.91</v>
       </c>
       <c r="C153" t="n">
-        <v>1.37</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.34</v>
+        <v>2.61</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9519865683722407</v>
+        <v>0.7778968693010064</v>
       </c>
     </row>
     <row r="154">
@@ -3037,33 +3037,33 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>122.38</v>
+        <v>166.77</v>
       </c>
       <c r="C154" t="n">
-        <v>-3.74</v>
+        <v>-2.4</v>
       </c>
       <c r="D154" t="n">
-        <v>0.84</v>
+        <v>-0.75</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8601725619024105</v>
+        <v>0.9036163357079069</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>445.31</v>
+        <v>145.57</v>
       </c>
       <c r="C155" t="n">
-        <v>40.59</v>
+        <v>0.15</v>
       </c>
       <c r="D155" t="n">
-        <v>2.32</v>
+        <v>-0.18</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9155048301475448</v>
+        <v>0.8689176303069126</v>
       </c>
     </row>
     <row r="156">
@@ -3071,84 +3071,84 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>168.38</v>
+        <v>275.5</v>
       </c>
       <c r="C156" t="n">
-        <v>7.9</v>
+        <v>-8.84</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.24</v>
+        <v>1.69</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8907506958902597</v>
+        <v>0.8439874710995739</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="B157" t="n">
-        <v>260.59</v>
+        <v>151.61</v>
       </c>
       <c r="C157" t="n">
-        <v>-9.970000000000001</v>
+        <v>46.94</v>
       </c>
       <c r="D157" t="n">
-        <v>-2.47</v>
+        <v>5.01</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9903811804081322</v>
+        <v>0.9405963762084234</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="B158" t="n">
-        <v>154.31</v>
+        <v>203.13</v>
       </c>
       <c r="C158" t="n">
-        <v>-16.83</v>
+        <v>8.58</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.63</v>
+        <v>0.48</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9889181763693917</v>
+        <v>0.785343881232145</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B159" t="n">
-        <v>251.28</v>
+        <v>152.41</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.04</v>
+        <v>10.58</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.15</v>
+        <v>1.76</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9815177421585733</v>
+        <v>0.6559384271376331</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="B160" t="n">
-        <v>137.39</v>
+        <v>305.02</v>
       </c>
       <c r="C160" t="n">
-        <v>11.68</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.34</v>
+        <v>1.17</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9046401011041462</v>
+        <v>0.6552174740906771</v>
       </c>
     </row>
     <row r="161">
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>122.16</v>
+        <v>126.36</v>
       </c>
       <c r="C161" t="n">
-        <v>11.72</v>
+        <v>10.53</v>
       </c>
       <c r="D161" t="n">
-        <v>3.13</v>
+        <v>0.91</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7506175472072681</v>
+        <v>0.7933581456863504</v>
       </c>
     </row>
     <row r="162">
@@ -3173,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>132.09</v>
+        <v>75.92</v>
       </c>
       <c r="C162" t="n">
-        <v>3.39</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.68</v>
       </c>
       <c r="E162" t="n">
-        <v>0.8460959133417916</v>
+        <v>0.9534694505694545</v>
       </c>
     </row>
     <row r="163">
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>127.98</v>
+        <v>120.45</v>
       </c>
       <c r="C163" t="n">
-        <v>79.06</v>
+        <v>17.79</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.58</v>
+        <v>1.26</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9999999167479351</v>
+        <v>0.8106212420471404</v>
       </c>
     </row>
     <row r="164">
@@ -3207,33 +3207,33 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>67.73</v>
+        <v>1274.82</v>
       </c>
       <c r="C164" t="n">
-        <v>1.86</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.23</v>
+        <v>0.38</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9082232426420156</v>
+        <v>0.9999999998956275</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="B165" t="n">
-        <v>698.9400000000001</v>
+        <v>460.47</v>
       </c>
       <c r="C165" t="n">
-        <v>-16.04</v>
+        <v>89.84</v>
       </c>
       <c r="D165" t="n">
-        <v>-3.99</v>
+        <v>10.76</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9997171312233136</v>
+        <v>0.9999999822764388</v>
       </c>
     </row>
     <row r="166">
@@ -3241,33 +3241,33 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>59.91</v>
+        <v>250.76</v>
       </c>
       <c r="C166" t="n">
-        <v>-7.56</v>
+        <v>-4</v>
       </c>
       <c r="D166" t="n">
-        <v>0.98</v>
+        <v>-2.01</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8896208458634101</v>
+        <v>0.9530269209590707</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>247.31</v>
+        <v>46.66</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.66</v>
+        <v>-4.42</v>
       </c>
       <c r="D167" t="n">
-        <v>2.47</v>
+        <v>-6.76</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7881386282381595</v>
+        <v>0.9993308033562811</v>
       </c>
     </row>
     <row r="168">
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>102.06</v>
+        <v>142.34</v>
       </c>
       <c r="C168" t="n">
-        <v>3.43</v>
+        <v>23.09</v>
       </c>
       <c r="D168" t="n">
-        <v>4.08</v>
+        <v>-0.89</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7655137141649523</v>
+        <v>0.9337751752751741</v>
       </c>
     </row>
     <row r="169">
@@ -3292,50 +3292,50 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>144.14</v>
+        <v>339.97</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.29</v>
+        <v>-15.41</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.55</v>
+        <v>-3.48</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9386837339356605</v>
+        <v>0.9948567956564774</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="B170" t="n">
-        <v>901.4299999999999</v>
+        <v>153.54</v>
       </c>
       <c r="C170" t="n">
-        <v>-2.46</v>
+        <v>0.1</v>
       </c>
       <c r="D170" t="n">
-        <v>-3.34</v>
+        <v>2.93</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9994754246598</v>
+        <v>0.5104588335954816</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>302.32</v>
+        <v>69.98</v>
       </c>
       <c r="C171" t="n">
-        <v>25.49</v>
+        <v>-0.28</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.96</v>
+        <v>-0.91</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7359993829188953</v>
+        <v>0.9295013243485049</v>
       </c>
     </row>
     <row r="172">
@@ -3343,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>190.21</v>
+        <v>126.35</v>
       </c>
       <c r="C172" t="n">
-        <v>1.89</v>
+        <v>3.64</v>
       </c>
       <c r="D172" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7713178060945636</v>
+        <v>0.6599608950828867</v>
       </c>
     </row>
     <row r="173">
@@ -3360,33 +3360,33 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>458.93</v>
+        <v>243.74</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.35</v>
+        <v>1.85</v>
       </c>
       <c r="D173" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8860522427097497</v>
+        <v>0.8032891602202492</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="B174" t="n">
-        <v>255.01</v>
+        <v>211.83</v>
       </c>
       <c r="C174" t="n">
-        <v>-8.380000000000001</v>
+        <v>49.67</v>
       </c>
       <c r="D174" t="n">
-        <v>0.46</v>
+        <v>9.91</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6463120421784593</v>
+        <v>0.9895638688665586</v>
       </c>
     </row>
     <row r="175">
@@ -3394,16 +3394,16 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>82.75</v>
+        <v>313.69</v>
       </c>
       <c r="C175" t="n">
-        <v>6.08</v>
+        <v>-3.18</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.78</v>
+        <v>1.18</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9689272962487553</v>
+        <v>0.8294208344192531</v>
       </c>
     </row>
     <row r="176">
@@ -3411,16 +3411,16 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>765.61</v>
+        <v>60.15</v>
       </c>
       <c r="C176" t="n">
-        <v>-14.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9860271740078969</v>
+        <v>0.8823460608093504</v>
       </c>
     </row>
     <row r="177">
@@ -3428,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>342.25</v>
+        <v>789.71</v>
       </c>
       <c r="C177" t="n">
-        <v>-9.279999999999999</v>
+        <v>-17.95</v>
       </c>
       <c r="D177" t="n">
-        <v>-2.14</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9864159217828102</v>
+        <v>0.9999998926658979</v>
       </c>
     </row>
     <row r="178">
@@ -3445,33 +3445,33 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>9.69</v>
+        <v>118.92</v>
       </c>
       <c r="C178" t="n">
-        <v>-20.86</v>
+        <v>-11.82</v>
       </c>
       <c r="D178" t="n">
-        <v>-3</v>
+        <v>-1.36</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9987342675796154</v>
+        <v>0.9678725720048028</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>258.82</v>
+        <v>124.92</v>
       </c>
       <c r="C179" t="n">
-        <v>-13.15</v>
+        <v>-10.07</v>
       </c>
       <c r="D179" t="n">
-        <v>1.74</v>
+        <v>0.29</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8124135524100393</v>
+        <v>0.9172885154020777</v>
       </c>
     </row>
     <row r="180">
@@ -3479,16 +3479,16 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>248.5</v>
+        <v>158.95</v>
       </c>
       <c r="C180" t="n">
-        <v>-14.17</v>
+        <v>6.23</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.17</v>
+        <v>-1.96</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9773763949586373</v>
+        <v>0.9347040416354554</v>
       </c>
     </row>
     <row r="181">
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>64.73</v>
+        <v>263.94</v>
       </c>
       <c r="C181" t="n">
-        <v>-13.43</v>
+        <v>-5.31</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6</v>
+        <v>-5.33</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9381932531360101</v>
+        <v>0.9961463609947517</v>
       </c>
     </row>
     <row r="182">
@@ -3513,16 +3513,16 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>155.25</v>
+        <v>16.6</v>
       </c>
       <c r="C182" t="n">
-        <v>-7.05</v>
+        <v>11.07</v>
       </c>
       <c r="D182" t="n">
-        <v>1.95</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8305953051661675</v>
+        <v>0.8722115052759143</v>
       </c>
     </row>
     <row r="183">
@@ -3530,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>1290.78</v>
+        <v>541.6</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4</v>
+        <v>-6.47</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.32</v>
+        <v>0.52</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9997355833157688</v>
+        <v>0.9800480756678125</v>
       </c>
     </row>
     <row r="184">
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>467.82</v>
+        <v>326.96</v>
       </c>
       <c r="C184" t="n">
-        <v>-6.74</v>
+        <v>-5.17</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02</v>
+        <v>-0.51</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9301310453818904</v>
+        <v>0.9223463056187282</v>
       </c>
     </row>
     <row r="185">
@@ -3564,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>204.12</v>
+        <v>231.44</v>
       </c>
       <c r="C185" t="n">
-        <v>7.79</v>
+        <v>-15.17</v>
       </c>
       <c r="D185" t="n">
-        <v>2.23</v>
+        <v>-3.69</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7412146374510652</v>
+        <v>0.9939296880468882</v>
       </c>
     </row>
     <row r="186">
@@ -3581,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>147.7</v>
+        <v>144.42</v>
       </c>
       <c r="C186" t="n">
-        <v>-16.85</v>
+        <v>-2.29</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.47</v>
+        <v>-1.9</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9873437801324439</v>
+        <v>0.9488292188833372</v>
       </c>
     </row>
     <row r="187">
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>139.48</v>
+        <v>118.54</v>
       </c>
       <c r="C187" t="n">
-        <v>3.11</v>
+        <v>-2.43</v>
       </c>
       <c r="D187" t="n">
-        <v>1.32</v>
+        <v>-1.36</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7986022671044873</v>
+        <v>0.9369252313312856</v>
       </c>
     </row>
     <row r="188">
@@ -3615,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>1078.55</v>
+        <v>618.96</v>
       </c>
       <c r="C188" t="n">
-        <v>-4.02</v>
+        <v>-6.64</v>
       </c>
       <c r="D188" t="n">
-        <v>0.88</v>
+        <v>1.67</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9961195049366961</v>
+        <v>0.9896755654641537</v>
       </c>
     </row>
     <row r="189">
@@ -3632,50 +3632,50 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>7137.3</v>
+        <v>111.91</v>
       </c>
       <c r="C189" t="n">
-        <v>0.57</v>
+        <v>-4.24</v>
       </c>
       <c r="D189" t="n">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0.8501680927287629</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>99.48999999999999</v>
+        <v>986.33</v>
       </c>
       <c r="C190" t="n">
-        <v>-1.49</v>
+        <v>-5.15</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.16</v>
+        <v>-6.89</v>
       </c>
       <c r="E190" t="n">
-        <v>0.8961444904899557</v>
+        <v>0.9999999885620438</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="B191" t="n">
-        <v>197.6</v>
+        <v>118.64</v>
       </c>
       <c r="C191" t="n">
-        <v>7.53</v>
+        <v>-2.27</v>
       </c>
       <c r="D191" t="n">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="E191" t="n">
-        <v>0.7259150620729413</v>
+        <v>0.6691941309927266</v>
       </c>
     </row>
     <row r="192">
@@ -3683,67 +3683,67 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>352.37</v>
+        <v>184.04</v>
       </c>
       <c r="C192" t="n">
-        <v>-2.5</v>
+        <v>22.15</v>
       </c>
       <c r="D192" t="n">
-        <v>1.26</v>
+        <v>0.46</v>
       </c>
       <c r="E192" t="n">
-        <v>0.8264765931671869</v>
+        <v>0.8658008645985206</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>619.64</v>
+        <v>264.87</v>
       </c>
       <c r="C193" t="n">
-        <v>39.91</v>
+        <v>-5.71</v>
       </c>
       <c r="D193" t="n">
-        <v>0.55</v>
+        <v>-2.71</v>
       </c>
       <c r="E193" t="n">
-        <v>0.7129860911348531</v>
+        <v>0.9730512253552648</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>130.25</v>
+        <v>143.96</v>
       </c>
       <c r="C194" t="n">
-        <v>4.96</v>
+        <v>18.98</v>
       </c>
       <c r="D194" t="n">
-        <v>0.26</v>
+        <v>13.23</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5903536416173486</v>
+        <v>0.9397967173328999</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>2907.97</v>
+        <v>445.34</v>
       </c>
       <c r="C195" t="n">
-        <v>-4.67</v>
+        <v>0.03</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.54</v>
+        <v>-0.68</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0.9550480190355983</v>
       </c>
     </row>
     <row r="196">
@@ -3751,50 +3751,50 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>333.62</v>
+        <v>155</v>
       </c>
       <c r="C196" t="n">
-        <v>-12.54</v>
+        <v>-10.2</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.31</v>
+        <v>0.66</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9531618950804343</v>
+        <v>0.8982588491980926</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="B197" t="n">
-        <v>246.62</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C197" t="n">
-        <v>-3.94</v>
+        <v>21.22</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.46</v>
+        <v>1.18</v>
       </c>
       <c r="E197" t="n">
-        <v>0.9223353647731117</v>
+        <v>0.7265570453241861</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>360.92</v>
+        <v>135.45</v>
       </c>
       <c r="C198" t="n">
-        <v>-9.16</v>
+        <v>35.38</v>
       </c>
       <c r="D198" t="n">
-        <v>0.73</v>
+        <v>-0.4</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8691863256739527</v>
+        <v>0.9759633246641254</v>
       </c>
     </row>
     <row r="199">
@@ -3802,16 +3802,16 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>249.4</v>
+        <v>152.73</v>
       </c>
       <c r="C199" t="n">
-        <v>19.25</v>
+        <v>11.86</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.03</v>
+        <v>-1.76</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9521944806487069</v>
+        <v>0.9296872625778979</v>
       </c>
     </row>
     <row r="200">
@@ -3819,50 +3819,50 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>137.55</v>
+        <v>244.84</v>
       </c>
       <c r="C200" t="n">
-        <v>10.54</v>
+        <v>-10.81</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.1</v>
+        <v>-2.42</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8881552158806683</v>
+        <v>0.977713844768947</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.88</v>
+        <v>1.04</v>
       </c>
       <c r="B201" t="n">
-        <v>105.2</v>
+        <v>245.9</v>
       </c>
       <c r="C201" t="n">
-        <v>-11.13</v>
+        <v>31.43</v>
       </c>
       <c r="D201" t="n">
-        <v>2.72</v>
+        <v>7.47</v>
       </c>
       <c r="E201" t="n">
-        <v>0.6351349189659966</v>
+        <v>0.5558620080902352</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B202" t="n">
-        <v>140.61</v>
+        <v>17.88</v>
       </c>
       <c r="C202" t="n">
-        <v>17.97</v>
+        <v>-14</v>
       </c>
       <c r="D202" t="n">
-        <v>12.86</v>
+        <v>-3.99</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9998202533176676</v>
+        <v>0.9909035493532182</v>
       </c>
     </row>
     <row r="203">
@@ -3870,16 +3870,16 @@
         <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>172.66</v>
+        <v>475.91</v>
       </c>
       <c r="C203" t="n">
-        <v>0.58</v>
+        <v>-3.06</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.98</v>
+        <v>0.53</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9733925660476257</v>
+        <v>0.9496374091074391</v>
       </c>
     </row>
     <row r="204">
@@ -3887,50 +3887,50 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>87.42</v>
+        <v>552.47</v>
       </c>
       <c r="C204" t="n">
-        <v>-11.42</v>
+        <v>-3.98</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.67</v>
+        <v>-3.05</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9836628742344575</v>
+        <v>0.9970640152727341</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>193.39</v>
+        <v>162.39</v>
       </c>
       <c r="C205" t="n">
-        <v>-4.6</v>
+        <v>-0.03</v>
       </c>
       <c r="D205" t="n">
-        <v>0.33</v>
+        <v>3.66</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7058266260220326</v>
+        <v>0.6555302483601796</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>317.72</v>
+        <v>182.66</v>
       </c>
       <c r="C206" t="n">
-        <v>8.210000000000001</v>
+        <v>-4.06</v>
       </c>
       <c r="D206" t="n">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5483637712812057</v>
+        <v>0.721078176083228</v>
       </c>
     </row>
     <row r="207">
@@ -3938,84 +3938,84 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>998.53</v>
+        <v>2420.71</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.56</v>
+        <v>8.31</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.87</v>
+        <v>-1.31</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9969516465346443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>144.8</v>
+        <v>178.19</v>
       </c>
       <c r="C208" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="D208" t="n">
-        <v>1.71</v>
+        <v>-1.05</v>
       </c>
       <c r="E208" t="n">
-        <v>0.7283178596497536</v>
+        <v>0.8986922464519255</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="B209" t="n">
-        <v>123.47</v>
+        <v>264.57</v>
       </c>
       <c r="C209" t="n">
-        <v>-5.78</v>
+        <v>3.69</v>
       </c>
       <c r="D209" t="n">
-        <v>0.37</v>
+        <v>2.83</v>
       </c>
       <c r="E209" t="n">
-        <v>0.896026887997402</v>
+        <v>0.572755098529464</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="B210" t="n">
-        <v>2510.92</v>
+        <v>342.38</v>
       </c>
       <c r="C210" t="n">
-        <v>40.7</v>
+        <v>25.06</v>
       </c>
       <c r="D210" t="n">
-        <v>-5.25</v>
+        <v>1.7</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0.698544850270279</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="B211" t="n">
-        <v>193.64</v>
+        <v>246.93</v>
       </c>
       <c r="C211" t="n">
-        <v>-7.23</v>
+        <v>17.25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.92</v>
+        <v>3.4</v>
       </c>
       <c r="E211" t="n">
-        <v>0.8708901164599705</v>
+        <v>0.5023710235407659</v>
       </c>
     </row>
     <row r="212">
@@ -4023,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>53.82</v>
+        <v>139.03</v>
       </c>
       <c r="C212" t="n">
-        <v>-9.75</v>
+        <v>2.58</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.49</v>
+        <v>-0.78</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9795048026037675</v>
+        <v>0.8929615754760264</v>
       </c>
     </row>
     <row r="213">
@@ -4040,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>89.45</v>
+        <v>134.92</v>
       </c>
       <c r="C213" t="n">
-        <v>3.8</v>
+        <v>6.95</v>
       </c>
       <c r="D213" t="n">
-        <v>15.39</v>
+        <v>1.64</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9999997927636387</v>
+        <v>0.7406639264052693</v>
       </c>
     </row>
     <row r="214">
@@ -4057,33 +4057,33 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>172.02</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>15.12</v>
+        <v>4.23</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.02</v>
+        <v>-4.16</v>
       </c>
       <c r="E214" t="n">
-        <v>0.8923569424570628</v>
+        <v>0.9888555854031805</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>166.24</v>
+        <v>191.5</v>
       </c>
       <c r="C215" t="n">
-        <v>56.1</v>
+        <v>11.81</v>
       </c>
       <c r="D215" t="n">
-        <v>0.41</v>
+        <v>2.91</v>
       </c>
       <c r="E215" t="n">
-        <v>0.99271735166634</v>
+        <v>0.6496753266320606</v>
       </c>
     </row>
     <row r="216">
@@ -4091,16 +4091,16 @@
         <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>460.74</v>
+        <v>35.85</v>
       </c>
       <c r="C216" t="n">
-        <v>-4.84</v>
+        <v>-20.48</v>
       </c>
       <c r="D216" t="n">
-        <v>-4.43</v>
+        <v>-3.87</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9991044290044521</v>
+        <v>0.9985327428785435</v>
       </c>
     </row>
     <row r="217">
@@ -4108,16 +4108,16 @@
         <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>107.04</v>
+        <v>7215.22</v>
       </c>
       <c r="C217" t="n">
-        <v>-8.869999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.61</v>
+        <v>2.17</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9523163534011351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -4125,33 +4125,33 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>152.08</v>
+        <v>230.5</v>
       </c>
       <c r="C218" t="n">
-        <v>8</v>
+        <v>16.49</v>
       </c>
       <c r="D218" t="n">
-        <v>0.14</v>
+        <v>4.5</v>
       </c>
       <c r="E218" t="n">
-        <v>0.8678670753321099</v>
+        <v>0.6198674229089843</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="B219" t="n">
-        <v>572.71</v>
+        <v>119.07</v>
       </c>
       <c r="C219" t="n">
-        <v>0.73</v>
+        <v>40.88</v>
       </c>
       <c r="D219" t="n">
-        <v>1.94</v>
+        <v>3.36</v>
       </c>
       <c r="E219" t="n">
-        <v>0.8539758331991012</v>
+        <v>0.8302581591796655</v>
       </c>
     </row>
     <row r="220">
@@ -4159,50 +4159,50 @@
         <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>10546.27</v>
+        <v>176.29</v>
       </c>
       <c r="C220" t="n">
-        <v>9.68</v>
+        <v>3.97</v>
       </c>
       <c r="D220" t="n">
-        <v>-6.39</v>
+        <v>1.8</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0.7198458932287377</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="B221" t="n">
-        <v>237.86</v>
+        <v>160.57</v>
       </c>
       <c r="C221" t="n">
-        <v>103.1</v>
+        <v>-17.02</v>
       </c>
       <c r="D221" t="n">
-        <v>3.73</v>
+        <v>-4.03</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9999999994125339</v>
+        <v>0.9964132359319686</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.77</v>
+        <v>0.3</v>
       </c>
       <c r="B222" t="n">
-        <v>212.56</v>
+        <v>141.15</v>
       </c>
       <c r="C222" t="n">
-        <v>-15.72</v>
+        <v>2.66</v>
       </c>
       <c r="D222" t="n">
-        <v>0.44</v>
+        <v>2.11</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8600728141708354</v>
+        <v>0.6835249815130865</v>
       </c>
     </row>
     <row r="223">
@@ -4210,50 +4210,50 @@
         <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>160.96</v>
+        <v>1173.76</v>
       </c>
       <c r="C223" t="n">
-        <v>18.73</v>
+        <v>-0.3</v>
       </c>
       <c r="D223" t="n">
-        <v>0.64</v>
+        <v>-2.99</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8738988450869534</v>
+        <v>0.999999999212096</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="B224" t="n">
-        <v>147.05</v>
+        <v>171.62</v>
       </c>
       <c r="C224" t="n">
-        <v>56.5</v>
+        <v>-13.89</v>
       </c>
       <c r="D224" t="n">
-        <v>2.37</v>
+        <v>13.27</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9861465635989389</v>
+        <v>0.7581502059881136</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>205.86</v>
+        <v>109.7</v>
       </c>
       <c r="C225" t="n">
-        <v>-3.02</v>
+        <v>-11.44</v>
       </c>
       <c r="D225" t="n">
-        <v>1.72</v>
+        <v>-0.39</v>
       </c>
       <c r="E225" t="n">
-        <v>0.5614145554965733</v>
+        <v>0.9478658978745522</v>
       </c>
     </row>
     <row r="226">
@@ -4261,33 +4261,33 @@
         <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>108.16</v>
+        <v>128.18</v>
       </c>
       <c r="C226" t="n">
-        <v>16.34</v>
+        <v>1.51</v>
       </c>
       <c r="D226" t="n">
-        <v>-6.6</v>
+        <v>-2.29</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9999685718441832</v>
+        <v>0.9546986358628475</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.23</v>
+        <v>0.6</v>
       </c>
       <c r="B227" t="n">
-        <v>659</v>
+        <v>156.11</v>
       </c>
       <c r="C227" t="n">
-        <v>-11.29</v>
+        <v>26.83</v>
       </c>
       <c r="D227" t="n">
-        <v>0.68</v>
+        <v>1.67</v>
       </c>
       <c r="E227" t="n">
-        <v>0.7283795937705388</v>
+        <v>0.7815772152008372</v>
       </c>
     </row>
     <row r="228">
@@ -4295,33 +4295,33 @@
         <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>410.02</v>
+        <v>772.78</v>
       </c>
       <c r="C228" t="n">
-        <v>-14.68</v>
+        <v>-10.66</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.03</v>
+        <v>-0.22</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9913499798795402</v>
+        <v>0.9997893011694267</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>138.32</v>
+        <v>9506.860000000001</v>
       </c>
       <c r="C229" t="n">
-        <v>22.43</v>
+        <v>-1.98</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.18</v>
+        <v>-0.31</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7070968370468254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -4329,67 +4329,67 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>303.4</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="C230" t="n">
-        <v>-34.51</v>
+        <v>-1.57</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.89</v>
+        <v>-4.17</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9993684003990247</v>
+        <v>0.9911273817366743</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>804.58</v>
+        <v>129.29</v>
       </c>
       <c r="C231" t="n">
-        <v>1.9</v>
+        <v>0.62</v>
       </c>
       <c r="D231" t="n">
-        <v>3.85</v>
+        <v>1.71</v>
       </c>
       <c r="E231" t="n">
-        <v>0.888780017565019</v>
+        <v>0.7650867962060508</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="B232" t="n">
-        <v>102.67</v>
+        <v>148.05</v>
       </c>
       <c r="C232" t="n">
-        <v>-3.29</v>
+        <v>-4.27</v>
       </c>
       <c r="D232" t="n">
-        <v>0.3</v>
+        <v>-2.33</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8901245322263722</v>
+        <v>0.9481513885809295</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>1318.7</v>
+        <v>30.96</v>
       </c>
       <c r="C233" t="n">
-        <v>112.51</v>
+        <v>0.79</v>
       </c>
       <c r="D233" t="n">
-        <v>50.37</v>
+        <v>0.28</v>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>0.9017453674218578</v>
       </c>
     </row>
     <row r="234">
@@ -4397,84 +4397,84 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>216.84</v>
+        <v>631.53</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.79</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>0.93</v>
+        <v>-0.53</v>
       </c>
       <c r="E234" t="n">
-        <v>0.8278188856920504</v>
+        <v>0.9970350512856977</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="B235" t="n">
-        <v>42.11</v>
+        <v>1015.04</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.49</v>
+        <v>59.45</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.01</v>
+        <v>52.49</v>
       </c>
       <c r="E235" t="n">
-        <v>0.906897471712545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="B236" t="n">
-        <v>251.97</v>
+        <v>145.35</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3</v>
+        <v>27.94</v>
       </c>
       <c r="D236" t="n">
-        <v>0.31</v>
+        <v>6.34</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8617030448888447</v>
+        <v>0.5310360223909404</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>117.03</v>
+        <v>101.4</v>
       </c>
       <c r="C237" t="n">
-        <v>-2.17</v>
+        <v>-0.61</v>
       </c>
       <c r="D237" t="n">
-        <v>0.79</v>
+        <v>-6.17</v>
       </c>
       <c r="E237" t="n">
-        <v>0.75344142407917</v>
+        <v>0.9980767855465245</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B238" t="n">
-        <v>355.8</v>
+        <v>272.27</v>
       </c>
       <c r="C238" t="n">
-        <v>-6.21</v>
+        <v>-6.18</v>
       </c>
       <c r="D238" t="n">
-        <v>0.36</v>
+        <v>-4.63</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8966559058894984</v>
+        <v>0.9853931780943157</v>
       </c>
     </row>
     <row r="239">
@@ -4482,33 +4482,33 @@
         <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>319.53</v>
+        <v>151.98</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.11</v>
+        <v>7.19</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.84</v>
+        <v>0.95</v>
       </c>
       <c r="E239" t="n">
-        <v>0.9343800639834097</v>
+        <v>0.7761991342498925</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="B240" t="n">
-        <v>112.85</v>
+        <v>123.88</v>
       </c>
       <c r="C240" t="n">
-        <v>2.19</v>
+        <v>-0.52</v>
       </c>
       <c r="D240" t="n">
-        <v>1.87</v>
+        <v>-0.7</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7802850978565683</v>
+        <v>0.7067624681025912</v>
       </c>
     </row>
     <row r="241">
@@ -4516,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>125.63</v>
+        <v>190.56</v>
       </c>
       <c r="C241" t="n">
-        <v>-3.2</v>
+        <v>2.54</v>
       </c>
       <c r="D241" t="n">
-        <v>-2.18</v>
+        <v>-5.42</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9819080262602052</v>
+        <v>0.9946742272040906</v>
       </c>
     </row>
     <row r="242">
@@ -4533,33 +4533,33 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>1246.53</v>
+        <v>345.58</v>
       </c>
       <c r="C242" t="n">
-        <v>64.34999999999999</v>
+        <v>-3.38</v>
       </c>
       <c r="D242" t="n">
-        <v>1.42</v>
+        <v>-4.23</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9999994761885689</v>
+        <v>0.9919304743950363</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="B243" t="n">
-        <v>227.72</v>
+        <v>94.45</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.96</v>
+        <v>6.21</v>
       </c>
       <c r="D243" t="n">
-        <v>1.16</v>
+        <v>1.66</v>
       </c>
       <c r="E243" t="n">
-        <v>0.6345513616504233</v>
+        <v>0.769222305248829</v>
       </c>
     </row>
     <row r="244">
@@ -4567,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>177.37</v>
+        <v>1317.16</v>
       </c>
       <c r="C244" t="n">
-        <v>2.84</v>
+        <v>1.18</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8</v>
+        <v>2.16</v>
       </c>
       <c r="E244" t="n">
-        <v>0.8253005516516244</v>
+        <v>0.9999999999642428</v>
       </c>
     </row>
     <row r="245">
@@ -4584,16 +4584,16 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>176.49</v>
+        <v>149.97</v>
       </c>
       <c r="C245" t="n">
-        <v>10.8</v>
+        <v>-9.74</v>
       </c>
       <c r="D245" t="n">
-        <v>1.38</v>
+        <v>-1.11</v>
       </c>
       <c r="E245" t="n">
-        <v>0.790022917608566</v>
+        <v>0.9515888342678749</v>
       </c>
     </row>
     <row r="246">
@@ -4601,33 +4601,33 @@
         <v>0</v>
       </c>
       <c r="B246" t="n">
-        <v>216.61</v>
+        <v>132.71</v>
       </c>
       <c r="C246" t="n">
-        <v>-10.06</v>
+        <v>-1.44</v>
       </c>
       <c r="D246" t="n">
-        <v>-3.78</v>
+        <v>-1.93</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9980102948000463</v>
+        <v>0.9493235786333711</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="B247" t="n">
-        <v>157.64</v>
+        <v>97.37</v>
       </c>
       <c r="C247" t="n">
-        <v>41.54</v>
+        <v>58.37</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.57</v>
+        <v>33.49</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9941292456547893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -4635,33 +4635,33 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>561.95</v>
+        <v>166</v>
       </c>
       <c r="C248" t="n">
-        <v>-3.71</v>
+        <v>18.74</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.3</v>
+        <v>1.79</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9747930851055175</v>
+        <v>0.7685018005743391</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>150.57</v>
+        <v>124.84</v>
       </c>
       <c r="C249" t="n">
-        <v>-8.24</v>
+        <v>7.06</v>
       </c>
       <c r="D249" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="E249" t="n">
-        <v>0.6176790908397273</v>
+        <v>0.794838698583286</v>
       </c>
     </row>
     <row r="250">
@@ -4669,16 +4669,16 @@
         <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>128.47</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="C250" t="n">
-        <v>9.1</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.6</v>
+        <v>-4.45</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9612656165207843</v>
+        <v>0.9956784433263521</v>
       </c>
     </row>
     <row r="251">
@@ -4686,64 +4686,64 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>146.15</v>
+        <v>185.42</v>
       </c>
       <c r="C251" t="n">
-        <v>36.42</v>
+        <v>5.32</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.09</v>
+        <v>0.75</v>
       </c>
       <c r="E251" t="n">
-        <v>0.9830383496086189</v>
+        <v>0.7822259551193592</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="B252" t="n">
-        <v>122.21</v>
+        <v>161.67</v>
       </c>
       <c r="C252" t="n">
-        <v>8.300000000000001</v>
+        <v>38.17</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.36</v>
+        <v>10.32</v>
       </c>
       <c r="E252" t="n">
-        <v>0.6257562375108237</v>
+        <v>0.5238190902691647</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.83</v>
+        <v>1.3</v>
       </c>
       <c r="B253" t="n">
-        <v>274.9</v>
+        <v>604.5</v>
       </c>
       <c r="C253" t="n">
-        <v>-10.79</v>
+        <v>1.71</v>
       </c>
       <c r="D253" t="n">
-        <v>-4.12</v>
+        <v>1.54</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9962089792856212</v>
+        <v>0.849348027189733</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="B254" t="n">
-        <v>3652.14</v>
+        <v>2675.96</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.82</v>
+        <v>-20.65</v>
       </c>
       <c r="D254" t="n">
-        <v>-1.11</v>
+        <v>-11.57</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
@@ -4754,16 +4754,16 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>155.54</v>
+        <v>284.2</v>
       </c>
       <c r="C255" t="n">
-        <v>-25.02</v>
+        <v>-6.31</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.74</v>
+        <v>1.12</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9918849274934065</v>
+        <v>0.8466254561154943</v>
       </c>
     </row>
     <row r="256">
@@ -4771,33 +4771,33 @@
         <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>140.81</v>
+        <v>307.85</v>
       </c>
       <c r="C256" t="n">
-        <v>6.45</v>
+        <v>4.68</v>
       </c>
       <c r="D256" t="n">
-        <v>0.6</v>
+        <v>3.23</v>
       </c>
       <c r="E256" t="n">
-        <v>0.8384903504265854</v>
+        <v>0.6677490415957645</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="B257" t="n">
-        <v>642.5</v>
+        <v>4899</v>
       </c>
       <c r="C257" t="n">
-        <v>-11.31</v>
+        <v>4.97</v>
       </c>
       <c r="D257" t="n">
-        <v>1.1</v>
+        <v>5.86</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9517891770421038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -4805,33 +4805,33 @@
         <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>212.12</v>
+        <v>137.96</v>
       </c>
       <c r="C258" t="n">
-        <v>-14.34</v>
+        <v>45.33</v>
       </c>
       <c r="D258" t="n">
-        <v>0.79</v>
+        <v>-1.05</v>
       </c>
       <c r="E258" t="n">
-        <v>0.9266854089713668</v>
+        <v>0.9963604271510914</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="B259" t="n">
-        <v>215.54</v>
+        <v>111.03</v>
       </c>
       <c r="C259" t="n">
-        <v>-2.17</v>
+        <v>-10.66</v>
       </c>
       <c r="D259" t="n">
-        <v>1.11</v>
+        <v>1.89</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5488977838667887</v>
+        <v>0.87264318775104</v>
       </c>
     </row>
     <row r="260">
@@ -4839,50 +4839,50 @@
         <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>438.53</v>
+        <v>178.98</v>
       </c>
       <c r="C260" t="n">
-        <v>-14.71</v>
+        <v>12.32</v>
       </c>
       <c r="D260" t="n">
-        <v>-2.38</v>
+        <v>1.22</v>
       </c>
       <c r="E260" t="n">
-        <v>0.9942820385877964</v>
+        <v>0.7566651441413712</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="B261" t="n">
-        <v>120.83</v>
+        <v>243.5</v>
       </c>
       <c r="C261" t="n">
-        <v>17.46</v>
+        <v>26.01</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.16</v>
+        <v>-1.02</v>
       </c>
       <c r="E261" t="n">
-        <v>0.913987842904403</v>
+        <v>0.7261868316449861</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="B262" t="n">
-        <v>163.73</v>
+        <v>119.4</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.74</v>
+        <v>108.7</v>
       </c>
       <c r="D262" t="n">
-        <v>0.36</v>
+        <v>6.13</v>
       </c>
       <c r="E262" t="n">
-        <v>0.8672366936876278</v>
+        <v>0.9999999998604885</v>
       </c>
     </row>
     <row r="263">
@@ -4890,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="B263" t="n">
-        <v>136.78</v>
+        <v>447.67</v>
       </c>
       <c r="C263" t="n">
-        <v>11.95</v>
+        <v>4.97</v>
       </c>
       <c r="D263" t="n">
-        <v>0.67</v>
+        <v>8.23</v>
       </c>
       <c r="E263" t="n">
-        <v>0.8428488066281293</v>
+        <v>0.8206624790541459</v>
       </c>
     </row>
     <row r="264">
@@ -4907,16 +4907,16 @@
         <v>0</v>
       </c>
       <c r="B264" t="n">
-        <v>74.02</v>
+        <v>261.83</v>
       </c>
       <c r="C264" t="n">
-        <v>-6.14</v>
+        <v>-1.01</v>
       </c>
       <c r="D264" t="n">
-        <v>-14.68</v>
+        <v>0.52</v>
       </c>
       <c r="E264" t="n">
-        <v>0.9999999999999858</v>
+        <v>0.8295824607453912</v>
       </c>
     </row>
     <row r="265">
@@ -4924,67 +4924,67 @@
         <v>0</v>
       </c>
       <c r="B265" t="n">
-        <v>164.54</v>
+        <v>114.76</v>
       </c>
       <c r="C265" t="n">
-        <v>13.26</v>
+        <v>4.67</v>
       </c>
       <c r="D265" t="n">
-        <v>0.47</v>
+        <v>2.82</v>
       </c>
       <c r="E265" t="n">
-        <v>0.8561206805682035</v>
+        <v>0.6934370212793108</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B266" t="n">
-        <v>212.75</v>
+        <v>1596.22</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.79</v>
+        <v>64.66</v>
       </c>
       <c r="D266" t="n">
-        <v>0.84</v>
+        <v>1.45</v>
       </c>
       <c r="E266" t="n">
-        <v>0.8335337115336118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="B267" t="n">
-        <v>322.66</v>
+        <v>1102.12</v>
       </c>
       <c r="C267" t="n">
-        <v>67.77</v>
+        <v>0.67</v>
       </c>
       <c r="D267" t="n">
-        <v>4.33</v>
+        <v>9.76</v>
       </c>
       <c r="E267" t="n">
-        <v>0.9997493625021316</v>
+        <v>0.9999988463103968</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>360.36</v>
+        <v>173.77</v>
       </c>
       <c r="C268" t="n">
-        <v>30.28</v>
+        <v>3.46</v>
       </c>
       <c r="D268" t="n">
-        <v>2.13</v>
+        <v>4.08</v>
       </c>
       <c r="E268" t="n">
-        <v>0.5231679730639117</v>
+        <v>0.6102740698867406</v>
       </c>
     </row>
     <row r="269">
@@ -4992,33 +4992,33 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>72.56999999999999</v>
+        <v>399.11</v>
       </c>
       <c r="C269" t="n">
-        <v>2.18</v>
+        <v>-4.19</v>
       </c>
       <c r="D269" t="n">
-        <v>0.34</v>
+        <v>5.94</v>
       </c>
       <c r="E269" t="n">
-        <v>0.8740907080563931</v>
+        <v>0.7796851432141321</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="B270" t="n">
-        <v>1361.77</v>
+        <v>537.39</v>
       </c>
       <c r="C270" t="n">
-        <v>16.71</v>
+        <v>15.64</v>
       </c>
       <c r="D270" t="n">
-        <v>-4.15</v>
+        <v>13.06</v>
       </c>
       <c r="E270" t="n">
-        <v>0.9999980819062034</v>
+        <v>0.9330465486589135</v>
       </c>
     </row>
     <row r="271">
@@ -5026,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>136.39</v>
+        <v>220.6</v>
       </c>
       <c r="C271" t="n">
-        <v>1.14</v>
+        <v>-0.3</v>
       </c>
       <c r="D271" t="n">
-        <v>1.88</v>
+        <v>4.59</v>
       </c>
       <c r="E271" t="n">
-        <v>0.7785714753178071</v>
+        <v>0.6174896369388175</v>
       </c>
     </row>
     <row r="272">
@@ -5043,33 +5043,33 @@
         <v>0</v>
       </c>
       <c r="B272" t="n">
-        <v>152.19</v>
+        <v>177.58</v>
       </c>
       <c r="C272" t="n">
-        <v>-14.1</v>
+        <v>0.6</v>
       </c>
       <c r="D272" t="n">
-        <v>0.03</v>
+        <v>1.95</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9505859137707328</v>
+        <v>0.7297384894836785</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="B273" t="n">
-        <v>187.42</v>
+        <v>182.16</v>
       </c>
       <c r="C273" t="n">
-        <v>-5.39</v>
+        <v>-1.57</v>
       </c>
       <c r="D273" t="n">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
       <c r="E273" t="n">
-        <v>0.8922235887152276</v>
+        <v>0.7151337594626641</v>
       </c>
     </row>
     <row r="274">
@@ -5077,50 +5077,50 @@
         <v>0</v>
       </c>
       <c r="B274" t="n">
-        <v>222.71</v>
+        <v>134.48</v>
       </c>
       <c r="C274" t="n">
-        <v>-5.49</v>
+        <v>12.1</v>
       </c>
       <c r="D274" t="n">
-        <v>1.77</v>
+        <v>5.3</v>
       </c>
       <c r="E274" t="n">
-        <v>0.8168167111218574</v>
+        <v>0.6028525985640267</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="B275" t="n">
-        <v>388.12</v>
+        <v>432.96</v>
       </c>
       <c r="C275" t="n">
-        <v>-13.7</v>
+        <v>-3.98</v>
       </c>
       <c r="D275" t="n">
-        <v>-3.19</v>
+        <v>2.78</v>
       </c>
       <c r="E275" t="n">
-        <v>0.9541889665761238</v>
+        <v>0.8665226330165616</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="B276" t="n">
-        <v>150.93</v>
+        <v>121.23</v>
       </c>
       <c r="C276" t="n">
-        <v>-2.32</v>
+        <v>5.52</v>
       </c>
       <c r="D276" t="n">
-        <v>-1.14</v>
+        <v>-20.15</v>
       </c>
       <c r="E276" t="n">
-        <v>0.9254344274028291</v>
+        <v>0.9999999999970317</v>
       </c>
     </row>
     <row r="277">
@@ -5128,50 +5128,50 @@
         <v>0</v>
       </c>
       <c r="B277" t="n">
-        <v>156.41</v>
+        <v>69.84</v>
       </c>
       <c r="C277" t="n">
-        <v>-1.45</v>
+        <v>-0.98</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.16</v>
+        <v>4.78</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9014716347900109</v>
+        <v>0.7097965918967316</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>51.5</v>
+        <v>198.6</v>
       </c>
       <c r="C278" t="n">
-        <v>-4.17</v>
+        <v>3.88</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.55</v>
+        <v>4.73</v>
       </c>
       <c r="E278" t="n">
-        <v>0.563931873279728</v>
+        <v>0.5841613591761484</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="B279" t="n">
-        <v>172.83</v>
+        <v>282.35</v>
       </c>
       <c r="C279" t="n">
-        <v>68.61</v>
+        <v>27.45</v>
       </c>
       <c r="D279" t="n">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="E279" t="n">
-        <v>0.9998579308024427</v>
+        <v>0.5328168683229989</v>
       </c>
     </row>
     <row r="280">
@@ -5179,33 +5179,186 @@
         <v>0</v>
       </c>
       <c r="B280" t="n">
-        <v>332.55</v>
+        <v>231.29</v>
       </c>
       <c r="C280" t="n">
-        <v>-33.6</v>
+        <v>-0.54</v>
       </c>
       <c r="D280" t="n">
-        <v>-2.55</v>
+        <v>-0.45</v>
       </c>
       <c r="E280" t="n">
-        <v>0.9996271958564696</v>
+        <v>0.8765918465485594</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="B281" t="n">
-        <v>236.57</v>
+        <v>243.18</v>
       </c>
       <c r="C281" t="n">
-        <v>-2.58</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D281" t="n">
-        <v>0.36</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>0.8709585598322341</v>
+        <v>0.9996927060454682</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="B282" t="n">
+        <v>364.66</v>
+      </c>
+      <c r="C282" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.7139921431254826</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0</v>
+      </c>
+      <c r="B283" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="C283" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.7970013200128876</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0</v>
+      </c>
+      <c r="B284" t="n">
+        <v>104.79</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D284" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.6278495986353871</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0</v>
+      </c>
+      <c r="B285" t="n">
+        <v>667.16</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.9999997978016628</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B286" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.5978640254453103</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0</v>
+      </c>
+      <c r="B287" t="n">
+        <v>915.1799999999999</v>
+      </c>
+      <c r="C287" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.9999844954776504</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="B288" t="n">
+        <v>117.08</v>
+      </c>
+      <c r="C288" t="n">
+        <v>166.72</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B289" t="n">
+        <v>109.06</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="D289" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.6066160160466801</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0</v>
+      </c>
+      <c r="B290" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.9999999123231887</v>
       </c>
     </row>
   </sheetData>
